--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="140">
   <si>
     <t>App</t>
   </si>
@@ -392,6 +392,48 @@
   </si>
   <si>
     <t>13.11.2025:10:49</t>
+  </si>
+  <si>
+    <t>General-Dashboard-Clickable_links_[WEB]</t>
+  </si>
+  <si>
+    <t>13.11.2025:12:35</t>
+  </si>
+  <si>
+    <t>DTC-131</t>
+  </si>
+  <si>
+    <t>General-Dashboard-Clickable_links_[WEB]_13_11_2025_12_35.jpg</t>
+  </si>
+  <si>
+    <t>13.11.2025:12:43</t>
+  </si>
+  <si>
+    <t>General-Dashboard-Clickable_links_[WEB]_13_11_2025_12_43.jpg</t>
+  </si>
+  <si>
+    <t>13.11.2025:12:45</t>
+  </si>
+  <si>
+    <t>13.11.2025:12:49</t>
+  </si>
+  <si>
+    <t>General-Dashboard-Clickable_links_[WEB]_13_11_2025_12_49.jpg</t>
+  </si>
+  <si>
+    <t>13.11.2025:13:12</t>
+  </si>
+  <si>
+    <t>13.11.2025:13:41</t>
+  </si>
+  <si>
+    <t>13.11.2025:13:54</t>
+  </si>
+  <si>
+    <t>13.11.2025:14:08</t>
+  </si>
+  <si>
+    <t>13.11.2025:14:10</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="606">
+  <cellXfs count="687">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1633,6 +1675,87 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -2828,7 +2951,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD68"/>
+  <dimension ref="A1:XFD77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -21199,6 +21322,267 @@
         <v>14</v>
       </c>
     </row>
+    <row r="69">
+      <c r="B69" t="s" s="606">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s" s="607">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="608">
+        <v>127</v>
+      </c>
+      <c r="E69" t="s" s="609">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s" s="610">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s" s="611">
+        <v>128</v>
+      </c>
+      <c r="H69" t="s" s="612">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s" s="613">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s" s="614">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s" s="615">
+        <v>126</v>
+      </c>
+      <c r="C70" t="s" s="616">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="617">
+        <v>130</v>
+      </c>
+      <c r="E70" t="s" s="618">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s" s="619">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s" s="620">
+        <v>128</v>
+      </c>
+      <c r="H70" t="s" s="621">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s" s="622">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s" s="623">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s" s="624">
+        <v>126</v>
+      </c>
+      <c r="C71" t="s" s="625">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s" s="626">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s" s="627">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s" s="628">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="629">
+        <v>128</v>
+      </c>
+      <c r="H71" t="s" s="630">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s" s="631">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s" s="632">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s" s="633">
+        <v>126</v>
+      </c>
+      <c r="C72" t="s" s="634">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="635">
+        <v>133</v>
+      </c>
+      <c r="E72" t="s" s="636">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s" s="637">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s" s="638">
+        <v>128</v>
+      </c>
+      <c r="H72" t="s" s="639">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s" s="640">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s" s="641">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s" s="642">
+        <v>126</v>
+      </c>
+      <c r="C73" t="s" s="643">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s" s="644">
+        <v>135</v>
+      </c>
+      <c r="E73" t="s" s="645">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s" s="646">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s" s="647">
+        <v>128</v>
+      </c>
+      <c r="H73" t="s" s="648">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s" s="649">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s" s="650">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="651">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s" s="652">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s" s="653">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s" s="654">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s" s="655">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s" s="656">
+        <v>128</v>
+      </c>
+      <c r="H74" t="s" s="657">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s" s="658">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s" s="659">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="660">
+        <v>41</v>
+      </c>
+      <c r="C75" t="s" s="661">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s" s="662">
+        <v>137</v>
+      </c>
+      <c r="E75" t="s" s="663">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s" s="664">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="665">
+        <v>128</v>
+      </c>
+      <c r="H75" t="s" s="666">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s" s="667">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s" s="668">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s" s="669">
+        <v>41</v>
+      </c>
+      <c r="C76" t="s" s="670">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s" s="671">
+        <v>138</v>
+      </c>
+      <c r="E76" t="s" s="672">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s" s="673">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s" s="674">
+        <v>128</v>
+      </c>
+      <c r="H76" t="s" s="675">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s" s="676">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s" s="677">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s" s="678">
+        <v>41</v>
+      </c>
+      <c r="C77" t="s" s="679">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s" s="680">
+        <v>139</v>
+      </c>
+      <c r="E77" t="s" s="681">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s" s="682">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s" s="683">
+        <v>128</v>
+      </c>
+      <c r="H77" t="s" s="684">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s" s="685">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s" s="686">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="141">
   <si>
     <t>App</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>13.11.2025:14:10</t>
+  </si>
+  <si>
+    <t>13.11.2025:14:43</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="687">
+  <cellXfs count="696">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1738,6 +1741,15 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -2951,7 +2963,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD77"/>
+  <dimension ref="A1:XFD78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -21583,6 +21595,35 @@
         <v>14</v>
       </c>
     </row>
+    <row r="78">
+      <c r="B78" t="s" s="687">
+        <v>126</v>
+      </c>
+      <c r="C78" t="s" s="688">
+        <v>24</v>
+      </c>
+      <c r="D78" t="s" s="689">
+        <v>140</v>
+      </c>
+      <c r="E78" t="s" s="690">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s" s="691">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s" s="692">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="693">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s" s="694">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s" s="695">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="215">
   <si>
     <t>App</t>
   </si>
@@ -437,6 +437,228 @@
   </si>
   <si>
     <t>13.11.2025:14:43</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]</t>
+  </si>
+  <si>
+    <t>20.11.2025:10:27</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_20_11_2025_10_27.jpg</t>
+  </si>
+  <si>
+    <t>20.11.2025:10:30</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_20_11_2025_10_30.jpg</t>
+  </si>
+  <si>
+    <t>20.11.2025:10:34</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_20_11_2025_10_34.jpg</t>
+  </si>
+  <si>
+    <t>20.11.2025:10:35</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_20_11_2025_10_35.jpg</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>20.11.2025:11:14</t>
+  </si>
+  <si>
+    <t>20.11.2025:11:22</t>
+  </si>
+  <si>
+    <t>20.11.2025:11:24</t>
+  </si>
+  <si>
+    <t>20.11.2025:15:36</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_20_11_2025_15_36.jpg</t>
+  </si>
+  <si>
+    <t>20.11.2025:15:39</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_20_11_2025_15_39.jpg</t>
+  </si>
+  <si>
+    <t>20.11.2025:15:41</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_20_11_2025_15_41.jpg</t>
+  </si>
+  <si>
+    <t>20.11.2025:15:46</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_20_11_2025_15_46.jpg</t>
+  </si>
+  <si>
+    <t>20.11.2025:15:51</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_20_11_2025_15_51.jpg</t>
+  </si>
+  <si>
+    <t>20.11.2025:16:01</t>
+  </si>
+  <si>
+    <t>20.11.2025:16:06</t>
+  </si>
+  <si>
+    <t>20.11.2025:16:34</t>
+  </si>
+  <si>
+    <t>21.11.2025:14:10</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>21.11.2025:14:38</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_21_11_2025_14_38.jpg</t>
+  </si>
+  <si>
+    <t>21.11.2025:14:47</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_21_11_2025_14_47.jpg</t>
+  </si>
+  <si>
+    <t>21.11.2025:14:53</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_21_11_2025_14_53.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:08:49</t>
+  </si>
+  <si>
+    <t>24.11.2025:09:02</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_24_11_2025_09_02.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:09:04</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_24_11_2025_09_04.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:09:06</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_24_11_2025_09_06.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:09:11</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_24_11_2025_09_11.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:09:13</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_24_11_2025_09_13.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:09:16</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_24_11_2025_09_16.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:09:17</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_24_11_2025_09_17.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:09:19</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Header-Display_[WEB]</t>
+  </si>
+  <si>
+    <t>24.11.2025:11:31</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Header-Display_[WEB]_24_11_2025_11_31.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:11:33</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Header-Display_[WEB]_24_11_2025_11_33.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:11:34</t>
+  </si>
+  <si>
+    <t>24.11.2025:11:44</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_24_11_2025_11_44.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:11:46</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_24_11_2025_11_46.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:11:49</t>
+  </si>
+  <si>
+    <t>24.11.2025:11:50</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_24_11_2025_11_50.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:11:51</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_24_11_2025_11_51.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:11:56</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_24_11_2025_11_56.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:12:10</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_24_11_2025_12_10.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:12:12</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_24_11_2025_12_12.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:12:16</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_24_11_2025_12_16.jpg</t>
+  </si>
+  <si>
+    <t>24.11.2025:12:17</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="696">
+  <cellXfs count="1074">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1786,6 +2008,384 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -2963,7 +3563,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD78"/>
+  <dimension ref="A1:XFD120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -21624,6 +22224,1224 @@
         <v>14</v>
       </c>
     </row>
+    <row r="79">
+      <c r="B79" t="s" s="696">
+        <v>141</v>
+      </c>
+      <c r="C79" t="s" s="697">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="698">
+        <v>142</v>
+      </c>
+      <c r="E79" t="s" s="699">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s" s="700">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s" s="701">
+        <v>128</v>
+      </c>
+      <c r="H79" t="s" s="702">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s" s="703">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s" s="704">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s" s="705">
+        <v>141</v>
+      </c>
+      <c r="C80" t="s" s="706">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="707">
+        <v>144</v>
+      </c>
+      <c r="E80" t="s" s="708">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s" s="709">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s" s="710">
+        <v>128</v>
+      </c>
+      <c r="H80" t="s" s="711">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s" s="712">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s" s="713">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s" s="714">
+        <v>141</v>
+      </c>
+      <c r="C81" t="s" s="715">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="716">
+        <v>146</v>
+      </c>
+      <c r="E81" t="s" s="717">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s" s="718">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="719">
+        <v>128</v>
+      </c>
+      <c r="H81" t="s" s="720">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s" s="721">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s" s="722">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s" s="723">
+        <v>141</v>
+      </c>
+      <c r="C82" t="s" s="724">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="725">
+        <v>146</v>
+      </c>
+      <c r="E82" t="s" s="726">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s" s="727">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s" s="728">
+        <v>128</v>
+      </c>
+      <c r="H82" t="s" s="729">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s" s="730">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s" s="731">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s" s="732">
+        <v>141</v>
+      </c>
+      <c r="C83" t="s" s="733">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="734">
+        <v>148</v>
+      </c>
+      <c r="E83" t="s" s="735">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s" s="736">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s" s="737">
+        <v>128</v>
+      </c>
+      <c r="H83" t="s" s="738">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s" s="739">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s" s="740">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s" s="741">
+        <v>150</v>
+      </c>
+      <c r="C84" t="s" s="742">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="743">
+        <v>151</v>
+      </c>
+      <c r="E84" t="s" s="744">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s" s="745">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s" s="746">
+        <v>128</v>
+      </c>
+      <c r="H84" t="s" s="747">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s" s="748">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s" s="749">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s" s="750">
+        <v>150</v>
+      </c>
+      <c r="C85" t="s" s="751">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="752">
+        <v>152</v>
+      </c>
+      <c r="E85" t="s" s="753">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s" s="754">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s" s="755">
+        <v>128</v>
+      </c>
+      <c r="H85" t="s" s="756">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s" s="757">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s" s="758">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s" s="759">
+        <v>150</v>
+      </c>
+      <c r="C86" t="s" s="760">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="761">
+        <v>153</v>
+      </c>
+      <c r="E86" t="s" s="762">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s" s="763">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s" s="764">
+        <v>128</v>
+      </c>
+      <c r="H86" t="s" s="765">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s" s="766">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s" s="767">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s" s="768">
+        <v>141</v>
+      </c>
+      <c r="C87" t="s" s="769">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="770">
+        <v>154</v>
+      </c>
+      <c r="E87" t="s" s="771">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s" s="772">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s" s="773">
+        <v>128</v>
+      </c>
+      <c r="H87" t="s" s="774">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s" s="775">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s" s="776">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s" s="777">
+        <v>141</v>
+      </c>
+      <c r="C88" t="s" s="778">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="779">
+        <v>156</v>
+      </c>
+      <c r="E88" t="s" s="780">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s" s="781">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s" s="782">
+        <v>128</v>
+      </c>
+      <c r="H88" t="s" s="783">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s" s="784">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s" s="785">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s" s="786">
+        <v>141</v>
+      </c>
+      <c r="C89" t="s" s="787">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="788">
+        <v>158</v>
+      </c>
+      <c r="E89" t="s" s="789">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s" s="790">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s" s="791">
+        <v>128</v>
+      </c>
+      <c r="H89" t="s" s="792">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s" s="793">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s" s="794">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s" s="795">
+        <v>141</v>
+      </c>
+      <c r="C90" t="s" s="796">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="797">
+        <v>160</v>
+      </c>
+      <c r="E90" t="s" s="798">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s" s="799">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s" s="800">
+        <v>128</v>
+      </c>
+      <c r="H90" t="s" s="801">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s" s="802">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s" s="803">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s" s="804">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s" s="805">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="806">
+        <v>162</v>
+      </c>
+      <c r="E91" t="s" s="807">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s" s="808">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s" s="809">
+        <v>128</v>
+      </c>
+      <c r="H91" t="s" s="810">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s" s="811">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s" s="812">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s" s="813">
+        <v>141</v>
+      </c>
+      <c r="C92" t="s" s="814">
+        <v>24</v>
+      </c>
+      <c r="D92" t="s" s="815">
+        <v>164</v>
+      </c>
+      <c r="E92" t="s" s="816">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s" s="817">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s" s="818">
+        <v>128</v>
+      </c>
+      <c r="H92" t="s" s="819">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s" s="820">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s" s="821">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s" s="822">
+        <v>141</v>
+      </c>
+      <c r="C93" t="s" s="823">
+        <v>24</v>
+      </c>
+      <c r="D93" t="s" s="824">
+        <v>165</v>
+      </c>
+      <c r="E93" t="s" s="825">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s" s="826">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s" s="827">
+        <v>128</v>
+      </c>
+      <c r="H93" t="s" s="828">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s" s="829">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s" s="830">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s" s="831">
+        <v>141</v>
+      </c>
+      <c r="C94" t="s" s="832">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s" s="833">
+        <v>166</v>
+      </c>
+      <c r="E94" t="s" s="834">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s" s="835">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s" s="836">
+        <v>128</v>
+      </c>
+      <c r="H94" t="s" s="837">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s" s="838">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s" s="839">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s" s="840">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s" s="841">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s" s="842">
+        <v>167</v>
+      </c>
+      <c r="E95" t="s" s="843">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s" s="844">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s" s="845">
+        <v>128</v>
+      </c>
+      <c r="H95" t="s" s="846">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s" s="847">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s" s="848">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s" s="849">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s" s="850">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="851">
+        <v>169</v>
+      </c>
+      <c r="E96" t="s" s="852">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s" s="853">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s" s="854">
+        <v>128</v>
+      </c>
+      <c r="H96" t="s" s="855">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s" s="856">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s" s="857">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s" s="858">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s" s="859">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="860">
+        <v>171</v>
+      </c>
+      <c r="E97" t="s" s="861">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s" s="862">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s" s="863">
+        <v>128</v>
+      </c>
+      <c r="H97" t="s" s="864">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s" s="865">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s" s="866">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s" s="867">
+        <v>168</v>
+      </c>
+      <c r="C98" t="s" s="868">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="869">
+        <v>173</v>
+      </c>
+      <c r="E98" t="s" s="870">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s" s="871">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s" s="872">
+        <v>128</v>
+      </c>
+      <c r="H98" t="s" s="873">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s" s="874">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s" s="875">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s" s="876">
+        <v>141</v>
+      </c>
+      <c r="C99" t="s" s="877">
+        <v>24</v>
+      </c>
+      <c r="D99" t="s" s="878">
+        <v>175</v>
+      </c>
+      <c r="E99" t="s" s="879">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s" s="880">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s" s="881">
+        <v>128</v>
+      </c>
+      <c r="H99" t="s" s="882">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s" s="883">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s" s="884">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s" s="885">
+        <v>168</v>
+      </c>
+      <c r="C100" t="s" s="886">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="887">
+        <v>176</v>
+      </c>
+      <c r="E100" t="s" s="888">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s" s="889">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s" s="890">
+        <v>128</v>
+      </c>
+      <c r="H100" t="s" s="891">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s" s="892">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s" s="893">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s" s="894">
+        <v>168</v>
+      </c>
+      <c r="C101" t="s" s="895">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="896">
+        <v>178</v>
+      </c>
+      <c r="E101" t="s" s="897">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s" s="898">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s" s="899">
+        <v>128</v>
+      </c>
+      <c r="H101" t="s" s="900">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s" s="901">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s" s="902">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s" s="903">
+        <v>168</v>
+      </c>
+      <c r="C102" t="s" s="904">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="905">
+        <v>180</v>
+      </c>
+      <c r="E102" t="s" s="906">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s" s="907">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s" s="908">
+        <v>128</v>
+      </c>
+      <c r="H102" t="s" s="909">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s" s="910">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s" s="911">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s" s="912">
+        <v>168</v>
+      </c>
+      <c r="C103" t="s" s="913">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="914">
+        <v>182</v>
+      </c>
+      <c r="E103" t="s" s="915">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s" s="916">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s" s="917">
+        <v>128</v>
+      </c>
+      <c r="H103" t="s" s="918">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s" s="919">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s" s="920">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s" s="921">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s" s="922">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="923">
+        <v>184</v>
+      </c>
+      <c r="E104" t="s" s="924">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s" s="925">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s" s="926">
+        <v>128</v>
+      </c>
+      <c r="H104" t="s" s="927">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s" s="928">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s" s="929">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s" s="930">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s" s="931">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="932">
+        <v>186</v>
+      </c>
+      <c r="E105" t="s" s="933">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s" s="934">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s" s="935">
+        <v>128</v>
+      </c>
+      <c r="H105" t="s" s="936">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s" s="937">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s" s="938">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s" s="939">
+        <v>168</v>
+      </c>
+      <c r="C106" t="s" s="940">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="941">
+        <v>188</v>
+      </c>
+      <c r="E106" t="s" s="942">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s" s="943">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s" s="944">
+        <v>128</v>
+      </c>
+      <c r="H106" t="s" s="945">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s" s="946">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s" s="947">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s" s="948">
+        <v>168</v>
+      </c>
+      <c r="C107" t="s" s="949">
+        <v>24</v>
+      </c>
+      <c r="D107" t="s" s="950">
+        <v>190</v>
+      </c>
+      <c r="E107" t="s" s="951">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s" s="952">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s" s="953">
+        <v>128</v>
+      </c>
+      <c r="H107" t="s" s="954">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s" s="955">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s" s="956">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s" s="957">
+        <v>191</v>
+      </c>
+      <c r="C108" t="s" s="958">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="959">
+        <v>192</v>
+      </c>
+      <c r="E108" t="s" s="960">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s" s="961">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s" s="962">
+        <v>128</v>
+      </c>
+      <c r="H108" t="s" s="963">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s" s="964">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s" s="965">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s" s="966">
+        <v>191</v>
+      </c>
+      <c r="C109" t="s" s="967">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="968">
+        <v>194</v>
+      </c>
+      <c r="E109" t="s" s="969">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s" s="970">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s" s="971">
+        <v>128</v>
+      </c>
+      <c r="H109" t="s" s="972">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s" s="973">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s" s="974">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s" s="975">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s" s="976">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s" s="977">
+        <v>196</v>
+      </c>
+      <c r="E110" t="s" s="978">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s" s="979">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s" s="980">
+        <v>128</v>
+      </c>
+      <c r="H110" t="s" s="981">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s" s="982">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s" s="983">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s" s="984">
+        <v>150</v>
+      </c>
+      <c r="C111" t="s" s="985">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="986">
+        <v>197</v>
+      </c>
+      <c r="E111" t="s" s="987">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s" s="988">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s" s="989">
+        <v>128</v>
+      </c>
+      <c r="H111" t="s" s="990">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s" s="991">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s" s="992">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s" s="993">
+        <v>150</v>
+      </c>
+      <c r="C112" t="s" s="994">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="995">
+        <v>199</v>
+      </c>
+      <c r="E112" t="s" s="996">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s" s="997">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s" s="998">
+        <v>128</v>
+      </c>
+      <c r="H112" t="s" s="999">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s" s="1000">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s" s="1001">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s" s="1002">
+        <v>150</v>
+      </c>
+      <c r="C113" t="s" s="1003">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="1004">
+        <v>201</v>
+      </c>
+      <c r="E113" t="s" s="1005">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s" s="1006">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s" s="1007">
+        <v>128</v>
+      </c>
+      <c r="H113" t="s" s="1008">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s" s="1009">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s" s="1010">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s" s="1011">
+        <v>150</v>
+      </c>
+      <c r="C114" t="s" s="1012">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="1013">
+        <v>202</v>
+      </c>
+      <c r="E114" t="s" s="1014">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s" s="1015">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s" s="1016">
+        <v>128</v>
+      </c>
+      <c r="H114" t="s" s="1017">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s" s="1018">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s" s="1019">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s" s="1020">
+        <v>150</v>
+      </c>
+      <c r="C115" t="s" s="1021">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="1022">
+        <v>204</v>
+      </c>
+      <c r="E115" t="s" s="1023">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s" s="1024">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s" s="1025">
+        <v>128</v>
+      </c>
+      <c r="H115" t="s" s="1026">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s" s="1027">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s" s="1028">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s" s="1029">
+        <v>150</v>
+      </c>
+      <c r="C116" t="s" s="1030">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="1031">
+        <v>206</v>
+      </c>
+      <c r="E116" t="s" s="1032">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s" s="1033">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s" s="1034">
+        <v>128</v>
+      </c>
+      <c r="H116" t="s" s="1035">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s" s="1036">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s" s="1037">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="s" s="1038">
+        <v>150</v>
+      </c>
+      <c r="C117" t="s" s="1039">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="1040">
+        <v>208</v>
+      </c>
+      <c r="E117" t="s" s="1041">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s" s="1042">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s" s="1043">
+        <v>128</v>
+      </c>
+      <c r="H117" t="s" s="1044">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s" s="1045">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s" s="1046">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="s" s="1047">
+        <v>150</v>
+      </c>
+      <c r="C118" t="s" s="1048">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="1049">
+        <v>210</v>
+      </c>
+      <c r="E118" t="s" s="1050">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s" s="1051">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s" s="1052">
+        <v>128</v>
+      </c>
+      <c r="H118" t="s" s="1053">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s" s="1054">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s" s="1055">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s" s="1056">
+        <v>150</v>
+      </c>
+      <c r="C119" t="s" s="1057">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="1058">
+        <v>212</v>
+      </c>
+      <c r="E119" t="s" s="1059">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s" s="1060">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s" s="1061">
+        <v>128</v>
+      </c>
+      <c r="H119" t="s" s="1062">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s" s="1063">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s" s="1064">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="s" s="1065">
+        <v>150</v>
+      </c>
+      <c r="C120" t="s" s="1066">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s" s="1067">
+        <v>214</v>
+      </c>
+      <c r="E120" t="s" s="1068">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s" s="1069">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s" s="1070">
+        <v>128</v>
+      </c>
+      <c r="H120" t="s" s="1071">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s" s="1072">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s" s="1073">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="267">
   <si>
     <t>App</t>
   </si>
@@ -659,6 +659,162 @@
   </si>
   <si>
     <t>24.11.2025:12:17</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]</t>
+  </si>
+  <si>
+    <t>02.12.2025:09:18</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_09_18.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:09:21</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_09_21.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:09:26</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_09_26.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:09:34</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_09_34.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:09:40</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_09_40.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:09:41</t>
+  </si>
+  <si>
+    <t>02.12.2025:10:20</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:10</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_10.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:11</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_11.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:17</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_17.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:24</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_24.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:26</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_26.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:31</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_31.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:33</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_33.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:42</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_42.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:57</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_57.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:11:58</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_11_58.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:00</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_12_00.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:02</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_12_02.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:05</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_12_05.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:07</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_12_07.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:08</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_12_08.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:11</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_12_11.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:14</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_12_14.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:15</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_12_15.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:16</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_02_12_2025_12_16.jpg</t>
+  </si>
+  <si>
+    <t>02.12.2025:12:18</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1074">
+  <cellXfs count="1317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2305,6 +2461,249 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
@@ -3563,7 +3962,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD120"/>
+  <dimension ref="A1:XFD147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -23442,6 +23841,789 @@
         <v>14</v>
       </c>
     </row>
+    <row r="121">
+      <c r="B121" t="s" s="1074">
+        <v>215</v>
+      </c>
+      <c r="C121" t="s" s="1075">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="1076">
+        <v>216</v>
+      </c>
+      <c r="E121" t="s" s="1077">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s" s="1078">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s" s="1079">
+        <v>128</v>
+      </c>
+      <c r="H121" t="s" s="1080">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s" s="1081">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s" s="1082">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="s" s="1083">
+        <v>215</v>
+      </c>
+      <c r="C122" t="s" s="1084">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="1085">
+        <v>218</v>
+      </c>
+      <c r="E122" t="s" s="1086">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s" s="1087">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s" s="1088">
+        <v>128</v>
+      </c>
+      <c r="H122" t="s" s="1089">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s" s="1090">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s" s="1091">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="s" s="1092">
+        <v>215</v>
+      </c>
+      <c r="C123" t="s" s="1093">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="1094">
+        <v>220</v>
+      </c>
+      <c r="E123" t="s" s="1095">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s" s="1096">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s" s="1097">
+        <v>128</v>
+      </c>
+      <c r="H123" t="s" s="1098">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s" s="1099">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s" s="1100">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="s" s="1101">
+        <v>215</v>
+      </c>
+      <c r="C124" t="s" s="1102">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="1103">
+        <v>222</v>
+      </c>
+      <c r="E124" t="s" s="1104">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s" s="1105">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s" s="1106">
+        <v>128</v>
+      </c>
+      <c r="H124" t="s" s="1107">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s" s="1108">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s" s="1109">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="s" s="1110">
+        <v>215</v>
+      </c>
+      <c r="C125" t="s" s="1111">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="1112">
+        <v>224</v>
+      </c>
+      <c r="E125" t="s" s="1113">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s" s="1114">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s" s="1115">
+        <v>128</v>
+      </c>
+      <c r="H125" t="s" s="1116">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s" s="1117">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s" s="1118">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="s" s="1119">
+        <v>215</v>
+      </c>
+      <c r="C126" t="s" s="1120">
+        <v>24</v>
+      </c>
+      <c r="D126" t="s" s="1121">
+        <v>226</v>
+      </c>
+      <c r="E126" t="s" s="1122">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s" s="1123">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s" s="1124">
+        <v>128</v>
+      </c>
+      <c r="H126" t="s" s="1125">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s" s="1126">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s" s="1127">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="s" s="1128">
+        <v>215</v>
+      </c>
+      <c r="C127" t="s" s="1129">
+        <v>24</v>
+      </c>
+      <c r="D127" t="s" s="1130">
+        <v>227</v>
+      </c>
+      <c r="E127" t="s" s="1131">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s" s="1132">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s" s="1133">
+        <v>128</v>
+      </c>
+      <c r="H127" t="s" s="1134">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s" s="1135">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s" s="1136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="s" s="1137">
+        <v>215</v>
+      </c>
+      <c r="C128" t="s" s="1138">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="1139">
+        <v>228</v>
+      </c>
+      <c r="E128" t="s" s="1140">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s" s="1141">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s" s="1142">
+        <v>128</v>
+      </c>
+      <c r="H128" t="s" s="1143">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s" s="1144">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s" s="1145">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="s" s="1146">
+        <v>215</v>
+      </c>
+      <c r="C129" t="s" s="1147">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="1148">
+        <v>230</v>
+      </c>
+      <c r="E129" t="s" s="1149">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s" s="1150">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s" s="1151">
+        <v>128</v>
+      </c>
+      <c r="H129" t="s" s="1152">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s" s="1153">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s" s="1154">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="s" s="1155">
+        <v>215</v>
+      </c>
+      <c r="C130" t="s" s="1156">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="1157">
+        <v>232</v>
+      </c>
+      <c r="E130" t="s" s="1158">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s" s="1159">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s" s="1160">
+        <v>128</v>
+      </c>
+      <c r="H130" t="s" s="1161">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s" s="1162">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s" s="1163">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="s" s="1164">
+        <v>215</v>
+      </c>
+      <c r="C131" t="s" s="1165">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="1166">
+        <v>234</v>
+      </c>
+      <c r="E131" t="s" s="1167">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s" s="1168">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s" s="1169">
+        <v>128</v>
+      </c>
+      <c r="H131" t="s" s="1170">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s" s="1171">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s" s="1172">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="s" s="1173">
+        <v>215</v>
+      </c>
+      <c r="C132" t="s" s="1174">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="1175">
+        <v>236</v>
+      </c>
+      <c r="E132" t="s" s="1176">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s" s="1177">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s" s="1178">
+        <v>128</v>
+      </c>
+      <c r="H132" t="s" s="1179">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s" s="1180">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s" s="1181">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="s" s="1182">
+        <v>215</v>
+      </c>
+      <c r="C133" t="s" s="1183">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="1184">
+        <v>238</v>
+      </c>
+      <c r="E133" t="s" s="1185">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s" s="1186">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s" s="1187">
+        <v>128</v>
+      </c>
+      <c r="H133" t="s" s="1188">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s" s="1189">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s" s="1190">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="s" s="1191">
+        <v>215</v>
+      </c>
+      <c r="C134" t="s" s="1192">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="1193">
+        <v>240</v>
+      </c>
+      <c r="E134" t="s" s="1194">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s" s="1195">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s" s="1196">
+        <v>128</v>
+      </c>
+      <c r="H134" t="s" s="1197">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s" s="1198">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s" s="1199">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="s" s="1200">
+        <v>215</v>
+      </c>
+      <c r="C135" t="s" s="1201">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="1202">
+        <v>242</v>
+      </c>
+      <c r="E135" t="s" s="1203">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s" s="1204">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s" s="1205">
+        <v>128</v>
+      </c>
+      <c r="H135" t="s" s="1206">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s" s="1207">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s" s="1208">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="s" s="1209">
+        <v>215</v>
+      </c>
+      <c r="C136" t="s" s="1210">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="1211">
+        <v>244</v>
+      </c>
+      <c r="E136" t="s" s="1212">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s" s="1213">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s" s="1214">
+        <v>128</v>
+      </c>
+      <c r="H136" t="s" s="1215">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s" s="1216">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s" s="1217">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="s" s="1218">
+        <v>215</v>
+      </c>
+      <c r="C137" t="s" s="1219">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="1220">
+        <v>246</v>
+      </c>
+      <c r="E137" t="s" s="1221">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s" s="1222">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s" s="1223">
+        <v>128</v>
+      </c>
+      <c r="H137" t="s" s="1224">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s" s="1225">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s" s="1226">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="s" s="1227">
+        <v>215</v>
+      </c>
+      <c r="C138" t="s" s="1228">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="1229">
+        <v>248</v>
+      </c>
+      <c r="E138" t="s" s="1230">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s" s="1231">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s" s="1232">
+        <v>128</v>
+      </c>
+      <c r="H138" t="s" s="1233">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s" s="1234">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s" s="1235">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="s" s="1236">
+        <v>215</v>
+      </c>
+      <c r="C139" t="s" s="1237">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="1238">
+        <v>250</v>
+      </c>
+      <c r="E139" t="s" s="1239">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s" s="1240">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s" s="1241">
+        <v>128</v>
+      </c>
+      <c r="H139" t="s" s="1242">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s" s="1243">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s" s="1244">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="s" s="1245">
+        <v>215</v>
+      </c>
+      <c r="C140" t="s" s="1246">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="1247">
+        <v>252</v>
+      </c>
+      <c r="E140" t="s" s="1248">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s" s="1249">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s" s="1250">
+        <v>128</v>
+      </c>
+      <c r="H140" t="s" s="1251">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s" s="1252">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s" s="1253">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="s" s="1254">
+        <v>215</v>
+      </c>
+      <c r="C141" t="s" s="1255">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="1256">
+        <v>254</v>
+      </c>
+      <c r="E141" t="s" s="1257">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s" s="1258">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s" s="1259">
+        <v>128</v>
+      </c>
+      <c r="H141" t="s" s="1260">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s" s="1261">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s" s="1262">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="s" s="1263">
+        <v>215</v>
+      </c>
+      <c r="C142" t="s" s="1264">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="1265">
+        <v>256</v>
+      </c>
+      <c r="E142" t="s" s="1266">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s" s="1267">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s" s="1268">
+        <v>128</v>
+      </c>
+      <c r="H142" t="s" s="1269">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s" s="1270">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s" s="1271">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="s" s="1272">
+        <v>215</v>
+      </c>
+      <c r="C143" t="s" s="1273">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="1274">
+        <v>258</v>
+      </c>
+      <c r="E143" t="s" s="1275">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s" s="1276">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s" s="1277">
+        <v>128</v>
+      </c>
+      <c r="H143" t="s" s="1278">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s" s="1279">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s" s="1280">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="s" s="1281">
+        <v>215</v>
+      </c>
+      <c r="C144" t="s" s="1282">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="1283">
+        <v>260</v>
+      </c>
+      <c r="E144" t="s" s="1284">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s" s="1285">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s" s="1286">
+        <v>128</v>
+      </c>
+      <c r="H144" t="s" s="1287">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s" s="1288">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s" s="1289">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="s" s="1290">
+        <v>215</v>
+      </c>
+      <c r="C145" t="s" s="1291">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="1292">
+        <v>262</v>
+      </c>
+      <c r="E145" t="s" s="1293">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s" s="1294">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s" s="1295">
+        <v>128</v>
+      </c>
+      <c r="H145" t="s" s="1296">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s" s="1297">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s" s="1298">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="s" s="1299">
+        <v>215</v>
+      </c>
+      <c r="C146" t="s" s="1300">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="1301">
+        <v>264</v>
+      </c>
+      <c r="E146" t="s" s="1302">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s" s="1303">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s" s="1304">
+        <v>128</v>
+      </c>
+      <c r="H146" t="s" s="1305">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s" s="1306">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s" s="1307">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="s" s="1308">
+        <v>215</v>
+      </c>
+      <c r="C147" t="s" s="1309">
+        <v>24</v>
+      </c>
+      <c r="D147" t="s" s="1310">
+        <v>266</v>
+      </c>
+      <c r="E147" t="s" s="1311">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s" s="1312">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s" s="1313">
+        <v>128</v>
+      </c>
+      <c r="H147" t="s" s="1314">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s" s="1315">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s" s="1316">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="268">
   <si>
     <t>App</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>02.12.2025:12:18</t>
+  </si>
+  <si>
+    <t>02.12.2025:14:57</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1317">
+  <cellXfs count="1326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2785,6 +2788,15 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -3962,7 +3974,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD147"/>
+  <dimension ref="A1:XFD148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -24624,6 +24636,35 @@
         <v>14</v>
       </c>
     </row>
+    <row r="148">
+      <c r="B148" t="s" s="1317">
+        <v>215</v>
+      </c>
+      <c r="C148" t="s" s="1318">
+        <v>24</v>
+      </c>
+      <c r="D148" t="s" s="1319">
+        <v>267</v>
+      </c>
+      <c r="E148" t="s" s="1320">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s" s="1321">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s" s="1322">
+        <v>128</v>
+      </c>
+      <c r="H148" t="s" s="1323">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s" s="1324">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s" s="1325">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="340">
   <si>
     <t>App</t>
   </si>
@@ -818,6 +818,222 @@
   </si>
   <si>
     <t>02.12.2025:14:57</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]</t>
+  </si>
+  <si>
+    <t>04.12.2025:13:52</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_13_52.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:13:58</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:16</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_16.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:18</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_18.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:21</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:27</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_27.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:30</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_30.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:39</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_39.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:40</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_40.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:42</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_42.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:43</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_43.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:45</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_45.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:52</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_52.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:54</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_54.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:14:57</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_14_57.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:15:34</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_15_34.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:15:36</t>
+  </si>
+  <si>
+    <t>04.12.2025:16:04</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:00</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_00.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:01</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_01.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:03</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_03.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:07</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_07.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:12</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_12.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:15</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_15.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:19</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_19.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:30</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_30.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:32</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_31.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:35</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_35.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:40</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:41</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_41.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:45</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_45.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:49</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_49.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:17:54</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_17_54.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:18:10</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_04_12_2025_18_10.jpg</t>
+  </si>
+  <si>
+    <t>04.12.2025:18:23</t>
+  </si>
+  <si>
+    <t>05.12.2025:10:55</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_05_12_2025_10_55.jpg</t>
+  </si>
+  <si>
+    <t>05.12.2025:11:03</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_05_12_2025_11_03.jpg</t>
+  </si>
+  <si>
+    <t>05.12.2025:11:09</t>
+  </si>
+  <si>
+    <t>05.12.2025:11:10</t>
+  </si>
+  <si>
+    <t>05.12.2025:11:12</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1326">
+  <cellXfs count="1695">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2788,6 +3004,375 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -3974,7 +4559,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD148"/>
+  <dimension ref="A1:XFD189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -24665,6 +25250,1195 @@
         <v>14</v>
       </c>
     </row>
+    <row r="149">
+      <c r="B149" t="s" s="1326">
+        <v>268</v>
+      </c>
+      <c r="C149" t="s" s="1327">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="1328">
+        <v>269</v>
+      </c>
+      <c r="E149" t="s" s="1329">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s" s="1330">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s" s="1331">
+        <v>128</v>
+      </c>
+      <c r="H149" t="s" s="1332">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s" s="1333">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s" s="1334">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="s" s="1335">
+        <v>268</v>
+      </c>
+      <c r="C150" t="s" s="1336">
+        <v>24</v>
+      </c>
+      <c r="D150" t="s" s="1337">
+        <v>271</v>
+      </c>
+      <c r="E150" t="s" s="1338">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s" s="1339">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s" s="1340">
+        <v>128</v>
+      </c>
+      <c r="H150" t="s" s="1341">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s" s="1342">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s" s="1343">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="s" s="1344">
+        <v>268</v>
+      </c>
+      <c r="C151" t="s" s="1345">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="1346">
+        <v>272</v>
+      </c>
+      <c r="E151" t="s" s="1347">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s" s="1348">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s" s="1349">
+        <v>128</v>
+      </c>
+      <c r="H151" t="s" s="1350">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s" s="1351">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s" s="1352">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="s" s="1353">
+        <v>268</v>
+      </c>
+      <c r="C152" t="s" s="1354">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="1355">
+        <v>274</v>
+      </c>
+      <c r="E152" t="s" s="1356">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s" s="1357">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s" s="1358">
+        <v>128</v>
+      </c>
+      <c r="H152" t="s" s="1359">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s" s="1360">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s" s="1361">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="s" s="1362">
+        <v>268</v>
+      </c>
+      <c r="C153" t="s" s="1363">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="1364">
+        <v>274</v>
+      </c>
+      <c r="E153" t="s" s="1365">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s" s="1366">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s" s="1367">
+        <v>128</v>
+      </c>
+      <c r="H153" t="s" s="1368">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s" s="1369">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s" s="1370">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="s" s="1371">
+        <v>268</v>
+      </c>
+      <c r="C154" t="s" s="1372">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s" s="1373">
+        <v>276</v>
+      </c>
+      <c r="E154" t="s" s="1374">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s" s="1375">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s" s="1376">
+        <v>128</v>
+      </c>
+      <c r="H154" t="s" s="1377">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s" s="1378">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s" s="1379">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="s" s="1380">
+        <v>268</v>
+      </c>
+      <c r="C155" t="s" s="1381">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="1382">
+        <v>277</v>
+      </c>
+      <c r="E155" t="s" s="1383">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s" s="1384">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s" s="1385">
+        <v>128</v>
+      </c>
+      <c r="H155" t="s" s="1386">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s" s="1387">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s" s="1388">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="s" s="1389">
+        <v>268</v>
+      </c>
+      <c r="C156" t="s" s="1390">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="1391">
+        <v>279</v>
+      </c>
+      <c r="E156" t="s" s="1392">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s" s="1393">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s" s="1394">
+        <v>128</v>
+      </c>
+      <c r="H156" t="s" s="1395">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s" s="1396">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s" s="1397">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="s" s="1398">
+        <v>268</v>
+      </c>
+      <c r="C157" t="s" s="1399">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="1400">
+        <v>281</v>
+      </c>
+      <c r="E157" t="s" s="1401">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s" s="1402">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s" s="1403">
+        <v>128</v>
+      </c>
+      <c r="H157" t="s" s="1404">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s" s="1405">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s" s="1406">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="s" s="1407">
+        <v>268</v>
+      </c>
+      <c r="C158" t="s" s="1408">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="1409">
+        <v>283</v>
+      </c>
+      <c r="E158" t="s" s="1410">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s" s="1411">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s" s="1412">
+        <v>128</v>
+      </c>
+      <c r="H158" t="s" s="1413">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s" s="1414">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s" s="1415">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="s" s="1416">
+        <v>268</v>
+      </c>
+      <c r="C159" t="s" s="1417">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="1418">
+        <v>285</v>
+      </c>
+      <c r="E159" t="s" s="1419">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s" s="1420">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s" s="1421">
+        <v>128</v>
+      </c>
+      <c r="H159" t="s" s="1422">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s" s="1423">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s" s="1424">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="s" s="1425">
+        <v>268</v>
+      </c>
+      <c r="C160" t="s" s="1426">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="1427">
+        <v>287</v>
+      </c>
+      <c r="E160" t="s" s="1428">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s" s="1429">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s" s="1430">
+        <v>128</v>
+      </c>
+      <c r="H160" t="s" s="1431">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s" s="1432">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s" s="1433">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="s" s="1434">
+        <v>268</v>
+      </c>
+      <c r="C161" t="s" s="1435">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="1436">
+        <v>289</v>
+      </c>
+      <c r="E161" t="s" s="1437">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s" s="1438">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s" s="1439">
+        <v>128</v>
+      </c>
+      <c r="H161" t="s" s="1440">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s" s="1441">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s" s="1442">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="s" s="1443">
+        <v>268</v>
+      </c>
+      <c r="C162" t="s" s="1444">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="1445">
+        <v>291</v>
+      </c>
+      <c r="E162" t="s" s="1446">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s" s="1447">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s" s="1448">
+        <v>128</v>
+      </c>
+      <c r="H162" t="s" s="1449">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s" s="1450">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s" s="1451">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="s" s="1452">
+        <v>268</v>
+      </c>
+      <c r="C163" t="s" s="1453">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="1454">
+        <v>293</v>
+      </c>
+      <c r="E163" t="s" s="1455">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s" s="1456">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s" s="1457">
+        <v>128</v>
+      </c>
+      <c r="H163" t="s" s="1458">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s" s="1459">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s" s="1460">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="s" s="1461">
+        <v>268</v>
+      </c>
+      <c r="C164" t="s" s="1462">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="1463">
+        <v>295</v>
+      </c>
+      <c r="E164" t="s" s="1464">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s" s="1465">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s" s="1466">
+        <v>128</v>
+      </c>
+      <c r="H164" t="s" s="1467">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s" s="1468">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s" s="1469">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="s" s="1470">
+        <v>268</v>
+      </c>
+      <c r="C165" t="s" s="1471">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="1472">
+        <v>297</v>
+      </c>
+      <c r="E165" t="s" s="1473">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s" s="1474">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s" s="1475">
+        <v>128</v>
+      </c>
+      <c r="H165" t="s" s="1476">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s" s="1477">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s" s="1478">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="s" s="1479">
+        <v>268</v>
+      </c>
+      <c r="C166" t="s" s="1480">
+        <v>24</v>
+      </c>
+      <c r="D166" t="s" s="1481">
+        <v>299</v>
+      </c>
+      <c r="E166" t="s" s="1482">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s" s="1483">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s" s="1484">
+        <v>128</v>
+      </c>
+      <c r="H166" t="s" s="1485">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s" s="1486">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s" s="1487">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="s" s="1488">
+        <v>268</v>
+      </c>
+      <c r="C167" t="s" s="1489">
+        <v>24</v>
+      </c>
+      <c r="D167" t="s" s="1490">
+        <v>300</v>
+      </c>
+      <c r="E167" t="s" s="1491">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s" s="1492">
+        <v>14</v>
+      </c>
+      <c r="G167" t="s" s="1493">
+        <v>128</v>
+      </c>
+      <c r="H167" t="s" s="1494">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s" s="1495">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s" s="1496">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="s" s="1497">
+        <v>268</v>
+      </c>
+      <c r="C168" t="s" s="1498">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="1499">
+        <v>301</v>
+      </c>
+      <c r="E168" t="s" s="1500">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s" s="1501">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s" s="1502">
+        <v>128</v>
+      </c>
+      <c r="H168" t="s" s="1503">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s" s="1504">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s" s="1505">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="s" s="1506">
+        <v>268</v>
+      </c>
+      <c r="C169" t="s" s="1507">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="1508">
+        <v>303</v>
+      </c>
+      <c r="E169" t="s" s="1509">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s" s="1510">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s" s="1511">
+        <v>128</v>
+      </c>
+      <c r="H169" t="s" s="1512">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s" s="1513">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s" s="1514">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="s" s="1515">
+        <v>268</v>
+      </c>
+      <c r="C170" t="s" s="1516">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="1517">
+        <v>305</v>
+      </c>
+      <c r="E170" t="s" s="1518">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s" s="1519">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s" s="1520">
+        <v>128</v>
+      </c>
+      <c r="H170" t="s" s="1521">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s" s="1522">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s" s="1523">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="s" s="1524">
+        <v>268</v>
+      </c>
+      <c r="C171" t="s" s="1525">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="1526">
+        <v>307</v>
+      </c>
+      <c r="E171" t="s" s="1527">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s" s="1528">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s" s="1529">
+        <v>128</v>
+      </c>
+      <c r="H171" t="s" s="1530">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s" s="1531">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s" s="1532">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="s" s="1533">
+        <v>268</v>
+      </c>
+      <c r="C172" t="s" s="1534">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="1535">
+        <v>309</v>
+      </c>
+      <c r="E172" t="s" s="1536">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s" s="1537">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s" s="1538">
+        <v>128</v>
+      </c>
+      <c r="H172" t="s" s="1539">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s" s="1540">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s" s="1541">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="s" s="1542">
+        <v>268</v>
+      </c>
+      <c r="C173" t="s" s="1543">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="1544">
+        <v>311</v>
+      </c>
+      <c r="E173" t="s" s="1545">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s" s="1546">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s" s="1547">
+        <v>128</v>
+      </c>
+      <c r="H173" t="s" s="1548">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s" s="1549">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s" s="1550">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="s" s="1551">
+        <v>268</v>
+      </c>
+      <c r="C174" t="s" s="1552">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="1553">
+        <v>313</v>
+      </c>
+      <c r="E174" t="s" s="1554">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s" s="1555">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s" s="1556">
+        <v>128</v>
+      </c>
+      <c r="H174" t="s" s="1557">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s" s="1558">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s" s="1559">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="s" s="1560">
+        <v>268</v>
+      </c>
+      <c r="C175" t="s" s="1561">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="1562">
+        <v>315</v>
+      </c>
+      <c r="E175" t="s" s="1563">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s" s="1564">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s" s="1565">
+        <v>128</v>
+      </c>
+      <c r="H175" t="s" s="1566">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s" s="1567">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s" s="1568">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="s" s="1569">
+        <v>268</v>
+      </c>
+      <c r="C176" t="s" s="1570">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="1571">
+        <v>317</v>
+      </c>
+      <c r="E176" t="s" s="1572">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s" s="1573">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s" s="1574">
+        <v>128</v>
+      </c>
+      <c r="H176" t="s" s="1575">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s" s="1576">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s" s="1577">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="s" s="1578">
+        <v>268</v>
+      </c>
+      <c r="C177" t="s" s="1579">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="1580">
+        <v>319</v>
+      </c>
+      <c r="E177" t="s" s="1581">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s" s="1582">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s" s="1583">
+        <v>128</v>
+      </c>
+      <c r="H177" t="s" s="1584">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s" s="1585">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s" s="1586">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="s" s="1587">
+        <v>268</v>
+      </c>
+      <c r="C178" t="s" s="1588">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="1589">
+        <v>321</v>
+      </c>
+      <c r="E178" t="s" s="1590">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s" s="1591">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s" s="1592">
+        <v>128</v>
+      </c>
+      <c r="H178" t="s" s="1593">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s" s="1594">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s" s="1595">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="s" s="1596">
+        <v>268</v>
+      </c>
+      <c r="C179" t="s" s="1597">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="1598">
+        <v>322</v>
+      </c>
+      <c r="E179" t="s" s="1599">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s" s="1600">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s" s="1601">
+        <v>128</v>
+      </c>
+      <c r="H179" t="s" s="1602">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s" s="1603">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s" s="1604">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="s" s="1605">
+        <v>268</v>
+      </c>
+      <c r="C180" t="s" s="1606">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="1607">
+        <v>324</v>
+      </c>
+      <c r="E180" t="s" s="1608">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s" s="1609">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s" s="1610">
+        <v>128</v>
+      </c>
+      <c r="H180" t="s" s="1611">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s" s="1612">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s" s="1613">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="s" s="1614">
+        <v>268</v>
+      </c>
+      <c r="C181" t="s" s="1615">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="1616">
+        <v>326</v>
+      </c>
+      <c r="E181" t="s" s="1617">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s" s="1618">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s" s="1619">
+        <v>128</v>
+      </c>
+      <c r="H181" t="s" s="1620">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s" s="1621">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s" s="1622">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="s" s="1623">
+        <v>268</v>
+      </c>
+      <c r="C182" t="s" s="1624">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="1625">
+        <v>328</v>
+      </c>
+      <c r="E182" t="s" s="1626">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s" s="1627">
+        <v>14</v>
+      </c>
+      <c r="G182" t="s" s="1628">
+        <v>128</v>
+      </c>
+      <c r="H182" t="s" s="1629">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s" s="1630">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s" s="1631">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="s" s="1632">
+        <v>268</v>
+      </c>
+      <c r="C183" t="s" s="1633">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="1634">
+        <v>330</v>
+      </c>
+      <c r="E183" t="s" s="1635">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s" s="1636">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s" s="1637">
+        <v>128</v>
+      </c>
+      <c r="H183" t="s" s="1638">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s" s="1639">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s" s="1640">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="s" s="1641">
+        <v>268</v>
+      </c>
+      <c r="C184" t="s" s="1642">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s" s="1643">
+        <v>332</v>
+      </c>
+      <c r="E184" t="s" s="1644">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s" s="1645">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s" s="1646">
+        <v>128</v>
+      </c>
+      <c r="H184" t="s" s="1647">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s" s="1648">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s" s="1649">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="s" s="1650">
+        <v>268</v>
+      </c>
+      <c r="C185" t="s" s="1651">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="1652">
+        <v>333</v>
+      </c>
+      <c r="E185" t="s" s="1653">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s" s="1654">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s" s="1655">
+        <v>128</v>
+      </c>
+      <c r="H185" t="s" s="1656">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s" s="1657">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s" s="1658">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="s" s="1659">
+        <v>268</v>
+      </c>
+      <c r="C186" t="s" s="1660">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="1661">
+        <v>335</v>
+      </c>
+      <c r="E186" t="s" s="1662">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s" s="1663">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s" s="1664">
+        <v>128</v>
+      </c>
+      <c r="H186" t="s" s="1665">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s" s="1666">
+        <v>16</v>
+      </c>
+      <c r="J186" t="s" s="1667">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="s" s="1668">
+        <v>268</v>
+      </c>
+      <c r="C187" t="s" s="1669">
+        <v>24</v>
+      </c>
+      <c r="D187" t="s" s="1670">
+        <v>337</v>
+      </c>
+      <c r="E187" t="s" s="1671">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s" s="1672">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s" s="1673">
+        <v>128</v>
+      </c>
+      <c r="H187" t="s" s="1674">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s" s="1675">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s" s="1676">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="s" s="1677">
+        <v>268</v>
+      </c>
+      <c r="C188" t="s" s="1678">
+        <v>24</v>
+      </c>
+      <c r="D188" t="s" s="1679">
+        <v>338</v>
+      </c>
+      <c r="E188" t="s" s="1680">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s" s="1681">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s" s="1682">
+        <v>128</v>
+      </c>
+      <c r="H188" t="s" s="1683">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s" s="1684">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s" s="1685">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="s" s="1686">
+        <v>268</v>
+      </c>
+      <c r="C189" t="s" s="1687">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s" s="1688">
+        <v>339</v>
+      </c>
+      <c r="E189" t="s" s="1689">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s" s="1690">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s" s="1691">
+        <v>128</v>
+      </c>
+      <c r="H189" t="s" s="1692">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s" s="1693">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s" s="1694">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="270">
   <si>
     <t>App</t>
   </si>
@@ -818,6 +818,12 @@
   </si>
   <si>
     <t>02.12.2025:14:57</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Account-Transactions-Filter_By_Type_[WEB]</t>
+  </si>
+  <si>
+    <t>05.12.2025:12:30</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1326">
+  <cellXfs count="1335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2788,6 +2794,15 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -3974,7 +3989,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD148"/>
+  <dimension ref="A1:XFD149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -24665,6 +24680,35 @@
         <v>14</v>
       </c>
     </row>
+    <row r="149">
+      <c r="B149" t="s" s="1326">
+        <v>268</v>
+      </c>
+      <c r="C149" t="s" s="1327">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s" s="1328">
+        <v>269</v>
+      </c>
+      <c r="E149" t="s" s="1329">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s" s="1330">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s" s="1331">
+        <v>128</v>
+      </c>
+      <c r="H149" t="s" s="1332">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s" s="1333">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s" s="1334">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="289">
   <si>
     <t>App</t>
   </si>
@@ -824,6 +824,63 @@
   </si>
   <si>
     <t>05.12.2025:12:30</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
+  </si>
+  <si>
+    <t>08.12.2025:10:00</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_08_12_2025_10_00.jpg</t>
+  </si>
+  <si>
+    <t>08.12.2025:10:04</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_08_12_2025_10_04.jpg</t>
+  </si>
+  <si>
+    <t>08.12.2025:10:10</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_08_12_2025_10_10.jpg</t>
+  </si>
+  <si>
+    <t>08.12.2025:10:19</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_08_12_2025_10_19.jpg</t>
+  </si>
+  <si>
+    <t>08.12.2025:10:25</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_08_12_2025_10_25.jpg</t>
+  </si>
+  <si>
+    <t>08.12.2025:10:29</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_08_12_2025_10_29.jpg</t>
+  </si>
+  <si>
+    <t>08.12.2025:10:38</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_08_12_2025_10_38.jpg</t>
+  </si>
+  <si>
+    <t>08.12.2025:10:48</t>
+  </si>
+  <si>
+    <t>08.12.2025:11:11</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_08_12_2025_11_11.jpg</t>
+  </si>
+  <si>
+    <t>08.12.2025:11:13</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1335">
+  <cellXfs count="1425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2812,6 +2869,96 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -3989,7 +4136,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD149"/>
+  <dimension ref="A1:XFD159"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -24709,6 +24856,296 @@
         <v>14</v>
       </c>
     </row>
+    <row r="150">
+      <c r="B150" t="s" s="1335">
+        <v>270</v>
+      </c>
+      <c r="C150" t="s" s="1336">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="1337">
+        <v>271</v>
+      </c>
+      <c r="E150" t="s" s="1338">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s" s="1339">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s" s="1340">
+        <v>128</v>
+      </c>
+      <c r="H150" t="s" s="1341">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s" s="1342">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s" s="1343">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="s" s="1344">
+        <v>270</v>
+      </c>
+      <c r="C151" t="s" s="1345">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="1346">
+        <v>273</v>
+      </c>
+      <c r="E151" t="s" s="1347">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s" s="1348">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s" s="1349">
+        <v>128</v>
+      </c>
+      <c r="H151" t="s" s="1350">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s" s="1351">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s" s="1352">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="s" s="1353">
+        <v>270</v>
+      </c>
+      <c r="C152" t="s" s="1354">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="1355">
+        <v>275</v>
+      </c>
+      <c r="E152" t="s" s="1356">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s" s="1357">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s" s="1358">
+        <v>128</v>
+      </c>
+      <c r="H152" t="s" s="1359">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s" s="1360">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s" s="1361">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="s" s="1362">
+        <v>270</v>
+      </c>
+      <c r="C153" t="s" s="1363">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="1364">
+        <v>277</v>
+      </c>
+      <c r="E153" t="s" s="1365">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s" s="1366">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s" s="1367">
+        <v>128</v>
+      </c>
+      <c r="H153" t="s" s="1368">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s" s="1369">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s" s="1370">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="s" s="1371">
+        <v>270</v>
+      </c>
+      <c r="C154" t="s" s="1372">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="1373">
+        <v>279</v>
+      </c>
+      <c r="E154" t="s" s="1374">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s" s="1375">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s" s="1376">
+        <v>128</v>
+      </c>
+      <c r="H154" t="s" s="1377">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s" s="1378">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s" s="1379">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="s" s="1380">
+        <v>270</v>
+      </c>
+      <c r="C155" t="s" s="1381">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="1382">
+        <v>281</v>
+      </c>
+      <c r="E155" t="s" s="1383">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s" s="1384">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s" s="1385">
+        <v>128</v>
+      </c>
+      <c r="H155" t="s" s="1386">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s" s="1387">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s" s="1388">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="s" s="1389">
+        <v>270</v>
+      </c>
+      <c r="C156" t="s" s="1390">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="1391">
+        <v>283</v>
+      </c>
+      <c r="E156" t="s" s="1392">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s" s="1393">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s" s="1394">
+        <v>128</v>
+      </c>
+      <c r="H156" t="s" s="1395">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s" s="1396">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s" s="1397">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="s" s="1398">
+        <v>270</v>
+      </c>
+      <c r="C157" t="s" s="1399">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s" s="1400">
+        <v>285</v>
+      </c>
+      <c r="E157" t="s" s="1401">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s" s="1402">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s" s="1403">
+        <v>128</v>
+      </c>
+      <c r="H157" t="s" s="1404">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s" s="1405">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s" s="1406">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="s" s="1407">
+        <v>270</v>
+      </c>
+      <c r="C158" t="s" s="1408">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="1409">
+        <v>286</v>
+      </c>
+      <c r="E158" t="s" s="1410">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s" s="1411">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s" s="1412">
+        <v>128</v>
+      </c>
+      <c r="H158" t="s" s="1413">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s" s="1414">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s" s="1415">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="s" s="1416">
+        <v>270</v>
+      </c>
+      <c r="C159" t="s" s="1417">
+        <v>24</v>
+      </c>
+      <c r="D159" t="s" s="1418">
+        <v>288</v>
+      </c>
+      <c r="E159" t="s" s="1419">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s" s="1420">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s" s="1421">
+        <v>128</v>
+      </c>
+      <c r="H159" t="s" s="1422">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s" s="1423">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s" s="1424">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="291">
   <si>
     <t>App</t>
   </si>
@@ -881,6 +881,12 @@
   </si>
   <si>
     <t>08.12.2025:11:13</t>
+  </si>
+  <si>
+    <t>09.12.2025:15:25</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_09_12_2025_15_25.jpg</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1425">
+  <cellXfs count="1434">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2968,6 +2974,15 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4136,7 +4151,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD159"/>
+  <dimension ref="A1:XFD160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -25146,6 +25161,35 @@
         <v>14</v>
       </c>
     </row>
+    <row r="160">
+      <c r="B160" t="s" s="1425">
+        <v>270</v>
+      </c>
+      <c r="C160" t="s" s="1426">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="1427">
+        <v>289</v>
+      </c>
+      <c r="E160" t="s" s="1428">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s" s="1429">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s" s="1430">
+        <v>40</v>
+      </c>
+      <c r="H160" t="s" s="1431">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s" s="1432">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s" s="1433">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="296">
   <si>
     <t>App</t>
   </si>
@@ -887,6 +887,21 @@
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_09_12_2025_15_25.jpg</t>
+  </si>
+  <si>
+    <t>09.12.2025:15:34</t>
+  </si>
+  <si>
+    <t>09.12.2025:15:35</t>
+  </si>
+  <si>
+    <t>09.12.2025:15:43</t>
+  </si>
+  <si>
+    <t>09.12.2025:15:44</t>
+  </si>
+  <si>
+    <t>09.12.2025:15:55</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1434">
+  <cellXfs count="1479">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2974,6 +2989,51 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
@@ -4151,7 +4211,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD160"/>
+  <dimension ref="A1:XFD165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -25190,6 +25250,151 @@
         <v>290</v>
       </c>
     </row>
+    <row r="161">
+      <c r="B161" t="s" s="1434">
+        <v>270</v>
+      </c>
+      <c r="C161" t="s" s="1435">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="1436">
+        <v>291</v>
+      </c>
+      <c r="E161" t="s" s="1437">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s" s="1438">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s" s="1439">
+        <v>128</v>
+      </c>
+      <c r="H161" t="s" s="1440">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s" s="1441">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s" s="1442">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="s" s="1443">
+        <v>270</v>
+      </c>
+      <c r="C162" t="s" s="1444">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="1445">
+        <v>292</v>
+      </c>
+      <c r="E162" t="s" s="1446">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s" s="1447">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s" s="1448">
+        <v>128</v>
+      </c>
+      <c r="H162" t="s" s="1449">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s" s="1450">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s" s="1451">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="s" s="1452">
+        <v>268</v>
+      </c>
+      <c r="C163" t="s" s="1453">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="1454">
+        <v>293</v>
+      </c>
+      <c r="E163" t="s" s="1455">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s" s="1456">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s" s="1457">
+        <v>128</v>
+      </c>
+      <c r="H163" t="s" s="1458">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s" s="1459">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s" s="1460">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="s" s="1461">
+        <v>268</v>
+      </c>
+      <c r="C164" t="s" s="1462">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="1463">
+        <v>294</v>
+      </c>
+      <c r="E164" t="s" s="1464">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s" s="1465">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s" s="1466">
+        <v>128</v>
+      </c>
+      <c r="H164" t="s" s="1467">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s" s="1468">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s" s="1469">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="s" s="1470">
+        <v>268</v>
+      </c>
+      <c r="C165" t="s" s="1471">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="1472">
+        <v>295</v>
+      </c>
+      <c r="E165" t="s" s="1473">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s" s="1474">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s" s="1475">
+        <v>128</v>
+      </c>
+      <c r="H165" t="s" s="1476">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s" s="1477">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s" s="1478">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="400">
   <si>
     <t>App</t>
   </si>
@@ -902,6 +902,318 @@
   </si>
   <si>
     <t>09.12.2025:15:55</t>
+  </si>
+  <si>
+    <t>09.12.2025:16:03</t>
+  </si>
+  <si>
+    <t>09.12.2025:16:14</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_09_12_2025_16_14.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:20</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_10_12_2025_09_20.jpg</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_10_12_2025_09_20.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:21</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:22</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Header-Display_[WEB]_10_12_2025_09_22.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:23</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_10_12_2025_09_22.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:24</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Header-Display_[WEB]_10_12_2025_09_24.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:25</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]_10_12_2025_09_25.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:27</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:28</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:29</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Header-Display_[WEB]_10_12_2025_09_29.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:32</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:33</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:34</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:35</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:36</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:37</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:38</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_09_38.jpg</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Account-Transactions-Filter_By_Type_[WEB]_10_12_2025_09_38.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:39</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_10_12_2025_09_39.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:43</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_09_43.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:44</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:45</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_10_12_2025_09_45.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:49</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_09_49.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:51</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_09_51.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:52</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_09_52.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:09:55</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_09_55.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:10:00</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_10_00.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:10:02</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_10_12_2025_10_02.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:10:41</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_10_41.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:10:42</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Account-Transactions-Filter_By_Type_[WEB]_10_12_2025_10_42.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:10:43</t>
+  </si>
+  <si>
+    <t>10.12.2025:10:46</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_10_46.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:10:47</t>
+  </si>
+  <si>
+    <t>10.12.2025:10:48</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_10_12_2025_10_48.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:10:57</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_10_57.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:11:00</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]_10_12_2025_11_00.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:11:04</t>
+  </si>
+  <si>
+    <t>10.12.2025:11:31</t>
+  </si>
+  <si>
+    <t>General-Dashboard-Page_overview_[WEB]</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>10.12.2025:11:34</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]_10_12_2025_11_34.jpg</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Transactions-Filter_By_Type_[WEB]</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]</t>
+  </si>
+  <si>
+    <t>10.12.2025:11:36</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_10_12_2025_11_36.jpg</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>10.12.2025:11:39</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]_10_12_2025_11_39.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:12:09</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]_10_12_2025_12_09.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:12:10</t>
+  </si>
+  <si>
+    <t>10.12.2025:12:12</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_10_12_2025_12_12.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:12:15</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]_10_12_2025_12_15.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:12:24</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_10_12_2025_12_24.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:12:26</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]_10_12_2025_12_26.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:12:27</t>
+  </si>
+  <si>
+    <t>10.12.2025:12:29</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_10_12_2025_12_29.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:12:32</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]_10_12_2025_12_32.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:04</t>
+  </si>
+  <si>
+    <t>Product_Summary_Sorting_on_the_Product_Summary_[WEB]</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_account_[WEB]_1</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:05</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_account-Invalid_[WEB]_1</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_account-Invalid_[WEB]_1_10_12_2025_13_05.jpg</t>
+  </si>
+  <si>
+    <t>Product_Summary-Hide/Show_account_on_Product_List_[WEB]_1</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:06</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:07</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_account_[WEB]_1_10_12_2025_13_07.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:08</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_account-Invalid_[WEB]_1_10_12_2025_13_08.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:09</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1479">
+  <cellXfs count="2145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3043,6 +3355,672 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4211,7 +5189,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD165"/>
+  <dimension ref="A1:XFD239"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -25395,6 +26373,2152 @@
         <v>53</v>
       </c>
     </row>
+    <row r="166">
+      <c r="B166" t="s" s="1479">
+        <v>268</v>
+      </c>
+      <c r="C166" t="s" s="1480">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="1481">
+        <v>296</v>
+      </c>
+      <c r="E166" t="s" s="1482">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s" s="1483">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s" s="1484">
+        <v>128</v>
+      </c>
+      <c r="H166" t="s" s="1485">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s" s="1486">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s" s="1487">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="s" s="1488">
+        <v>141</v>
+      </c>
+      <c r="C167" t="s" s="1489">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="1490">
+        <v>297</v>
+      </c>
+      <c r="E167" t="s" s="1491">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s" s="1492">
+        <v>14</v>
+      </c>
+      <c r="G167" t="s" s="1493">
+        <v>128</v>
+      </c>
+      <c r="H167" t="s" s="1494">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s" s="1495">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s" s="1496">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="s" s="1497">
+        <v>141</v>
+      </c>
+      <c r="C168" t="s" s="1498">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="1499">
+        <v>299</v>
+      </c>
+      <c r="E168" t="s" s="1500">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s" s="1501">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s" s="1502">
+        <v>128</v>
+      </c>
+      <c r="H168" t="s" s="1503">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s" s="1504">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s" s="1505">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="s" s="1506">
+        <v>150</v>
+      </c>
+      <c r="C169" t="s" s="1507">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="1508">
+        <v>299</v>
+      </c>
+      <c r="E169" t="s" s="1509">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s" s="1510">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s" s="1511">
+        <v>128</v>
+      </c>
+      <c r="H169" t="s" s="1512">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s" s="1513">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s" s="1514">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="s" s="1515">
+        <v>168</v>
+      </c>
+      <c r="C170" t="s" s="1516">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="1517">
+        <v>302</v>
+      </c>
+      <c r="E170" t="s" s="1518">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s" s="1519">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s" s="1520">
+        <v>128</v>
+      </c>
+      <c r="H170" t="s" s="1521">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s" s="1522">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s" s="1523">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="s" s="1524">
+        <v>191</v>
+      </c>
+      <c r="C171" t="s" s="1525">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="1526">
+        <v>303</v>
+      </c>
+      <c r="E171" t="s" s="1527">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s" s="1528">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s" s="1529">
+        <v>128</v>
+      </c>
+      <c r="H171" t="s" s="1530">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s" s="1531">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s" s="1532">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="s" s="1533">
+        <v>215</v>
+      </c>
+      <c r="C172" t="s" s="1534">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="1535">
+        <v>305</v>
+      </c>
+      <c r="E172" t="s" s="1536">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s" s="1537">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s" s="1538">
+        <v>128</v>
+      </c>
+      <c r="H172" t="s" s="1539">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s" s="1540">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s" s="1541">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="s" s="1542">
+        <v>141</v>
+      </c>
+      <c r="C173" t="s" s="1543">
+        <v>24</v>
+      </c>
+      <c r="D173" t="s" s="1544">
+        <v>305</v>
+      </c>
+      <c r="E173" t="s" s="1545">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s" s="1546">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s" s="1547">
+        <v>128</v>
+      </c>
+      <c r="H173" t="s" s="1548">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s" s="1549">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s" s="1550">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="s" s="1551">
+        <v>150</v>
+      </c>
+      <c r="C174" t="s" s="1552">
+        <v>24</v>
+      </c>
+      <c r="D174" t="s" s="1553">
+        <v>307</v>
+      </c>
+      <c r="E174" t="s" s="1554">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s" s="1555">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s" s="1556">
+        <v>128</v>
+      </c>
+      <c r="H174" t="s" s="1557">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s" s="1558">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s" s="1559">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="s" s="1560">
+        <v>168</v>
+      </c>
+      <c r="C175" t="s" s="1561">
+        <v>24</v>
+      </c>
+      <c r="D175" t="s" s="1562">
+        <v>307</v>
+      </c>
+      <c r="E175" t="s" s="1563">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s" s="1564">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s" s="1565">
+        <v>128</v>
+      </c>
+      <c r="H175" t="s" s="1566">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s" s="1567">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s" s="1568">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="s" s="1569">
+        <v>191</v>
+      </c>
+      <c r="C176" t="s" s="1570">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="1571">
+        <v>307</v>
+      </c>
+      <c r="E176" t="s" s="1572">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s" s="1573">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s" s="1574">
+        <v>128</v>
+      </c>
+      <c r="H176" t="s" s="1575">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s" s="1576">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s" s="1577">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="s" s="1578">
+        <v>215</v>
+      </c>
+      <c r="C177" t="s" s="1579">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="1580">
+        <v>309</v>
+      </c>
+      <c r="E177" t="s" s="1581">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s" s="1582">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s" s="1583">
+        <v>128</v>
+      </c>
+      <c r="H177" t="s" s="1584">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s" s="1585">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s" s="1586">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="s" s="1587">
+        <v>141</v>
+      </c>
+      <c r="C178" t="s" s="1588">
+        <v>24</v>
+      </c>
+      <c r="D178" t="s" s="1589">
+        <v>311</v>
+      </c>
+      <c r="E178" t="s" s="1590">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s" s="1591">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s" s="1592">
+        <v>128</v>
+      </c>
+      <c r="H178" t="s" s="1593">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s" s="1594">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s" s="1595">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="s" s="1596">
+        <v>150</v>
+      </c>
+      <c r="C179" t="s" s="1597">
+        <v>24</v>
+      </c>
+      <c r="D179" t="s" s="1598">
+        <v>311</v>
+      </c>
+      <c r="E179" t="s" s="1599">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s" s="1600">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s" s="1601">
+        <v>128</v>
+      </c>
+      <c r="H179" t="s" s="1602">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s" s="1603">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s" s="1604">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="s" s="1605">
+        <v>168</v>
+      </c>
+      <c r="C180" t="s" s="1606">
+        <v>24</v>
+      </c>
+      <c r="D180" t="s" s="1607">
+        <v>312</v>
+      </c>
+      <c r="E180" t="s" s="1608">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s" s="1609">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s" s="1610">
+        <v>128</v>
+      </c>
+      <c r="H180" t="s" s="1611">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s" s="1612">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s" s="1613">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="s" s="1614">
+        <v>191</v>
+      </c>
+      <c r="C181" t="s" s="1615">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="1616">
+        <v>313</v>
+      </c>
+      <c r="E181" t="s" s="1617">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s" s="1618">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s" s="1619">
+        <v>128</v>
+      </c>
+      <c r="H181" t="s" s="1620">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s" s="1621">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s" s="1622">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="s" s="1623">
+        <v>215</v>
+      </c>
+      <c r="C182" t="s" s="1624">
+        <v>24</v>
+      </c>
+      <c r="D182" t="s" s="1625">
+        <v>313</v>
+      </c>
+      <c r="E182" t="s" s="1626">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s" s="1627">
+        <v>14</v>
+      </c>
+      <c r="G182" t="s" s="1628">
+        <v>128</v>
+      </c>
+      <c r="H182" t="s" s="1629">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s" s="1630">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s" s="1631">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="s" s="1632">
+        <v>191</v>
+      </c>
+      <c r="C183" t="s" s="1633">
+        <v>24</v>
+      </c>
+      <c r="D183" t="s" s="1634">
+        <v>315</v>
+      </c>
+      <c r="E183" t="s" s="1635">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s" s="1636">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s" s="1637">
+        <v>128</v>
+      </c>
+      <c r="H183" t="s" s="1638">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s" s="1639">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s" s="1640">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="s" s="1641">
+        <v>168</v>
+      </c>
+      <c r="C184" t="s" s="1642">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s" s="1643">
+        <v>316</v>
+      </c>
+      <c r="E184" t="s" s="1644">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s" s="1645">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s" s="1646">
+        <v>128</v>
+      </c>
+      <c r="H184" t="s" s="1647">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s" s="1648">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s" s="1649">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="s" s="1650">
+        <v>150</v>
+      </c>
+      <c r="C185" t="s" s="1651">
+        <v>24</v>
+      </c>
+      <c r="D185" t="s" s="1652">
+        <v>317</v>
+      </c>
+      <c r="E185" t="s" s="1653">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s" s="1654">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s" s="1655">
+        <v>128</v>
+      </c>
+      <c r="H185" t="s" s="1656">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s" s="1657">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s" s="1658">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="s" s="1659">
+        <v>141</v>
+      </c>
+      <c r="C186" t="s" s="1660">
+        <v>24</v>
+      </c>
+      <c r="D186" t="s" s="1661">
+        <v>318</v>
+      </c>
+      <c r="E186" t="s" s="1662">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s" s="1663">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s" s="1664">
+        <v>128</v>
+      </c>
+      <c r="H186" t="s" s="1665">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s" s="1666">
+        <v>16</v>
+      </c>
+      <c r="J186" t="s" s="1667">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="s" s="1668">
+        <v>141</v>
+      </c>
+      <c r="C187" t="s" s="1669">
+        <v>24</v>
+      </c>
+      <c r="D187" t="s" s="1670">
+        <v>319</v>
+      </c>
+      <c r="E187" t="s" s="1671">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s" s="1672">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s" s="1673">
+        <v>128</v>
+      </c>
+      <c r="H187" t="s" s="1674">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s" s="1675">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s" s="1676">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="s" s="1677">
+        <v>150</v>
+      </c>
+      <c r="C188" t="s" s="1678">
+        <v>24</v>
+      </c>
+      <c r="D188" t="s" s="1679">
+        <v>319</v>
+      </c>
+      <c r="E188" t="s" s="1680">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s" s="1681">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s" s="1682">
+        <v>128</v>
+      </c>
+      <c r="H188" t="s" s="1683">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s" s="1684">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s" s="1685">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="s" s="1686">
+        <v>168</v>
+      </c>
+      <c r="C189" t="s" s="1687">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s" s="1688">
+        <v>319</v>
+      </c>
+      <c r="E189" t="s" s="1689">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s" s="1690">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s" s="1691">
+        <v>128</v>
+      </c>
+      <c r="H189" t="s" s="1692">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s" s="1693">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s" s="1694">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="s" s="1695">
+        <v>191</v>
+      </c>
+      <c r="C190" t="s" s="1696">
+        <v>24</v>
+      </c>
+      <c r="D190" t="s" s="1697">
+        <v>320</v>
+      </c>
+      <c r="E190" t="s" s="1698">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s" s="1699">
+        <v>14</v>
+      </c>
+      <c r="G190" t="s" s="1700">
+        <v>128</v>
+      </c>
+      <c r="H190" t="s" s="1701">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s" s="1702">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s" s="1703">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="s" s="1704">
+        <v>215</v>
+      </c>
+      <c r="C191" t="s" s="1705">
+        <v>24</v>
+      </c>
+      <c r="D191" t="s" s="1706">
+        <v>320</v>
+      </c>
+      <c r="E191" t="s" s="1707">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s" s="1708">
+        <v>14</v>
+      </c>
+      <c r="G191" t="s" s="1709">
+        <v>128</v>
+      </c>
+      <c r="H191" t="s" s="1710">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s" s="1711">
+        <v>16</v>
+      </c>
+      <c r="J191" t="s" s="1712">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="s" s="1713">
+        <v>321</v>
+      </c>
+      <c r="C192" t="s" s="1714">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="1715">
+        <v>322</v>
+      </c>
+      <c r="E192" t="s" s="1716">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s" s="1717">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s" s="1718">
+        <v>128</v>
+      </c>
+      <c r="H192" t="s" s="1719">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s" s="1720">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s" s="1721">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="s" s="1722">
+        <v>268</v>
+      </c>
+      <c r="C193" t="s" s="1723">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="1724">
+        <v>322</v>
+      </c>
+      <c r="E193" t="s" s="1725">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s" s="1726">
+        <v>14</v>
+      </c>
+      <c r="G193" t="s" s="1727">
+        <v>128</v>
+      </c>
+      <c r="H193" t="s" s="1728">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s" s="1729">
+        <v>16</v>
+      </c>
+      <c r="J193" t="s" s="1730">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="s" s="1731">
+        <v>270</v>
+      </c>
+      <c r="C194" t="s" s="1732">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="1733">
+        <v>325</v>
+      </c>
+      <c r="E194" t="s" s="1734">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s" s="1735">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s" s="1736">
+        <v>128</v>
+      </c>
+      <c r="H194" t="s" s="1737">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s" s="1738">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s" s="1739">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="s" s="1740">
+        <v>321</v>
+      </c>
+      <c r="C195" t="s" s="1741">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="1742">
+        <v>327</v>
+      </c>
+      <c r="E195" t="s" s="1743">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s" s="1744">
+        <v>14</v>
+      </c>
+      <c r="G195" t="s" s="1745">
+        <v>128</v>
+      </c>
+      <c r="H195" t="s" s="1746">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s" s="1747">
+        <v>16</v>
+      </c>
+      <c r="J195" t="s" s="1748">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="s" s="1749">
+        <v>268</v>
+      </c>
+      <c r="C196" t="s" s="1750">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s" s="1751">
+        <v>329</v>
+      </c>
+      <c r="E196" t="s" s="1752">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s" s="1753">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s" s="1754">
+        <v>128</v>
+      </c>
+      <c r="H196" t="s" s="1755">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s" s="1756">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s" s="1757">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="s" s="1758">
+        <v>270</v>
+      </c>
+      <c r="C197" t="s" s="1759">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="1760">
+        <v>330</v>
+      </c>
+      <c r="E197" t="s" s="1761">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s" s="1762">
+        <v>14</v>
+      </c>
+      <c r="G197" t="s" s="1763">
+        <v>128</v>
+      </c>
+      <c r="H197" t="s" s="1764">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s" s="1765">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s" s="1766">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="s" s="1767">
+        <v>321</v>
+      </c>
+      <c r="C198" t="s" s="1768">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="1769">
+        <v>332</v>
+      </c>
+      <c r="E198" t="s" s="1770">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s" s="1771">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s" s="1772">
+        <v>128</v>
+      </c>
+      <c r="H198" t="s" s="1773">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s" s="1774">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s" s="1775">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="s" s="1776">
+        <v>321</v>
+      </c>
+      <c r="C199" t="s" s="1777">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="1778">
+        <v>334</v>
+      </c>
+      <c r="E199" t="s" s="1779">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s" s="1780">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s" s="1781">
+        <v>128</v>
+      </c>
+      <c r="H199" t="s" s="1782">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s" s="1783">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s" s="1784">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="s" s="1785">
+        <v>321</v>
+      </c>
+      <c r="C200" t="s" s="1786">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="1787">
+        <v>336</v>
+      </c>
+      <c r="E200" t="s" s="1788">
+        <v>13</v>
+      </c>
+      <c r="F200" t="s" s="1789">
+        <v>14</v>
+      </c>
+      <c r="G200" t="s" s="1790">
+        <v>128</v>
+      </c>
+      <c r="H200" t="s" s="1791">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s" s="1792">
+        <v>16</v>
+      </c>
+      <c r="J200" t="s" s="1793">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="s" s="1794">
+        <v>321</v>
+      </c>
+      <c r="C201" t="s" s="1795">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="1796">
+        <v>338</v>
+      </c>
+      <c r="E201" t="s" s="1797">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s" s="1798">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s" s="1799">
+        <v>128</v>
+      </c>
+      <c r="H201" t="s" s="1800">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s" s="1801">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s" s="1802">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="s" s="1803">
+        <v>321</v>
+      </c>
+      <c r="C202" t="s" s="1804">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="1805">
+        <v>340</v>
+      </c>
+      <c r="E202" t="s" s="1806">
+        <v>13</v>
+      </c>
+      <c r="F202" t="s" s="1807">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s" s="1808">
+        <v>128</v>
+      </c>
+      <c r="H202" t="s" s="1809">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s" s="1810">
+        <v>16</v>
+      </c>
+      <c r="J202" t="s" s="1811">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="s" s="1812">
+        <v>268</v>
+      </c>
+      <c r="C203" t="s" s="1813">
+        <v>24</v>
+      </c>
+      <c r="D203" t="s" s="1814">
+        <v>340</v>
+      </c>
+      <c r="E203" t="s" s="1815">
+        <v>13</v>
+      </c>
+      <c r="F203" t="s" s="1816">
+        <v>14</v>
+      </c>
+      <c r="G203" t="s" s="1817">
+        <v>128</v>
+      </c>
+      <c r="H203" t="s" s="1818">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s" s="1819">
+        <v>16</v>
+      </c>
+      <c r="J203" t="s" s="1820">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="s" s="1821">
+        <v>270</v>
+      </c>
+      <c r="C204" t="s" s="1822">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="1823">
+        <v>342</v>
+      </c>
+      <c r="E204" t="s" s="1824">
+        <v>13</v>
+      </c>
+      <c r="F204" t="s" s="1825">
+        <v>14</v>
+      </c>
+      <c r="G204" t="s" s="1826">
+        <v>128</v>
+      </c>
+      <c r="H204" t="s" s="1827">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s" s="1828">
+        <v>16</v>
+      </c>
+      <c r="J204" t="s" s="1829">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="s" s="1830">
+        <v>321</v>
+      </c>
+      <c r="C205" t="s" s="1831">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="1832">
+        <v>344</v>
+      </c>
+      <c r="E205" t="s" s="1833">
+        <v>13</v>
+      </c>
+      <c r="F205" t="s" s="1834">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s" s="1835">
+        <v>128</v>
+      </c>
+      <c r="H205" t="s" s="1836">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s" s="1837">
+        <v>16</v>
+      </c>
+      <c r="J205" t="s" s="1838">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="s" s="1839">
+        <v>268</v>
+      </c>
+      <c r="C206" t="s" s="1840">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="1841">
+        <v>346</v>
+      </c>
+      <c r="E206" t="s" s="1842">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s" s="1843">
+        <v>14</v>
+      </c>
+      <c r="G206" t="s" s="1844">
+        <v>128</v>
+      </c>
+      <c r="H206" t="s" s="1845">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s" s="1846">
+        <v>16</v>
+      </c>
+      <c r="J206" t="s" s="1847">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="s" s="1848">
+        <v>270</v>
+      </c>
+      <c r="C207" t="s" s="1849">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="1850">
+        <v>348</v>
+      </c>
+      <c r="E207" t="s" s="1851">
+        <v>13</v>
+      </c>
+      <c r="F207" t="s" s="1852">
+        <v>14</v>
+      </c>
+      <c r="G207" t="s" s="1853">
+        <v>128</v>
+      </c>
+      <c r="H207" t="s" s="1854">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s" s="1855">
+        <v>16</v>
+      </c>
+      <c r="J207" t="s" s="1856">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="s" s="1857">
+        <v>321</v>
+      </c>
+      <c r="C208" t="s" s="1858">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="1859">
+        <v>349</v>
+      </c>
+      <c r="E208" t="s" s="1860">
+        <v>13</v>
+      </c>
+      <c r="F208" t="s" s="1861">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s" s="1862">
+        <v>128</v>
+      </c>
+      <c r="H208" t="s" s="1863">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s" s="1864">
+        <v>16</v>
+      </c>
+      <c r="J208" t="s" s="1865">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="s" s="1866">
+        <v>268</v>
+      </c>
+      <c r="C209" t="s" s="1867">
+        <v>24</v>
+      </c>
+      <c r="D209" t="s" s="1868">
+        <v>351</v>
+      </c>
+      <c r="E209" t="s" s="1869">
+        <v>13</v>
+      </c>
+      <c r="F209" t="s" s="1870">
+        <v>14</v>
+      </c>
+      <c r="G209" t="s" s="1871">
+        <v>128</v>
+      </c>
+      <c r="H209" t="s" s="1872">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s" s="1873">
+        <v>16</v>
+      </c>
+      <c r="J209" t="s" s="1874">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="s" s="1875">
+        <v>270</v>
+      </c>
+      <c r="C210" t="s" s="1876">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="1877">
+        <v>352</v>
+      </c>
+      <c r="E210" t="s" s="1878">
+        <v>13</v>
+      </c>
+      <c r="F210" t="s" s="1879">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s" s="1880">
+        <v>128</v>
+      </c>
+      <c r="H210" t="s" s="1881">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s" s="1882">
+        <v>16</v>
+      </c>
+      <c r="J210" t="s" s="1883">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="s" s="1884">
+        <v>321</v>
+      </c>
+      <c r="C211" t="s" s="1885">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="1886">
+        <v>354</v>
+      </c>
+      <c r="E211" t="s" s="1887">
+        <v>13</v>
+      </c>
+      <c r="F211" t="s" s="1888">
+        <v>14</v>
+      </c>
+      <c r="G211" t="s" s="1889">
+        <v>128</v>
+      </c>
+      <c r="H211" t="s" s="1890">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s" s="1891">
+        <v>16</v>
+      </c>
+      <c r="J211" t="s" s="1892">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="s" s="1893">
+        <v>270</v>
+      </c>
+      <c r="C212" t="s" s="1894">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="1895">
+        <v>356</v>
+      </c>
+      <c r="E212" t="s" s="1896">
+        <v>13</v>
+      </c>
+      <c r="F212" t="s" s="1897">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s" s="1898">
+        <v>128</v>
+      </c>
+      <c r="H212" t="s" s="1899">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s" s="1900">
+        <v>16</v>
+      </c>
+      <c r="J212" t="s" s="1901">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="s" s="1902">
+        <v>270</v>
+      </c>
+      <c r="C213" t="s" s="1903">
+        <v>24</v>
+      </c>
+      <c r="D213" t="s" s="1904">
+        <v>358</v>
+      </c>
+      <c r="E213" t="s" s="1905">
+        <v>13</v>
+      </c>
+      <c r="F213" t="s" s="1906">
+        <v>14</v>
+      </c>
+      <c r="G213" t="s" s="1907">
+        <v>128</v>
+      </c>
+      <c r="H213" t="s" s="1908">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s" s="1909">
+        <v>16</v>
+      </c>
+      <c r="J213" t="s" s="1910">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="s" s="1911">
+        <v>28</v>
+      </c>
+      <c r="C214" t="s" s="1912">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s" s="1913">
+        <v>359</v>
+      </c>
+      <c r="E214" t="s" s="1914">
+        <v>13</v>
+      </c>
+      <c r="F214" t="s" s="1915">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s" s="1916">
+        <v>128</v>
+      </c>
+      <c r="H214" t="s" s="1917">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s" s="1918">
+        <v>16</v>
+      </c>
+      <c r="J214" t="s" s="1919">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="s" s="1920">
+        <v>126</v>
+      </c>
+      <c r="C215" t="s" s="1921">
+        <v>24</v>
+      </c>
+      <c r="D215" t="s" s="1922">
+        <v>359</v>
+      </c>
+      <c r="E215" t="s" s="1923">
+        <v>13</v>
+      </c>
+      <c r="F215" t="s" s="1924">
+        <v>14</v>
+      </c>
+      <c r="G215" t="s" s="1925">
+        <v>128</v>
+      </c>
+      <c r="H215" t="s" s="1926">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s" s="1927">
+        <v>16</v>
+      </c>
+      <c r="J215" t="s" s="1928">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="s" s="1929">
+        <v>360</v>
+      </c>
+      <c r="C216" t="s" s="1930">
+        <v>24</v>
+      </c>
+      <c r="D216" t="s" s="1931">
+        <v>359</v>
+      </c>
+      <c r="E216" t="s" s="1932">
+        <v>13</v>
+      </c>
+      <c r="F216" t="s" s="1933">
+        <v>14</v>
+      </c>
+      <c r="G216" t="s" s="1934">
+        <v>128</v>
+      </c>
+      <c r="H216" t="s" s="1935">
+        <v>14</v>
+      </c>
+      <c r="I216" t="s" s="1936">
+        <v>16</v>
+      </c>
+      <c r="J216" t="s" s="1937">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="s" s="1938">
+        <v>361</v>
+      </c>
+      <c r="C217" t="s" s="1939">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="1940">
+        <v>362</v>
+      </c>
+      <c r="E217" t="s" s="1941">
+        <v>13</v>
+      </c>
+      <c r="F217" t="s" s="1942">
+        <v>14</v>
+      </c>
+      <c r="G217" t="s" s="1943">
+        <v>128</v>
+      </c>
+      <c r="H217" t="s" s="1944">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s" s="1945">
+        <v>16</v>
+      </c>
+      <c r="J217" t="s" s="1946">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="s" s="1947">
+        <v>364</v>
+      </c>
+      <c r="C218" t="s" s="1948">
+        <v>24</v>
+      </c>
+      <c r="D218" t="s" s="1949">
+        <v>362</v>
+      </c>
+      <c r="E218" t="s" s="1950">
+        <v>13</v>
+      </c>
+      <c r="F218" t="s" s="1951">
+        <v>14</v>
+      </c>
+      <c r="G218" t="s" s="1952">
+        <v>128</v>
+      </c>
+      <c r="H218" t="s" s="1953">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s" s="1954">
+        <v>16</v>
+      </c>
+      <c r="J218" t="s" s="1955">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="s" s="1956">
+        <v>365</v>
+      </c>
+      <c r="C219" t="s" s="1957">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="1958">
+        <v>366</v>
+      </c>
+      <c r="E219" t="s" s="1959">
+        <v>13</v>
+      </c>
+      <c r="F219" t="s" s="1960">
+        <v>14</v>
+      </c>
+      <c r="G219" t="s" s="1961">
+        <v>128</v>
+      </c>
+      <c r="H219" t="s" s="1962">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s" s="1963">
+        <v>16</v>
+      </c>
+      <c r="J219" t="s" s="1964">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="s" s="1965">
+        <v>368</v>
+      </c>
+      <c r="C220" t="s" s="1966">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="1967">
+        <v>369</v>
+      </c>
+      <c r="E220" t="s" s="1968">
+        <v>13</v>
+      </c>
+      <c r="F220" t="s" s="1969">
+        <v>14</v>
+      </c>
+      <c r="G220" t="s" s="1970">
+        <v>128</v>
+      </c>
+      <c r="H220" t="s" s="1971">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s" s="1972">
+        <v>16</v>
+      </c>
+      <c r="J220" t="s" s="1973">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="s" s="1974">
+        <v>361</v>
+      </c>
+      <c r="C221" t="s" s="1975">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="1976">
+        <v>371</v>
+      </c>
+      <c r="E221" t="s" s="1977">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s" s="1978">
+        <v>14</v>
+      </c>
+      <c r="G221" t="s" s="1979">
+        <v>128</v>
+      </c>
+      <c r="H221" t="s" s="1980">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s" s="1981">
+        <v>16</v>
+      </c>
+      <c r="J221" t="s" s="1982">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="s" s="1983">
+        <v>364</v>
+      </c>
+      <c r="C222" t="s" s="1984">
+        <v>24</v>
+      </c>
+      <c r="D222" t="s" s="1985">
+        <v>373</v>
+      </c>
+      <c r="E222" t="s" s="1986">
+        <v>13</v>
+      </c>
+      <c r="F222" t="s" s="1987">
+        <v>14</v>
+      </c>
+      <c r="G222" t="s" s="1988">
+        <v>128</v>
+      </c>
+      <c r="H222" t="s" s="1989">
+        <v>14</v>
+      </c>
+      <c r="I222" t="s" s="1990">
+        <v>16</v>
+      </c>
+      <c r="J222" t="s" s="1991">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="s" s="1992">
+        <v>365</v>
+      </c>
+      <c r="C223" t="s" s="1993">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="1994">
+        <v>374</v>
+      </c>
+      <c r="E223" t="s" s="1995">
+        <v>13</v>
+      </c>
+      <c r="F223" t="s" s="1996">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s" s="1997">
+        <v>128</v>
+      </c>
+      <c r="H223" t="s" s="1998">
+        <v>14</v>
+      </c>
+      <c r="I223" t="s" s="1999">
+        <v>16</v>
+      </c>
+      <c r="J223" t="s" s="2000">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="s" s="2001">
+        <v>368</v>
+      </c>
+      <c r="C224" t="s" s="2002">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="2003">
+        <v>376</v>
+      </c>
+      <c r="E224" t="s" s="2004">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s" s="2005">
+        <v>14</v>
+      </c>
+      <c r="G224" t="s" s="2006">
+        <v>128</v>
+      </c>
+      <c r="H224" t="s" s="2007">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s" s="2008">
+        <v>16</v>
+      </c>
+      <c r="J224" t="s" s="2009">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="s" s="2010">
+        <v>365</v>
+      </c>
+      <c r="C225" t="s" s="2011">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="2012">
+        <v>378</v>
+      </c>
+      <c r="E225" t="s" s="2013">
+        <v>13</v>
+      </c>
+      <c r="F225" t="s" s="2014">
+        <v>14</v>
+      </c>
+      <c r="G225" t="s" s="2015">
+        <v>128</v>
+      </c>
+      <c r="H225" t="s" s="2016">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s" s="2017">
+        <v>16</v>
+      </c>
+      <c r="J225" t="s" s="2018">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="s" s="2019">
+        <v>361</v>
+      </c>
+      <c r="C226" t="s" s="2020">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="2021">
+        <v>380</v>
+      </c>
+      <c r="E226" t="s" s="2022">
+        <v>13</v>
+      </c>
+      <c r="F226" t="s" s="2023">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s" s="2024">
+        <v>128</v>
+      </c>
+      <c r="H226" t="s" s="2025">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s" s="2026">
+        <v>16</v>
+      </c>
+      <c r="J226" t="s" s="2027">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="s" s="2028">
+        <v>364</v>
+      </c>
+      <c r="C227" t="s" s="2029">
+        <v>24</v>
+      </c>
+      <c r="D227" t="s" s="2030">
+        <v>382</v>
+      </c>
+      <c r="E227" t="s" s="2031">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s" s="2032">
+        <v>14</v>
+      </c>
+      <c r="G227" t="s" s="2033">
+        <v>128</v>
+      </c>
+      <c r="H227" t="s" s="2034">
+        <v>14</v>
+      </c>
+      <c r="I227" t="s" s="2035">
+        <v>16</v>
+      </c>
+      <c r="J227" t="s" s="2036">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="s" s="2037">
+        <v>365</v>
+      </c>
+      <c r="C228" t="s" s="2038">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="2039">
+        <v>383</v>
+      </c>
+      <c r="E228" t="s" s="2040">
+        <v>13</v>
+      </c>
+      <c r="F228" t="s" s="2041">
+        <v>14</v>
+      </c>
+      <c r="G228" t="s" s="2042">
+        <v>128</v>
+      </c>
+      <c r="H228" t="s" s="2043">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s" s="2044">
+        <v>16</v>
+      </c>
+      <c r="J228" t="s" s="2045">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="s" s="2046">
+        <v>368</v>
+      </c>
+      <c r="C229" t="s" s="2047">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="2048">
+        <v>385</v>
+      </c>
+      <c r="E229" t="s" s="2049">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s" s="2050">
+        <v>14</v>
+      </c>
+      <c r="G229" t="s" s="2051">
+        <v>128</v>
+      </c>
+      <c r="H229" t="s" s="2052">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s" s="2053">
+        <v>16</v>
+      </c>
+      <c r="J229" t="s" s="2054">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="s" s="2055">
+        <v>41</v>
+      </c>
+      <c r="C230" t="s" s="2056">
+        <v>24</v>
+      </c>
+      <c r="D230" t="s" s="2057">
+        <v>387</v>
+      </c>
+      <c r="E230" t="s" s="2058">
+        <v>13</v>
+      </c>
+      <c r="F230" t="s" s="2059">
+        <v>14</v>
+      </c>
+      <c r="G230" t="s" s="2060">
+        <v>128</v>
+      </c>
+      <c r="H230" t="s" s="2061">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s" s="2062">
+        <v>16</v>
+      </c>
+      <c r="J230" t="s" s="2063">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="s" s="2064">
+        <v>388</v>
+      </c>
+      <c r="C231" t="s" s="2065">
+        <v>24</v>
+      </c>
+      <c r="D231" t="s" s="2066">
+        <v>387</v>
+      </c>
+      <c r="E231" t="s" s="2067">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s" s="2068">
+        <v>14</v>
+      </c>
+      <c r="G231" t="s" s="2069">
+        <v>128</v>
+      </c>
+      <c r="H231" t="s" s="2070">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s" s="2071">
+        <v>16</v>
+      </c>
+      <c r="J231" t="s" s="2072">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="s" s="2073">
+        <v>389</v>
+      </c>
+      <c r="C232" t="s" s="2074">
+        <v>24</v>
+      </c>
+      <c r="D232" t="s" s="2075">
+        <v>390</v>
+      </c>
+      <c r="E232" t="s" s="2076">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s" s="2077">
+        <v>14</v>
+      </c>
+      <c r="G232" t="s" s="2078">
+        <v>128</v>
+      </c>
+      <c r="H232" t="s" s="2079">
+        <v>14</v>
+      </c>
+      <c r="I232" t="s" s="2080">
+        <v>16</v>
+      </c>
+      <c r="J232" t="s" s="2081">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="s" s="2082">
+        <v>391</v>
+      </c>
+      <c r="C233" t="s" s="2083">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="2084">
+        <v>390</v>
+      </c>
+      <c r="E233" t="s" s="2085">
+        <v>13</v>
+      </c>
+      <c r="F233" t="s" s="2086">
+        <v>14</v>
+      </c>
+      <c r="G233" t="s" s="2087">
+        <v>128</v>
+      </c>
+      <c r="H233" t="s" s="2088">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s" s="2089">
+        <v>16</v>
+      </c>
+      <c r="J233" t="s" s="2090">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="s" s="2091">
+        <v>393</v>
+      </c>
+      <c r="C234" t="s" s="2092">
+        <v>24</v>
+      </c>
+      <c r="D234" t="s" s="2093">
+        <v>390</v>
+      </c>
+      <c r="E234" t="s" s="2094">
+        <v>13</v>
+      </c>
+      <c r="F234" t="s" s="2095">
+        <v>14</v>
+      </c>
+      <c r="G234" t="s" s="2096">
+        <v>128</v>
+      </c>
+      <c r="H234" t="s" s="2097">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s" s="2098">
+        <v>16</v>
+      </c>
+      <c r="J234" t="s" s="2099">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="s" s="2100">
+        <v>41</v>
+      </c>
+      <c r="C235" t="s" s="2101">
+        <v>24</v>
+      </c>
+      <c r="D235" t="s" s="2102">
+        <v>394</v>
+      </c>
+      <c r="E235" t="s" s="2103">
+        <v>13</v>
+      </c>
+      <c r="F235" t="s" s="2104">
+        <v>14</v>
+      </c>
+      <c r="G235" t="s" s="2105">
+        <v>128</v>
+      </c>
+      <c r="H235" t="s" s="2106">
+        <v>14</v>
+      </c>
+      <c r="I235" t="s" s="2107">
+        <v>16</v>
+      </c>
+      <c r="J235" t="s" s="2108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="s" s="2109">
+        <v>388</v>
+      </c>
+      <c r="C236" t="s" s="2110">
+        <v>24</v>
+      </c>
+      <c r="D236" t="s" s="2111">
+        <v>394</v>
+      </c>
+      <c r="E236" t="s" s="2112">
+        <v>13</v>
+      </c>
+      <c r="F236" t="s" s="2113">
+        <v>14</v>
+      </c>
+      <c r="G236" t="s" s="2114">
+        <v>128</v>
+      </c>
+      <c r="H236" t="s" s="2115">
+        <v>14</v>
+      </c>
+      <c r="I236" t="s" s="2116">
+        <v>16</v>
+      </c>
+      <c r="J236" t="s" s="2117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="s" s="2118">
+        <v>389</v>
+      </c>
+      <c r="C237" t="s" s="2119">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="2120">
+        <v>395</v>
+      </c>
+      <c r="E237" t="s" s="2121">
+        <v>13</v>
+      </c>
+      <c r="F237" t="s" s="2122">
+        <v>14</v>
+      </c>
+      <c r="G237" t="s" s="2123">
+        <v>128</v>
+      </c>
+      <c r="H237" t="s" s="2124">
+        <v>14</v>
+      </c>
+      <c r="I237" t="s" s="2125">
+        <v>16</v>
+      </c>
+      <c r="J237" t="s" s="2126">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="s" s="2127">
+        <v>391</v>
+      </c>
+      <c r="C238" t="s" s="2128">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="2129">
+        <v>397</v>
+      </c>
+      <c r="E238" t="s" s="2130">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s" s="2131">
+        <v>14</v>
+      </c>
+      <c r="G238" t="s" s="2132">
+        <v>128</v>
+      </c>
+      <c r="H238" t="s" s="2133">
+        <v>14</v>
+      </c>
+      <c r="I238" t="s" s="2134">
+        <v>16</v>
+      </c>
+      <c r="J238" t="s" s="2135">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="s" s="2136">
+        <v>393</v>
+      </c>
+      <c r="C239" t="s" s="2137">
+        <v>24</v>
+      </c>
+      <c r="D239" t="s" s="2138">
+        <v>399</v>
+      </c>
+      <c r="E239" t="s" s="2139">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s" s="2140">
+        <v>14</v>
+      </c>
+      <c r="G239" t="s" s="2141">
+        <v>128</v>
+      </c>
+      <c r="H239" t="s" s="2142">
+        <v>14</v>
+      </c>
+      <c r="I239" t="s" s="2143">
+        <v>16</v>
+      </c>
+      <c r="J239" t="s" s="2144">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="420">
   <si>
     <t>App</t>
   </si>
@@ -1214,6 +1214,66 @@
   </si>
   <si>
     <t>10.12.2025:13:09</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:29</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:30</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:33</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_13_33.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:34</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:35</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Multiple-Filter_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:36</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Multiple-Filter_Invalid_[WEB]_10_12_2025_13_36.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:13:49</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_13_49.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:14:02</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_14_02.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:14:07</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_14_07.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:14:13</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_14_13.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:14:20</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_10_12_2025_14_20.jpg</t>
+  </si>
+  <si>
+    <t>10.12.2025:14:25</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2145">
+  <cellXfs count="2280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4021,6 +4081,141 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5189,7 +5384,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD239"/>
+  <dimension ref="A1:XFD254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -28519,6 +28714,441 @@
         <v>14</v>
       </c>
     </row>
+    <row r="240">
+      <c r="B240" t="s" s="2145">
+        <v>141</v>
+      </c>
+      <c r="C240" t="s" s="2146">
+        <v>24</v>
+      </c>
+      <c r="D240" t="s" s="2147">
+        <v>400</v>
+      </c>
+      <c r="E240" t="s" s="2148">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s" s="2149">
+        <v>14</v>
+      </c>
+      <c r="G240" t="s" s="2150">
+        <v>128</v>
+      </c>
+      <c r="H240" t="s" s="2151">
+        <v>14</v>
+      </c>
+      <c r="I240" t="s" s="2152">
+        <v>16</v>
+      </c>
+      <c r="J240" t="s" s="2153">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="s" s="2154">
+        <v>150</v>
+      </c>
+      <c r="C241" t="s" s="2155">
+        <v>24</v>
+      </c>
+      <c r="D241" t="s" s="2156">
+        <v>400</v>
+      </c>
+      <c r="E241" t="s" s="2157">
+        <v>13</v>
+      </c>
+      <c r="F241" t="s" s="2158">
+        <v>14</v>
+      </c>
+      <c r="G241" t="s" s="2159">
+        <v>128</v>
+      </c>
+      <c r="H241" t="s" s="2160">
+        <v>14</v>
+      </c>
+      <c r="I241" t="s" s="2161">
+        <v>16</v>
+      </c>
+      <c r="J241" t="s" s="2162">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="s" s="2163">
+        <v>168</v>
+      </c>
+      <c r="C242" t="s" s="2164">
+        <v>24</v>
+      </c>
+      <c r="D242" t="s" s="2165">
+        <v>401</v>
+      </c>
+      <c r="E242" t="s" s="2166">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s" s="2167">
+        <v>14</v>
+      </c>
+      <c r="G242" t="s" s="2168">
+        <v>128</v>
+      </c>
+      <c r="H242" t="s" s="2169">
+        <v>14</v>
+      </c>
+      <c r="I242" t="s" s="2170">
+        <v>16</v>
+      </c>
+      <c r="J242" t="s" s="2171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="s" s="2172">
+        <v>191</v>
+      </c>
+      <c r="C243" t="s" s="2173">
+        <v>24</v>
+      </c>
+      <c r="D243" t="s" s="2174">
+        <v>401</v>
+      </c>
+      <c r="E243" t="s" s="2175">
+        <v>13</v>
+      </c>
+      <c r="F243" t="s" s="2176">
+        <v>14</v>
+      </c>
+      <c r="G243" t="s" s="2177">
+        <v>128</v>
+      </c>
+      <c r="H243" t="s" s="2178">
+        <v>14</v>
+      </c>
+      <c r="I243" t="s" s="2179">
+        <v>16</v>
+      </c>
+      <c r="J243" t="s" s="2180">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="s" s="2181">
+        <v>215</v>
+      </c>
+      <c r="C244" t="s" s="2182">
+        <v>24</v>
+      </c>
+      <c r="D244" t="s" s="2183">
+        <v>401</v>
+      </c>
+      <c r="E244" t="s" s="2184">
+        <v>13</v>
+      </c>
+      <c r="F244" t="s" s="2185">
+        <v>14</v>
+      </c>
+      <c r="G244" t="s" s="2186">
+        <v>128</v>
+      </c>
+      <c r="H244" t="s" s="2187">
+        <v>14</v>
+      </c>
+      <c r="I244" t="s" s="2188">
+        <v>16</v>
+      </c>
+      <c r="J244" t="s" s="2189">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="s" s="2190">
+        <v>321</v>
+      </c>
+      <c r="C245" t="s" s="2191">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="2192">
+        <v>402</v>
+      </c>
+      <c r="E245" t="s" s="2193">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s" s="2194">
+        <v>14</v>
+      </c>
+      <c r="G245" t="s" s="2195">
+        <v>128</v>
+      </c>
+      <c r="H245" t="s" s="2196">
+        <v>14</v>
+      </c>
+      <c r="I245" t="s" s="2197">
+        <v>16</v>
+      </c>
+      <c r="J245" t="s" s="2198">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="s" s="2199">
+        <v>268</v>
+      </c>
+      <c r="C246" t="s" s="2200">
+        <v>24</v>
+      </c>
+      <c r="D246" t="s" s="2201">
+        <v>404</v>
+      </c>
+      <c r="E246" t="s" s="2202">
+        <v>13</v>
+      </c>
+      <c r="F246" t="s" s="2203">
+        <v>14</v>
+      </c>
+      <c r="G246" t="s" s="2204">
+        <v>128</v>
+      </c>
+      <c r="H246" t="s" s="2205">
+        <v>14</v>
+      </c>
+      <c r="I246" t="s" s="2206">
+        <v>16</v>
+      </c>
+      <c r="J246" t="s" s="2207">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="s" s="2208">
+        <v>270</v>
+      </c>
+      <c r="C247" t="s" s="2209">
+        <v>24</v>
+      </c>
+      <c r="D247" t="s" s="2210">
+        <v>405</v>
+      </c>
+      <c r="E247" t="s" s="2211">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s" s="2212">
+        <v>14</v>
+      </c>
+      <c r="G247" t="s" s="2213">
+        <v>128</v>
+      </c>
+      <c r="H247" t="s" s="2214">
+        <v>14</v>
+      </c>
+      <c r="I247" t="s" s="2215">
+        <v>16</v>
+      </c>
+      <c r="J247" t="s" s="2216">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="s" s="2217">
+        <v>406</v>
+      </c>
+      <c r="C248" t="s" s="2218">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="2219">
+        <v>407</v>
+      </c>
+      <c r="E248" t="s" s="2220">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s" s="2221">
+        <v>14</v>
+      </c>
+      <c r="G248" t="s" s="2222">
+        <v>128</v>
+      </c>
+      <c r="H248" t="s" s="2223">
+        <v>14</v>
+      </c>
+      <c r="I248" t="s" s="2224">
+        <v>16</v>
+      </c>
+      <c r="J248" t="s" s="2225">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="s" s="2226">
+        <v>321</v>
+      </c>
+      <c r="C249" t="s" s="2227">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="2228">
+        <v>409</v>
+      </c>
+      <c r="E249" t="s" s="2229">
+        <v>13</v>
+      </c>
+      <c r="F249" t="s" s="2230">
+        <v>14</v>
+      </c>
+      <c r="G249" t="s" s="2231">
+        <v>128</v>
+      </c>
+      <c r="H249" t="s" s="2232">
+        <v>14</v>
+      </c>
+      <c r="I249" t="s" s="2233">
+        <v>16</v>
+      </c>
+      <c r="J249" t="s" s="2234">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="s" s="2235">
+        <v>321</v>
+      </c>
+      <c r="C250" t="s" s="2236">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="2237">
+        <v>411</v>
+      </c>
+      <c r="E250" t="s" s="2238">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s" s="2239">
+        <v>14</v>
+      </c>
+      <c r="G250" t="s" s="2240">
+        <v>128</v>
+      </c>
+      <c r="H250" t="s" s="2241">
+        <v>14</v>
+      </c>
+      <c r="I250" t="s" s="2242">
+        <v>16</v>
+      </c>
+      <c r="J250" t="s" s="2243">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="s" s="2244">
+        <v>321</v>
+      </c>
+      <c r="C251" t="s" s="2245">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="2246">
+        <v>413</v>
+      </c>
+      <c r="E251" t="s" s="2247">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s" s="2248">
+        <v>14</v>
+      </c>
+      <c r="G251" t="s" s="2249">
+        <v>128</v>
+      </c>
+      <c r="H251" t="s" s="2250">
+        <v>14</v>
+      </c>
+      <c r="I251" t="s" s="2251">
+        <v>16</v>
+      </c>
+      <c r="J251" t="s" s="2252">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="s" s="2253">
+        <v>321</v>
+      </c>
+      <c r="C252" t="s" s="2254">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="2255">
+        <v>415</v>
+      </c>
+      <c r="E252" t="s" s="2256">
+        <v>13</v>
+      </c>
+      <c r="F252" t="s" s="2257">
+        <v>14</v>
+      </c>
+      <c r="G252" t="s" s="2258">
+        <v>128</v>
+      </c>
+      <c r="H252" t="s" s="2259">
+        <v>14</v>
+      </c>
+      <c r="I252" t="s" s="2260">
+        <v>16</v>
+      </c>
+      <c r="J252" t="s" s="2261">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="s" s="2262">
+        <v>321</v>
+      </c>
+      <c r="C253" t="s" s="2263">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="2264">
+        <v>417</v>
+      </c>
+      <c r="E253" t="s" s="2265">
+        <v>13</v>
+      </c>
+      <c r="F253" t="s" s="2266">
+        <v>14</v>
+      </c>
+      <c r="G253" t="s" s="2267">
+        <v>128</v>
+      </c>
+      <c r="H253" t="s" s="2268">
+        <v>14</v>
+      </c>
+      <c r="I253" t="s" s="2269">
+        <v>16</v>
+      </c>
+      <c r="J253" t="s" s="2270">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="s" s="2271">
+        <v>321</v>
+      </c>
+      <c r="C254" t="s" s="2272">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="2273">
+        <v>419</v>
+      </c>
+      <c r="E254" t="s" s="2274">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s" s="2275">
+        <v>14</v>
+      </c>
+      <c r="G254" t="s" s="2276">
+        <v>128</v>
+      </c>
+      <c r="H254" t="s" s="2277">
+        <v>14</v>
+      </c>
+      <c r="I254" t="s" s="2278">
+        <v>16</v>
+      </c>
+      <c r="J254" t="s" s="2279">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="452">
   <si>
     <t>App</t>
   </si>
@@ -1274,6 +1274,102 @@
   </si>
   <si>
     <t>10.12.2025:14:25</t>
+  </si>
+  <si>
+    <t>10.12.2025:14:42</t>
+  </si>
+  <si>
+    <t>10.12.2025:14:43</t>
+  </si>
+  <si>
+    <t>10.12.2025:14:46</t>
+  </si>
+  <si>
+    <t>Term_Deposits_Lists_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:55</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:58</t>
+  </si>
+  <si>
+    <t>Term_Deposits_Lists_[WEB]_11_12_2025_12_58.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:00</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts_Product_Details_Financial_Details_Is_Not_Visible_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:02</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:03</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:04</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]_11_12_2025_13_04.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:07</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]_11_12_2025_13_07.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:08</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:09</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:10</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_List_No_Transactions_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:12</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:14</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:15</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:19</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions_List_No_Transactions_[WEB]</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Header_Display_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:20</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +2025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2280">
+  <cellXfs count="2487">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4216,6 +4312,213 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5384,7 +5687,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD254"/>
+  <dimension ref="A1:XFD277"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -29149,6 +29452,673 @@
         <v>53</v>
       </c>
     </row>
+    <row r="255">
+      <c r="B255" t="s" s="2280">
+        <v>141</v>
+      </c>
+      <c r="C255" t="s" s="2281">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="2282">
+        <v>420</v>
+      </c>
+      <c r="E255" t="s" s="2283">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s" s="2284">
+        <v>14</v>
+      </c>
+      <c r="G255" t="s" s="2285">
+        <v>15</v>
+      </c>
+      <c r="H255" t="s" s="2286">
+        <v>14</v>
+      </c>
+      <c r="I255" t="s" s="2287">
+        <v>16</v>
+      </c>
+      <c r="J255" t="s" s="2288">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="s" s="2289">
+        <v>150</v>
+      </c>
+      <c r="C256" t="s" s="2290">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="2291">
+        <v>420</v>
+      </c>
+      <c r="E256" t="s" s="2292">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s" s="2293">
+        <v>14</v>
+      </c>
+      <c r="G256" t="s" s="2294">
+        <v>15</v>
+      </c>
+      <c r="H256" t="s" s="2295">
+        <v>14</v>
+      </c>
+      <c r="I256" t="s" s="2296">
+        <v>16</v>
+      </c>
+      <c r="J256" t="s" s="2297">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="s" s="2298">
+        <v>168</v>
+      </c>
+      <c r="C257" t="s" s="2299">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="2300">
+        <v>420</v>
+      </c>
+      <c r="E257" t="s" s="2301">
+        <v>13</v>
+      </c>
+      <c r="F257" t="s" s="2302">
+        <v>14</v>
+      </c>
+      <c r="G257" t="s" s="2303">
+        <v>15</v>
+      </c>
+      <c r="H257" t="s" s="2304">
+        <v>14</v>
+      </c>
+      <c r="I257" t="s" s="2305">
+        <v>16</v>
+      </c>
+      <c r="J257" t="s" s="2306">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="s" s="2307">
+        <v>191</v>
+      </c>
+      <c r="C258" t="s" s="2308">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="2309">
+        <v>420</v>
+      </c>
+      <c r="E258" t="s" s="2310">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s" s="2311">
+        <v>14</v>
+      </c>
+      <c r="G258" t="s" s="2312">
+        <v>15</v>
+      </c>
+      <c r="H258" t="s" s="2313">
+        <v>14</v>
+      </c>
+      <c r="I258" t="s" s="2314">
+        <v>16</v>
+      </c>
+      <c r="J258" t="s" s="2315">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="s" s="2316">
+        <v>215</v>
+      </c>
+      <c r="C259" t="s" s="2317">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="2318">
+        <v>420</v>
+      </c>
+      <c r="E259" t="s" s="2319">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s" s="2320">
+        <v>14</v>
+      </c>
+      <c r="G259" t="s" s="2321">
+        <v>15</v>
+      </c>
+      <c r="H259" t="s" s="2322">
+        <v>14</v>
+      </c>
+      <c r="I259" t="s" s="2323">
+        <v>16</v>
+      </c>
+      <c r="J259" t="s" s="2324">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="s" s="2325">
+        <v>215</v>
+      </c>
+      <c r="C260" t="s" s="2326">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="2327">
+        <v>421</v>
+      </c>
+      <c r="E260" t="s" s="2328">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s" s="2329">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s" s="2330">
+        <v>15</v>
+      </c>
+      <c r="H260" t="s" s="2331">
+        <v>14</v>
+      </c>
+      <c r="I260" t="s" s="2332">
+        <v>16</v>
+      </c>
+      <c r="J260" t="s" s="2333">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="s" s="2334">
+        <v>215</v>
+      </c>
+      <c r="C261" t="s" s="2335">
+        <v>24</v>
+      </c>
+      <c r="D261" t="s" s="2336">
+        <v>422</v>
+      </c>
+      <c r="E261" t="s" s="2337">
+        <v>13</v>
+      </c>
+      <c r="F261" t="s" s="2338">
+        <v>14</v>
+      </c>
+      <c r="G261" t="s" s="2339">
+        <v>15</v>
+      </c>
+      <c r="H261" t="s" s="2340">
+        <v>14</v>
+      </c>
+      <c r="I261" t="s" s="2341">
+        <v>16</v>
+      </c>
+      <c r="J261" t="s" s="2342">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="s" s="2343">
+        <v>423</v>
+      </c>
+      <c r="C262" t="s" s="2344">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="2345">
+        <v>424</v>
+      </c>
+      <c r="E262" t="s" s="2346">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s" s="2347">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s" s="2348">
+        <v>15</v>
+      </c>
+      <c r="H262" t="s" s="2349">
+        <v>14</v>
+      </c>
+      <c r="I262" t="s" s="2350">
+        <v>16</v>
+      </c>
+      <c r="J262" t="s" s="2351">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="s" s="2352">
+        <v>423</v>
+      </c>
+      <c r="C263" t="s" s="2353">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="2354">
+        <v>425</v>
+      </c>
+      <c r="E263" t="s" s="2355">
+        <v>13</v>
+      </c>
+      <c r="F263" t="s" s="2356">
+        <v>14</v>
+      </c>
+      <c r="G263" t="s" s="2357">
+        <v>15</v>
+      </c>
+      <c r="H263" t="s" s="2358">
+        <v>14</v>
+      </c>
+      <c r="I263" t="s" s="2359">
+        <v>16</v>
+      </c>
+      <c r="J263" t="s" s="2360">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="s" s="2361">
+        <v>423</v>
+      </c>
+      <c r="C264" t="s" s="2362">
+        <v>24</v>
+      </c>
+      <c r="D264" t="s" s="2363">
+        <v>427</v>
+      </c>
+      <c r="E264" t="s" s="2364">
+        <v>13</v>
+      </c>
+      <c r="F264" t="s" s="2365">
+        <v>14</v>
+      </c>
+      <c r="G264" t="s" s="2366">
+        <v>15</v>
+      </c>
+      <c r="H264" t="s" s="2367">
+        <v>14</v>
+      </c>
+      <c r="I264" t="s" s="2368">
+        <v>16</v>
+      </c>
+      <c r="J264" t="s" s="2369">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="s" s="2370">
+        <v>428</v>
+      </c>
+      <c r="C265" t="s" s="2371">
+        <v>24</v>
+      </c>
+      <c r="D265" t="s" s="2372">
+        <v>429</v>
+      </c>
+      <c r="E265" t="s" s="2373">
+        <v>13</v>
+      </c>
+      <c r="F265" t="s" s="2374">
+        <v>14</v>
+      </c>
+      <c r="G265" t="s" s="2375">
+        <v>15</v>
+      </c>
+      <c r="H265" t="s" s="2376">
+        <v>14</v>
+      </c>
+      <c r="I265" t="s" s="2377">
+        <v>16</v>
+      </c>
+      <c r="J265" t="s" s="2378">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="s" s="2379">
+        <v>428</v>
+      </c>
+      <c r="C266" t="s" s="2380">
+        <v>24</v>
+      </c>
+      <c r="D266" t="s" s="2381">
+        <v>430</v>
+      </c>
+      <c r="E266" t="s" s="2382">
+        <v>13</v>
+      </c>
+      <c r="F266" t="s" s="2383">
+        <v>14</v>
+      </c>
+      <c r="G266" t="s" s="2384">
+        <v>15</v>
+      </c>
+      <c r="H266" t="s" s="2385">
+        <v>14</v>
+      </c>
+      <c r="I266" t="s" s="2386">
+        <v>16</v>
+      </c>
+      <c r="J266" t="s" s="2387">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="s" s="2388">
+        <v>431</v>
+      </c>
+      <c r="C267" t="s" s="2389">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="2390">
+        <v>432</v>
+      </c>
+      <c r="E267" t="s" s="2391">
+        <v>13</v>
+      </c>
+      <c r="F267" t="s" s="2392">
+        <v>14</v>
+      </c>
+      <c r="G267" t="s" s="2393">
+        <v>15</v>
+      </c>
+      <c r="H267" t="s" s="2394">
+        <v>14</v>
+      </c>
+      <c r="I267" t="s" s="2395">
+        <v>16</v>
+      </c>
+      <c r="J267" t="s" s="2396">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="s" s="2397">
+        <v>431</v>
+      </c>
+      <c r="C268" t="s" s="2398">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="2399">
+        <v>434</v>
+      </c>
+      <c r="E268" t="s" s="2400">
+        <v>13</v>
+      </c>
+      <c r="F268" t="s" s="2401">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s" s="2402">
+        <v>15</v>
+      </c>
+      <c r="H268" t="s" s="2403">
+        <v>14</v>
+      </c>
+      <c r="I268" t="s" s="2404">
+        <v>16</v>
+      </c>
+      <c r="J268" t="s" s="2405">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="s" s="2406">
+        <v>431</v>
+      </c>
+      <c r="C269" t="s" s="2407">
+        <v>24</v>
+      </c>
+      <c r="D269" t="s" s="2408">
+        <v>436</v>
+      </c>
+      <c r="E269" t="s" s="2409">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s" s="2410">
+        <v>14</v>
+      </c>
+      <c r="G269" t="s" s="2411">
+        <v>15</v>
+      </c>
+      <c r="H269" t="s" s="2412">
+        <v>14</v>
+      </c>
+      <c r="I269" t="s" s="2413">
+        <v>16</v>
+      </c>
+      <c r="J269" t="s" s="2414">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="s" s="2415">
+        <v>437</v>
+      </c>
+      <c r="C270" t="s" s="2416">
+        <v>24</v>
+      </c>
+      <c r="D270" t="s" s="2417">
+        <v>438</v>
+      </c>
+      <c r="E270" t="s" s="2418">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s" s="2419">
+        <v>14</v>
+      </c>
+      <c r="G270" t="s" s="2420">
+        <v>15</v>
+      </c>
+      <c r="H270" t="s" s="2421">
+        <v>14</v>
+      </c>
+      <c r="I270" t="s" s="2422">
+        <v>16</v>
+      </c>
+      <c r="J270" t="s" s="2423">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="s" s="2424">
+        <v>439</v>
+      </c>
+      <c r="C271" t="s" s="2425">
+        <v>24</v>
+      </c>
+      <c r="D271" t="s" s="2426">
+        <v>440</v>
+      </c>
+      <c r="E271" t="s" s="2427">
+        <v>13</v>
+      </c>
+      <c r="F271" t="s" s="2428">
+        <v>14</v>
+      </c>
+      <c r="G271" t="s" s="2429">
+        <v>15</v>
+      </c>
+      <c r="H271" t="s" s="2430">
+        <v>14</v>
+      </c>
+      <c r="I271" t="s" s="2431">
+        <v>16</v>
+      </c>
+      <c r="J271" t="s" s="2432">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="s" s="2433">
+        <v>441</v>
+      </c>
+      <c r="C272" t="s" s="2434">
+        <v>24</v>
+      </c>
+      <c r="D272" t="s" s="2435">
+        <v>442</v>
+      </c>
+      <c r="E272" t="s" s="2436">
+        <v>13</v>
+      </c>
+      <c r="F272" t="s" s="2437">
+        <v>14</v>
+      </c>
+      <c r="G272" t="s" s="2438">
+        <v>15</v>
+      </c>
+      <c r="H272" t="s" s="2439">
+        <v>14</v>
+      </c>
+      <c r="I272" t="s" s="2440">
+        <v>16</v>
+      </c>
+      <c r="J272" t="s" s="2441">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="s" s="2442">
+        <v>443</v>
+      </c>
+      <c r="C273" t="s" s="2443">
+        <v>24</v>
+      </c>
+      <c r="D273" t="s" s="2444">
+        <v>444</v>
+      </c>
+      <c r="E273" t="s" s="2445">
+        <v>13</v>
+      </c>
+      <c r="F273" t="s" s="2446">
+        <v>14</v>
+      </c>
+      <c r="G273" t="s" s="2447">
+        <v>15</v>
+      </c>
+      <c r="H273" t="s" s="2448">
+        <v>14</v>
+      </c>
+      <c r="I273" t="s" s="2449">
+        <v>16</v>
+      </c>
+      <c r="J273" t="s" s="2450">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="s" s="2451">
+        <v>445</v>
+      </c>
+      <c r="C274" t="s" s="2452">
+        <v>24</v>
+      </c>
+      <c r="D274" t="s" s="2453">
+        <v>446</v>
+      </c>
+      <c r="E274" t="s" s="2454">
+        <v>13</v>
+      </c>
+      <c r="F274" t="s" s="2455">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s" s="2456">
+        <v>15</v>
+      </c>
+      <c r="H274" t="s" s="2457">
+        <v>14</v>
+      </c>
+      <c r="I274" t="s" s="2458">
+        <v>16</v>
+      </c>
+      <c r="J274" t="s" s="2459">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="s" s="2460">
+        <v>447</v>
+      </c>
+      <c r="C275" t="s" s="2461">
+        <v>24</v>
+      </c>
+      <c r="D275" t="s" s="2462">
+        <v>448</v>
+      </c>
+      <c r="E275" t="s" s="2463">
+        <v>13</v>
+      </c>
+      <c r="F275" t="s" s="2464">
+        <v>14</v>
+      </c>
+      <c r="G275" t="s" s="2465">
+        <v>15</v>
+      </c>
+      <c r="H275" t="s" s="2466">
+        <v>14</v>
+      </c>
+      <c r="I275" t="s" s="2467">
+        <v>16</v>
+      </c>
+      <c r="J275" t="s" s="2468">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="s" s="2469">
+        <v>449</v>
+      </c>
+      <c r="C276" t="s" s="2470">
+        <v>24</v>
+      </c>
+      <c r="D276" t="s" s="2471">
+        <v>448</v>
+      </c>
+      <c r="E276" t="s" s="2472">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s" s="2473">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s" s="2474">
+        <v>15</v>
+      </c>
+      <c r="H276" t="s" s="2475">
+        <v>14</v>
+      </c>
+      <c r="I276" t="s" s="2476">
+        <v>16</v>
+      </c>
+      <c r="J276" t="s" s="2477">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="s" s="2478">
+        <v>450</v>
+      </c>
+      <c r="C277" t="s" s="2479">
+        <v>24</v>
+      </c>
+      <c r="D277" t="s" s="2480">
+        <v>451</v>
+      </c>
+      <c r="E277" t="s" s="2481">
+        <v>13</v>
+      </c>
+      <c r="F277" t="s" s="2482">
+        <v>14</v>
+      </c>
+      <c r="G277" t="s" s="2483">
+        <v>15</v>
+      </c>
+      <c r="H277" t="s" s="2484">
+        <v>14</v>
+      </c>
+      <c r="I277" t="s" s="2485">
+        <v>16</v>
+      </c>
+      <c r="J277" t="s" s="2486">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="478">
   <si>
     <t>App</t>
   </si>
@@ -1274,6 +1274,180 @@
   </si>
   <si>
     <t>10.12.2025:14:25</t>
+  </si>
+  <si>
+    <t>11.12.2025:11:04</t>
+  </si>
+  <si>
+    <t>11.12.2025:11:08</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1</t>
+  </si>
+  <si>
+    <t>11.12.2025:11:36</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_11_36.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:11:38</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_11_38.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:11:52</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_11_52.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:11:55</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_11_55.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:03</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:06</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:21</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_12_21.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:22</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_12_22.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:24</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_12_24.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:33</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_12_33.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:34</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_12_34.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:35</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_12_35.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:36</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_12_36.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:43</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_12_43.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:55</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_12_55.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:59</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:00</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:03</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_13_03.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:13:07</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_11_12_2025_13_07.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:19:08</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_Returning_To_Default_Name_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:20:00</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_Returning_To_Default_Name_[WEB]_11_12_2025_20_00.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:20:01</t>
+  </si>
+  <si>
+    <t>11.12.2025:20:02</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_Returning_To_Default_Name_[WEB]_11_12_2025_20_02.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:20:07</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_Returning_To_Default_Name_[WEB]_11_12_2025_20_07.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:20:11</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_Returning_To_Default_Name_[WEB]_11_12_2025_20_11.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:20:12</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:20:29</t>
+  </si>
+  <si>
+    <t>11.12.2025:20:32</t>
+  </si>
+  <si>
+    <t>11.12.2025:20:33</t>
+  </si>
+  <si>
+    <t>11.12.2025:22:03</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_[WEB]_Invalid</t>
+  </si>
+  <si>
+    <t>11.12.2025:22:04</t>
+  </si>
+  <si>
+    <t>11.12.2025:22:06</t>
+  </si>
+  <si>
+    <t>11.12.2025:22:11</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +2103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2280">
+  <cellXfs count="2622">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4216,6 +4390,348 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5384,7 +5900,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD254"/>
+  <dimension ref="A1:XFD292"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -29149,6 +29665,1108 @@
         <v>53</v>
       </c>
     </row>
+    <row r="255">
+      <c r="B255" t="s" s="2280">
+        <v>393</v>
+      </c>
+      <c r="C255" t="s" s="2281">
+        <v>24</v>
+      </c>
+      <c r="D255" t="s" s="2282">
+        <v>420</v>
+      </c>
+      <c r="E255" t="s" s="2283">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s" s="2284">
+        <v>14</v>
+      </c>
+      <c r="G255" t="s" s="2285">
+        <v>40</v>
+      </c>
+      <c r="H255" t="s" s="2286">
+        <v>14</v>
+      </c>
+      <c r="I255" t="s" s="2287">
+        <v>16</v>
+      </c>
+      <c r="J255" t="s" s="2288">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="s" s="2289">
+        <v>393</v>
+      </c>
+      <c r="C256" t="s" s="2290">
+        <v>24</v>
+      </c>
+      <c r="D256" t="s" s="2291">
+        <v>421</v>
+      </c>
+      <c r="E256" t="s" s="2292">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s" s="2293">
+        <v>14</v>
+      </c>
+      <c r="G256" t="s" s="2294">
+        <v>40</v>
+      </c>
+      <c r="H256" t="s" s="2295">
+        <v>14</v>
+      </c>
+      <c r="I256" t="s" s="2296">
+        <v>16</v>
+      </c>
+      <c r="J256" t="s" s="2297">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="s" s="2298">
+        <v>422</v>
+      </c>
+      <c r="C257" t="s" s="2299">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="2300">
+        <v>423</v>
+      </c>
+      <c r="E257" t="s" s="2301">
+        <v>13</v>
+      </c>
+      <c r="F257" t="s" s="2302">
+        <v>14</v>
+      </c>
+      <c r="G257" t="s" s="2303">
+        <v>40</v>
+      </c>
+      <c r="H257" t="s" s="2304">
+        <v>14</v>
+      </c>
+      <c r="I257" t="s" s="2305">
+        <v>16</v>
+      </c>
+      <c r="J257" t="s" s="2306">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="s" s="2307">
+        <v>422</v>
+      </c>
+      <c r="C258" t="s" s="2308">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="2309">
+        <v>425</v>
+      </c>
+      <c r="E258" t="s" s="2310">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s" s="2311">
+        <v>14</v>
+      </c>
+      <c r="G258" t="s" s="2312">
+        <v>40</v>
+      </c>
+      <c r="H258" t="s" s="2313">
+        <v>14</v>
+      </c>
+      <c r="I258" t="s" s="2314">
+        <v>16</v>
+      </c>
+      <c r="J258" t="s" s="2315">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="s" s="2316">
+        <v>422</v>
+      </c>
+      <c r="C259" t="s" s="2317">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="2318">
+        <v>427</v>
+      </c>
+      <c r="E259" t="s" s="2319">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s" s="2320">
+        <v>14</v>
+      </c>
+      <c r="G259" t="s" s="2321">
+        <v>40</v>
+      </c>
+      <c r="H259" t="s" s="2322">
+        <v>14</v>
+      </c>
+      <c r="I259" t="s" s="2323">
+        <v>16</v>
+      </c>
+      <c r="J259" t="s" s="2324">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="s" s="2325">
+        <v>422</v>
+      </c>
+      <c r="C260" t="s" s="2326">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="2327">
+        <v>429</v>
+      </c>
+      <c r="E260" t="s" s="2328">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s" s="2329">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s" s="2330">
+        <v>40</v>
+      </c>
+      <c r="H260" t="s" s="2331">
+        <v>14</v>
+      </c>
+      <c r="I260" t="s" s="2332">
+        <v>16</v>
+      </c>
+      <c r="J260" t="s" s="2333">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="s" s="2334">
+        <v>422</v>
+      </c>
+      <c r="C261" t="s" s="2335">
+        <v>24</v>
+      </c>
+      <c r="D261" t="s" s="2336">
+        <v>431</v>
+      </c>
+      <c r="E261" t="s" s="2337">
+        <v>13</v>
+      </c>
+      <c r="F261" t="s" s="2338">
+        <v>14</v>
+      </c>
+      <c r="G261" t="s" s="2339">
+        <v>40</v>
+      </c>
+      <c r="H261" t="s" s="2340">
+        <v>14</v>
+      </c>
+      <c r="I261" t="s" s="2341">
+        <v>16</v>
+      </c>
+      <c r="J261" t="s" s="2342">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="s" s="2343">
+        <v>422</v>
+      </c>
+      <c r="C262" t="s" s="2344">
+        <v>24</v>
+      </c>
+      <c r="D262" t="s" s="2345">
+        <v>432</v>
+      </c>
+      <c r="E262" t="s" s="2346">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s" s="2347">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s" s="2348">
+        <v>40</v>
+      </c>
+      <c r="H262" t="s" s="2349">
+        <v>14</v>
+      </c>
+      <c r="I262" t="s" s="2350">
+        <v>16</v>
+      </c>
+      <c r="J262" t="s" s="2351">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="s" s="2352">
+        <v>422</v>
+      </c>
+      <c r="C263" t="s" s="2353">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="2354">
+        <v>433</v>
+      </c>
+      <c r="E263" t="s" s="2355">
+        <v>13</v>
+      </c>
+      <c r="F263" t="s" s="2356">
+        <v>14</v>
+      </c>
+      <c r="G263" t="s" s="2357">
+        <v>40</v>
+      </c>
+      <c r="H263" t="s" s="2358">
+        <v>14</v>
+      </c>
+      <c r="I263" t="s" s="2359">
+        <v>16</v>
+      </c>
+      <c r="J263" t="s" s="2360">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="s" s="2361">
+        <v>422</v>
+      </c>
+      <c r="C264" t="s" s="2362">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="2363">
+        <v>435</v>
+      </c>
+      <c r="E264" t="s" s="2364">
+        <v>13</v>
+      </c>
+      <c r="F264" t="s" s="2365">
+        <v>14</v>
+      </c>
+      <c r="G264" t="s" s="2366">
+        <v>40</v>
+      </c>
+      <c r="H264" t="s" s="2367">
+        <v>14</v>
+      </c>
+      <c r="I264" t="s" s="2368">
+        <v>16</v>
+      </c>
+      <c r="J264" t="s" s="2369">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="s" s="2370">
+        <v>422</v>
+      </c>
+      <c r="C265" t="s" s="2371">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="2372">
+        <v>437</v>
+      </c>
+      <c r="E265" t="s" s="2373">
+        <v>13</v>
+      </c>
+      <c r="F265" t="s" s="2374">
+        <v>14</v>
+      </c>
+      <c r="G265" t="s" s="2375">
+        <v>40</v>
+      </c>
+      <c r="H265" t="s" s="2376">
+        <v>14</v>
+      </c>
+      <c r="I265" t="s" s="2377">
+        <v>16</v>
+      </c>
+      <c r="J265" t="s" s="2378">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="s" s="2379">
+        <v>422</v>
+      </c>
+      <c r="C266" t="s" s="2380">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="2381">
+        <v>439</v>
+      </c>
+      <c r="E266" t="s" s="2382">
+        <v>13</v>
+      </c>
+      <c r="F266" t="s" s="2383">
+        <v>14</v>
+      </c>
+      <c r="G266" t="s" s="2384">
+        <v>40</v>
+      </c>
+      <c r="H266" t="s" s="2385">
+        <v>14</v>
+      </c>
+      <c r="I266" t="s" s="2386">
+        <v>16</v>
+      </c>
+      <c r="J266" t="s" s="2387">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="s" s="2388">
+        <v>422</v>
+      </c>
+      <c r="C267" t="s" s="2389">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="2390">
+        <v>441</v>
+      </c>
+      <c r="E267" t="s" s="2391">
+        <v>13</v>
+      </c>
+      <c r="F267" t="s" s="2392">
+        <v>14</v>
+      </c>
+      <c r="G267" t="s" s="2393">
+        <v>40</v>
+      </c>
+      <c r="H267" t="s" s="2394">
+        <v>14</v>
+      </c>
+      <c r="I267" t="s" s="2395">
+        <v>16</v>
+      </c>
+      <c r="J267" t="s" s="2396">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="s" s="2397">
+        <v>422</v>
+      </c>
+      <c r="C268" t="s" s="2398">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="2399">
+        <v>443</v>
+      </c>
+      <c r="E268" t="s" s="2400">
+        <v>13</v>
+      </c>
+      <c r="F268" t="s" s="2401">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s" s="2402">
+        <v>40</v>
+      </c>
+      <c r="H268" t="s" s="2403">
+        <v>14</v>
+      </c>
+      <c r="I268" t="s" s="2404">
+        <v>16</v>
+      </c>
+      <c r="J268" t="s" s="2405">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="s" s="2406">
+        <v>422</v>
+      </c>
+      <c r="C269" t="s" s="2407">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="2408">
+        <v>445</v>
+      </c>
+      <c r="E269" t="s" s="2409">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s" s="2410">
+        <v>14</v>
+      </c>
+      <c r="G269" t="s" s="2411">
+        <v>40</v>
+      </c>
+      <c r="H269" t="s" s="2412">
+        <v>14</v>
+      </c>
+      <c r="I269" t="s" s="2413">
+        <v>16</v>
+      </c>
+      <c r="J269" t="s" s="2414">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="s" s="2415">
+        <v>422</v>
+      </c>
+      <c r="C270" t="s" s="2416">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="2417">
+        <v>447</v>
+      </c>
+      <c r="E270" t="s" s="2418">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s" s="2419">
+        <v>14</v>
+      </c>
+      <c r="G270" t="s" s="2420">
+        <v>40</v>
+      </c>
+      <c r="H270" t="s" s="2421">
+        <v>14</v>
+      </c>
+      <c r="I270" t="s" s="2422">
+        <v>16</v>
+      </c>
+      <c r="J270" t="s" s="2423">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="s" s="2424">
+        <v>422</v>
+      </c>
+      <c r="C271" t="s" s="2425">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="2426">
+        <v>449</v>
+      </c>
+      <c r="E271" t="s" s="2427">
+        <v>13</v>
+      </c>
+      <c r="F271" t="s" s="2428">
+        <v>14</v>
+      </c>
+      <c r="G271" t="s" s="2429">
+        <v>40</v>
+      </c>
+      <c r="H271" t="s" s="2430">
+        <v>14</v>
+      </c>
+      <c r="I271" t="s" s="2431">
+        <v>16</v>
+      </c>
+      <c r="J271" t="s" s="2432">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="s" s="2433">
+        <v>422</v>
+      </c>
+      <c r="C272" t="s" s="2434">
+        <v>24</v>
+      </c>
+      <c r="D272" t="s" s="2435">
+        <v>451</v>
+      </c>
+      <c r="E272" t="s" s="2436">
+        <v>13</v>
+      </c>
+      <c r="F272" t="s" s="2437">
+        <v>14</v>
+      </c>
+      <c r="G272" t="s" s="2438">
+        <v>40</v>
+      </c>
+      <c r="H272" t="s" s="2439">
+        <v>14</v>
+      </c>
+      <c r="I272" t="s" s="2440">
+        <v>16</v>
+      </c>
+      <c r="J272" t="s" s="2441">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="s" s="2442">
+        <v>422</v>
+      </c>
+      <c r="C273" t="s" s="2443">
+        <v>24</v>
+      </c>
+      <c r="D273" t="s" s="2444">
+        <v>452</v>
+      </c>
+      <c r="E273" t="s" s="2445">
+        <v>13</v>
+      </c>
+      <c r="F273" t="s" s="2446">
+        <v>14</v>
+      </c>
+      <c r="G273" t="s" s="2447">
+        <v>40</v>
+      </c>
+      <c r="H273" t="s" s="2448">
+        <v>14</v>
+      </c>
+      <c r="I273" t="s" s="2449">
+        <v>16</v>
+      </c>
+      <c r="J273" t="s" s="2450">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="s" s="2451">
+        <v>422</v>
+      </c>
+      <c r="C274" t="s" s="2452">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="2453">
+        <v>453</v>
+      </c>
+      <c r="E274" t="s" s="2454">
+        <v>13</v>
+      </c>
+      <c r="F274" t="s" s="2455">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s" s="2456">
+        <v>40</v>
+      </c>
+      <c r="H274" t="s" s="2457">
+        <v>14</v>
+      </c>
+      <c r="I274" t="s" s="2458">
+        <v>16</v>
+      </c>
+      <c r="J274" t="s" s="2459">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="s" s="2460">
+        <v>422</v>
+      </c>
+      <c r="C275" t="s" s="2461">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="2462">
+        <v>455</v>
+      </c>
+      <c r="E275" t="s" s="2463">
+        <v>13</v>
+      </c>
+      <c r="F275" t="s" s="2464">
+        <v>14</v>
+      </c>
+      <c r="G275" t="s" s="2465">
+        <v>40</v>
+      </c>
+      <c r="H275" t="s" s="2466">
+        <v>14</v>
+      </c>
+      <c r="I275" t="s" s="2467">
+        <v>16</v>
+      </c>
+      <c r="J275" t="s" s="2468">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="s" s="2469">
+        <v>422</v>
+      </c>
+      <c r="C276" t="s" s="2470">
+        <v>24</v>
+      </c>
+      <c r="D276" t="s" s="2471">
+        <v>455</v>
+      </c>
+      <c r="E276" t="s" s="2472">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s" s="2473">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s" s="2474">
+        <v>40</v>
+      </c>
+      <c r="H276" t="s" s="2475">
+        <v>14</v>
+      </c>
+      <c r="I276" t="s" s="2476">
+        <v>16</v>
+      </c>
+      <c r="J276" t="s" s="2477">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="s" s="2478">
+        <v>422</v>
+      </c>
+      <c r="C277" t="s" s="2479">
+        <v>24</v>
+      </c>
+      <c r="D277" t="s" s="2480">
+        <v>455</v>
+      </c>
+      <c r="E277" t="s" s="2481">
+        <v>13</v>
+      </c>
+      <c r="F277" t="s" s="2482">
+        <v>14</v>
+      </c>
+      <c r="G277" t="s" s="2483">
+        <v>40</v>
+      </c>
+      <c r="H277" t="s" s="2484">
+        <v>14</v>
+      </c>
+      <c r="I277" t="s" s="2485">
+        <v>16</v>
+      </c>
+      <c r="J277" t="s" s="2486">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="s" s="2487">
+        <v>422</v>
+      </c>
+      <c r="C278" t="s" s="2488">
+        <v>24</v>
+      </c>
+      <c r="D278" t="s" s="2489">
+        <v>457</v>
+      </c>
+      <c r="E278" t="s" s="2490">
+        <v>13</v>
+      </c>
+      <c r="F278" t="s" s="2491">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s" s="2492">
+        <v>40</v>
+      </c>
+      <c r="H278" t="s" s="2493">
+        <v>14</v>
+      </c>
+      <c r="I278" t="s" s="2494">
+        <v>16</v>
+      </c>
+      <c r="J278" t="s" s="2495">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="s" s="2496">
+        <v>458</v>
+      </c>
+      <c r="C279" t="s" s="2497">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="2498">
+        <v>459</v>
+      </c>
+      <c r="E279" t="s" s="2499">
+        <v>13</v>
+      </c>
+      <c r="F279" t="s" s="2500">
+        <v>14</v>
+      </c>
+      <c r="G279" t="s" s="2501">
+        <v>40</v>
+      </c>
+      <c r="H279" t="s" s="2502">
+        <v>14</v>
+      </c>
+      <c r="I279" t="s" s="2503">
+        <v>16</v>
+      </c>
+      <c r="J279" t="s" s="2504">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="s" s="2505">
+        <v>458</v>
+      </c>
+      <c r="C280" t="s" s="2506">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="2507">
+        <v>461</v>
+      </c>
+      <c r="E280" t="s" s="2508">
+        <v>13</v>
+      </c>
+      <c r="F280" t="s" s="2509">
+        <v>14</v>
+      </c>
+      <c r="G280" t="s" s="2510">
+        <v>40</v>
+      </c>
+      <c r="H280" t="s" s="2511">
+        <v>14</v>
+      </c>
+      <c r="I280" t="s" s="2512">
+        <v>16</v>
+      </c>
+      <c r="J280" t="s" s="2513">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="s" s="2514">
+        <v>458</v>
+      </c>
+      <c r="C281" t="s" s="2515">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="2516">
+        <v>462</v>
+      </c>
+      <c r="E281" t="s" s="2517">
+        <v>13</v>
+      </c>
+      <c r="F281" t="s" s="2518">
+        <v>14</v>
+      </c>
+      <c r="G281" t="s" s="2519">
+        <v>40</v>
+      </c>
+      <c r="H281" t="s" s="2520">
+        <v>14</v>
+      </c>
+      <c r="I281" t="s" s="2521">
+        <v>16</v>
+      </c>
+      <c r="J281" t="s" s="2522">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="s" s="2523">
+        <v>458</v>
+      </c>
+      <c r="C282" t="s" s="2524">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="2525">
+        <v>464</v>
+      </c>
+      <c r="E282" t="s" s="2526">
+        <v>13</v>
+      </c>
+      <c r="F282" t="s" s="2527">
+        <v>14</v>
+      </c>
+      <c r="G282" t="s" s="2528">
+        <v>40</v>
+      </c>
+      <c r="H282" t="s" s="2529">
+        <v>14</v>
+      </c>
+      <c r="I282" t="s" s="2530">
+        <v>16</v>
+      </c>
+      <c r="J282" t="s" s="2531">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="s" s="2532">
+        <v>458</v>
+      </c>
+      <c r="C283" t="s" s="2533">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="2534">
+        <v>466</v>
+      </c>
+      <c r="E283" t="s" s="2535">
+        <v>13</v>
+      </c>
+      <c r="F283" t="s" s="2536">
+        <v>14</v>
+      </c>
+      <c r="G283" t="s" s="2537">
+        <v>40</v>
+      </c>
+      <c r="H283" t="s" s="2538">
+        <v>14</v>
+      </c>
+      <c r="I283" t="s" s="2539">
+        <v>16</v>
+      </c>
+      <c r="J283" t="s" s="2540">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="s" s="2541">
+        <v>458</v>
+      </c>
+      <c r="C284" t="s" s="2542">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="2543">
+        <v>466</v>
+      </c>
+      <c r="E284" t="s" s="2544">
+        <v>13</v>
+      </c>
+      <c r="F284" t="s" s="2545">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s" s="2546">
+        <v>40</v>
+      </c>
+      <c r="H284" t="s" s="2547">
+        <v>14</v>
+      </c>
+      <c r="I284" t="s" s="2548">
+        <v>16</v>
+      </c>
+      <c r="J284" t="s" s="2549">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="s" s="2550">
+        <v>458</v>
+      </c>
+      <c r="C285" t="s" s="2551">
+        <v>24</v>
+      </c>
+      <c r="D285" t="s" s="2552">
+        <v>468</v>
+      </c>
+      <c r="E285" t="s" s="2553">
+        <v>13</v>
+      </c>
+      <c r="F285" t="s" s="2554">
+        <v>14</v>
+      </c>
+      <c r="G285" t="s" s="2555">
+        <v>40</v>
+      </c>
+      <c r="H285" t="s" s="2556">
+        <v>14</v>
+      </c>
+      <c r="I285" t="s" s="2557">
+        <v>16</v>
+      </c>
+      <c r="J285" t="s" s="2558">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="s" s="2559">
+        <v>469</v>
+      </c>
+      <c r="C286" t="s" s="2560">
+        <v>24</v>
+      </c>
+      <c r="D286" t="s" s="2561">
+        <v>470</v>
+      </c>
+      <c r="E286" t="s" s="2562">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s" s="2563">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s" s="2564">
+        <v>40</v>
+      </c>
+      <c r="H286" t="s" s="2565">
+        <v>14</v>
+      </c>
+      <c r="I286" t="s" s="2566">
+        <v>16</v>
+      </c>
+      <c r="J286" t="s" s="2567">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="s" s="2568">
+        <v>469</v>
+      </c>
+      <c r="C287" t="s" s="2569">
+        <v>24</v>
+      </c>
+      <c r="D287" t="s" s="2570">
+        <v>471</v>
+      </c>
+      <c r="E287" t="s" s="2571">
+        <v>13</v>
+      </c>
+      <c r="F287" t="s" s="2572">
+        <v>14</v>
+      </c>
+      <c r="G287" t="s" s="2573">
+        <v>40</v>
+      </c>
+      <c r="H287" t="s" s="2574">
+        <v>14</v>
+      </c>
+      <c r="I287" t="s" s="2575">
+        <v>16</v>
+      </c>
+      <c r="J287" t="s" s="2576">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="s" s="2577">
+        <v>389</v>
+      </c>
+      <c r="C288" t="s" s="2578">
+        <v>24</v>
+      </c>
+      <c r="D288" t="s" s="2579">
+        <v>472</v>
+      </c>
+      <c r="E288" t="s" s="2580">
+        <v>13</v>
+      </c>
+      <c r="F288" t="s" s="2581">
+        <v>14</v>
+      </c>
+      <c r="G288" t="s" s="2582">
+        <v>40</v>
+      </c>
+      <c r="H288" t="s" s="2583">
+        <v>14</v>
+      </c>
+      <c r="I288" t="s" s="2584">
+        <v>16</v>
+      </c>
+      <c r="J288" t="s" s="2585">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="s" s="2586">
+        <v>469</v>
+      </c>
+      <c r="C289" t="s" s="2587">
+        <v>24</v>
+      </c>
+      <c r="D289" t="s" s="2588">
+        <v>473</v>
+      </c>
+      <c r="E289" t="s" s="2589">
+        <v>13</v>
+      </c>
+      <c r="F289" t="s" s="2590">
+        <v>14</v>
+      </c>
+      <c r="G289" t="s" s="2591">
+        <v>40</v>
+      </c>
+      <c r="H289" t="s" s="2592">
+        <v>14</v>
+      </c>
+      <c r="I289" t="s" s="2593">
+        <v>16</v>
+      </c>
+      <c r="J289" t="s" s="2594">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="s" s="2595">
+        <v>474</v>
+      </c>
+      <c r="C290" t="s" s="2596">
+        <v>24</v>
+      </c>
+      <c r="D290" t="s" s="2597">
+        <v>475</v>
+      </c>
+      <c r="E290" t="s" s="2598">
+        <v>13</v>
+      </c>
+      <c r="F290" t="s" s="2599">
+        <v>14</v>
+      </c>
+      <c r="G290" t="s" s="2600">
+        <v>40</v>
+      </c>
+      <c r="H290" t="s" s="2601">
+        <v>14</v>
+      </c>
+      <c r="I290" t="s" s="2602">
+        <v>16</v>
+      </c>
+      <c r="J290" t="s" s="2603">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="s" s="2604">
+        <v>268</v>
+      </c>
+      <c r="C291" t="s" s="2605">
+        <v>24</v>
+      </c>
+      <c r="D291" t="s" s="2606">
+        <v>476</v>
+      </c>
+      <c r="E291" t="s" s="2607">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s" s="2608">
+        <v>14</v>
+      </c>
+      <c r="G291" t="s" s="2609">
+        <v>40</v>
+      </c>
+      <c r="H291" t="s" s="2610">
+        <v>14</v>
+      </c>
+      <c r="I291" t="s" s="2611">
+        <v>16</v>
+      </c>
+      <c r="J291" t="s" s="2612">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="s" s="2613">
+        <v>268</v>
+      </c>
+      <c r="C292" t="s" s="2614">
+        <v>24</v>
+      </c>
+      <c r="D292" t="s" s="2615">
+        <v>477</v>
+      </c>
+      <c r="E292" t="s" s="2616">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s" s="2617">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s" s="2618">
+        <v>40</v>
+      </c>
+      <c r="H292" t="s" s="2619">
+        <v>14</v>
+      </c>
+      <c r="I292" t="s" s="2620">
+        <v>16</v>
+      </c>
+      <c r="J292" t="s" s="2621">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="426">
   <si>
     <t>App</t>
   </si>
@@ -1274,6 +1274,24 @@
   </si>
   <si>
     <t>10.12.2025:14:25</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:11:55</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account_[WEB]_11_12_2025_11_55.jpg</t>
+  </si>
+  <si>
+    <t>11.12.2025:11:56</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account-Removal_of_the_favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:12:26</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2280">
+  <cellXfs count="2307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4216,6 +4234,33 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5384,7 +5429,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD254"/>
+  <dimension ref="A1:XFD257"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -29149,6 +29194,93 @@
         <v>53</v>
       </c>
     </row>
+    <row r="255">
+      <c r="B255" t="s" s="2280">
+        <v>420</v>
+      </c>
+      <c r="C255" t="s" s="2281">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="2282">
+        <v>421</v>
+      </c>
+      <c r="E255" t="s" s="2283">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s" s="2284">
+        <v>14</v>
+      </c>
+      <c r="G255" t="s" s="2285">
+        <v>128</v>
+      </c>
+      <c r="H255" t="s" s="2286">
+        <v>14</v>
+      </c>
+      <c r="I255" t="s" s="2287">
+        <v>16</v>
+      </c>
+      <c r="J255" t="s" s="2288">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="s" s="2289">
+        <v>420</v>
+      </c>
+      <c r="C256" t="s" s="2290">
+        <v>24</v>
+      </c>
+      <c r="D256" t="s" s="2291">
+        <v>423</v>
+      </c>
+      <c r="E256" t="s" s="2292">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s" s="2293">
+        <v>14</v>
+      </c>
+      <c r="G256" t="s" s="2294">
+        <v>128</v>
+      </c>
+      <c r="H256" t="s" s="2295">
+        <v>14</v>
+      </c>
+      <c r="I256" t="s" s="2296">
+        <v>16</v>
+      </c>
+      <c r="J256" t="s" s="2297">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="s" s="2298">
+        <v>424</v>
+      </c>
+      <c r="C257" t="s" s="2299">
+        <v>24</v>
+      </c>
+      <c r="D257" t="s" s="2300">
+        <v>425</v>
+      </c>
+      <c r="E257" t="s" s="2301">
+        <v>13</v>
+      </c>
+      <c r="F257" t="s" s="2302">
+        <v>14</v>
+      </c>
+      <c r="G257" t="s" s="2303">
+        <v>128</v>
+      </c>
+      <c r="H257" t="s" s="2304">
+        <v>14</v>
+      </c>
+      <c r="I257" t="s" s="2305">
+        <v>16</v>
+      </c>
+      <c r="J257" t="s" s="2306">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="493">
   <si>
     <t>App</t>
   </si>
@@ -1448,6 +1448,51 @@
   </si>
   <si>
     <t>11.12.2025:22:11</t>
+  </si>
+  <si>
+    <t>Product_Summary-Current_Accounts_List_[WEB]</t>
+  </si>
+  <si>
+    <t>12.12.2025:11:16</t>
+  </si>
+  <si>
+    <t>12.12.2025:11:23</t>
+  </si>
+  <si>
+    <t>12.12.2025:11:27</t>
+  </si>
+  <si>
+    <t>Product_Summary-Current_Accounts_List_[WEB]_12_12_2025_11_27.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:11:28</t>
+  </si>
+  <si>
+    <t>12.12.2025:11:58</t>
+  </si>
+  <si>
+    <t>Product_Summary-Current_Accounts_List_[WEB]_12_12_2025_11_58.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:02</t>
+  </si>
+  <si>
+    <t>Product_Summary-Current_Accounts_List_[WEB]_12_12_2025_12_02.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:04</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:19</t>
+  </si>
+  <si>
+    <t>Product_Summary-Current_Accounts_List_[WEB]_12_12_2025_13_19.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:29</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:34</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2622">
+  <cellXfs count="2712">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4714,6 +4759,96 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -5900,7 +6035,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD292"/>
+  <dimension ref="A1:XFD302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -30767,6 +30902,296 @@
         <v>14</v>
       </c>
     </row>
+    <row r="293">
+      <c r="B293" t="s" s="2622">
+        <v>478</v>
+      </c>
+      <c r="C293" t="s" s="2623">
+        <v>24</v>
+      </c>
+      <c r="D293" t="s" s="2624">
+        <v>479</v>
+      </c>
+      <c r="E293" t="s" s="2625">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s" s="2626">
+        <v>14</v>
+      </c>
+      <c r="G293" t="s" s="2627">
+        <v>128</v>
+      </c>
+      <c r="H293" t="s" s="2628">
+        <v>14</v>
+      </c>
+      <c r="I293" t="s" s="2629">
+        <v>16</v>
+      </c>
+      <c r="J293" t="s" s="2630">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="s" s="2631">
+        <v>478</v>
+      </c>
+      <c r="C294" t="s" s="2632">
+        <v>24</v>
+      </c>
+      <c r="D294" t="s" s="2633">
+        <v>480</v>
+      </c>
+      <c r="E294" t="s" s="2634">
+        <v>13</v>
+      </c>
+      <c r="F294" t="s" s="2635">
+        <v>14</v>
+      </c>
+      <c r="G294" t="s" s="2636">
+        <v>128</v>
+      </c>
+      <c r="H294" t="s" s="2637">
+        <v>14</v>
+      </c>
+      <c r="I294" t="s" s="2638">
+        <v>16</v>
+      </c>
+      <c r="J294" t="s" s="2639">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="s" s="2640">
+        <v>478</v>
+      </c>
+      <c r="C295" t="s" s="2641">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="2642">
+        <v>481</v>
+      </c>
+      <c r="E295" t="s" s="2643">
+        <v>13</v>
+      </c>
+      <c r="F295" t="s" s="2644">
+        <v>14</v>
+      </c>
+      <c r="G295" t="s" s="2645">
+        <v>128</v>
+      </c>
+      <c r="H295" t="s" s="2646">
+        <v>14</v>
+      </c>
+      <c r="I295" t="s" s="2647">
+        <v>16</v>
+      </c>
+      <c r="J295" t="s" s="2648">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="s" s="2649">
+        <v>478</v>
+      </c>
+      <c r="C296" t="s" s="2650">
+        <v>24</v>
+      </c>
+      <c r="D296" t="s" s="2651">
+        <v>483</v>
+      </c>
+      <c r="E296" t="s" s="2652">
+        <v>13</v>
+      </c>
+      <c r="F296" t="s" s="2653">
+        <v>14</v>
+      </c>
+      <c r="G296" t="s" s="2654">
+        <v>128</v>
+      </c>
+      <c r="H296" t="s" s="2655">
+        <v>14</v>
+      </c>
+      <c r="I296" t="s" s="2656">
+        <v>16</v>
+      </c>
+      <c r="J296" t="s" s="2657">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="s" s="2658">
+        <v>478</v>
+      </c>
+      <c r="C297" t="s" s="2659">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="2660">
+        <v>484</v>
+      </c>
+      <c r="E297" t="s" s="2661">
+        <v>13</v>
+      </c>
+      <c r="F297" t="s" s="2662">
+        <v>14</v>
+      </c>
+      <c r="G297" t="s" s="2663">
+        <v>128</v>
+      </c>
+      <c r="H297" t="s" s="2664">
+        <v>14</v>
+      </c>
+      <c r="I297" t="s" s="2665">
+        <v>16</v>
+      </c>
+      <c r="J297" t="s" s="2666">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="s" s="2667">
+        <v>478</v>
+      </c>
+      <c r="C298" t="s" s="2668">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="2669">
+        <v>486</v>
+      </c>
+      <c r="E298" t="s" s="2670">
+        <v>13</v>
+      </c>
+      <c r="F298" t="s" s="2671">
+        <v>14</v>
+      </c>
+      <c r="G298" t="s" s="2672">
+        <v>128</v>
+      </c>
+      <c r="H298" t="s" s="2673">
+        <v>14</v>
+      </c>
+      <c r="I298" t="s" s="2674">
+        <v>16</v>
+      </c>
+      <c r="J298" t="s" s="2675">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="s" s="2676">
+        <v>478</v>
+      </c>
+      <c r="C299" t="s" s="2677">
+        <v>24</v>
+      </c>
+      <c r="D299" t="s" s="2678">
+        <v>488</v>
+      </c>
+      <c r="E299" t="s" s="2679">
+        <v>13</v>
+      </c>
+      <c r="F299" t="s" s="2680">
+        <v>14</v>
+      </c>
+      <c r="G299" t="s" s="2681">
+        <v>128</v>
+      </c>
+      <c r="H299" t="s" s="2682">
+        <v>14</v>
+      </c>
+      <c r="I299" t="s" s="2683">
+        <v>16</v>
+      </c>
+      <c r="J299" t="s" s="2684">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="s" s="2685">
+        <v>478</v>
+      </c>
+      <c r="C300" t="s" s="2686">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="2687">
+        <v>489</v>
+      </c>
+      <c r="E300" t="s" s="2688">
+        <v>13</v>
+      </c>
+      <c r="F300" t="s" s="2689">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s" s="2690">
+        <v>128</v>
+      </c>
+      <c r="H300" t="s" s="2691">
+        <v>14</v>
+      </c>
+      <c r="I300" t="s" s="2692">
+        <v>16</v>
+      </c>
+      <c r="J300" t="s" s="2693">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="s" s="2694">
+        <v>478</v>
+      </c>
+      <c r="C301" t="s" s="2695">
+        <v>24</v>
+      </c>
+      <c r="D301" t="s" s="2696">
+        <v>491</v>
+      </c>
+      <c r="E301" t="s" s="2697">
+        <v>13</v>
+      </c>
+      <c r="F301" t="s" s="2698">
+        <v>14</v>
+      </c>
+      <c r="G301" t="s" s="2699">
+        <v>128</v>
+      </c>
+      <c r="H301" t="s" s="2700">
+        <v>14</v>
+      </c>
+      <c r="I301" t="s" s="2701">
+        <v>16</v>
+      </c>
+      <c r="J301" t="s" s="2702">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="s" s="2703">
+        <v>478</v>
+      </c>
+      <c r="C302" t="s" s="2704">
+        <v>24</v>
+      </c>
+      <c r="D302" t="s" s="2705">
+        <v>492</v>
+      </c>
+      <c r="E302" t="s" s="2706">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s" s="2707">
+        <v>14</v>
+      </c>
+      <c r="G302" t="s" s="2708">
+        <v>128</v>
+      </c>
+      <c r="H302" t="s" s="2709">
+        <v>14</v>
+      </c>
+      <c r="I302" t="s" s="2710">
+        <v>16</v>
+      </c>
+      <c r="J302" t="s" s="2711">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="495">
   <si>
     <t>App</t>
   </si>
@@ -1370,6 +1370,135 @@
   </si>
   <si>
     <t>11.12.2025:13:20</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]</t>
+  </si>
+  <si>
+    <t>11.12.2025:16:06</t>
+  </si>
+  <si>
+    <t>12.12.2025:09:05</t>
+  </si>
+  <si>
+    <t>12.12.2025:11:35</t>
+  </si>
+  <si>
+    <t>12.12.2025:11:36</t>
+  </si>
+  <si>
+    <t>12.12.2025:11:42</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_11_42.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:11:59</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:04</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:08</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:11</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:24</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_12_24.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:32</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:26</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_13_26.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:30</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_13_30.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:35</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_13_35.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:40</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_13_40.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:03</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_14_03.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:04</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:08</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:13</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_14_13.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:15</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_14_15.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:25</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:26</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:28</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_14_28.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:29</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:32</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:36</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:49</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:53</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:55</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_14_55.jpg</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques-Filter_[WEB]</t>
+  </si>
+  <si>
+    <t>12.12.2025:14:57</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2487">
+  <cellXfs count="2775">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4510,6 +4639,294 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -5687,7 +6104,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD277"/>
+  <dimension ref="A1:XFD309"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -30119,6 +30536,934 @@
         <v>14</v>
       </c>
     </row>
+    <row r="278">
+      <c r="B278" t="s" s="2487">
+        <v>452</v>
+      </c>
+      <c r="C278" t="s" s="2488">
+        <v>24</v>
+      </c>
+      <c r="D278" t="s" s="2489">
+        <v>453</v>
+      </c>
+      <c r="E278" t="s" s="2490">
+        <v>13</v>
+      </c>
+      <c r="F278" t="s" s="2491">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s" s="2492">
+        <v>15</v>
+      </c>
+      <c r="H278" t="s" s="2493">
+        <v>14</v>
+      </c>
+      <c r="I278" t="s" s="2494">
+        <v>16</v>
+      </c>
+      <c r="J278" t="s" s="2495">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="s" s="2496">
+        <v>452</v>
+      </c>
+      <c r="C279" t="s" s="2497">
+        <v>24</v>
+      </c>
+      <c r="D279" t="s" s="2498">
+        <v>454</v>
+      </c>
+      <c r="E279" t="s" s="2499">
+        <v>13</v>
+      </c>
+      <c r="F279" t="s" s="2500">
+        <v>14</v>
+      </c>
+      <c r="G279" t="s" s="2501">
+        <v>15</v>
+      </c>
+      <c r="H279" t="s" s="2502">
+        <v>14</v>
+      </c>
+      <c r="I279" t="s" s="2503">
+        <v>16</v>
+      </c>
+      <c r="J279" t="s" s="2504">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="s" s="2505">
+        <v>452</v>
+      </c>
+      <c r="C280" t="s" s="2506">
+        <v>24</v>
+      </c>
+      <c r="D280" t="s" s="2507">
+        <v>455</v>
+      </c>
+      <c r="E280" t="s" s="2508">
+        <v>13</v>
+      </c>
+      <c r="F280" t="s" s="2509">
+        <v>14</v>
+      </c>
+      <c r="G280" t="s" s="2510">
+        <v>15</v>
+      </c>
+      <c r="H280" t="s" s="2511">
+        <v>14</v>
+      </c>
+      <c r="I280" t="s" s="2512">
+        <v>16</v>
+      </c>
+      <c r="J280" t="s" s="2513">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="s" s="2514">
+        <v>452</v>
+      </c>
+      <c r="C281" t="s" s="2515">
+        <v>24</v>
+      </c>
+      <c r="D281" t="s" s="2516">
+        <v>456</v>
+      </c>
+      <c r="E281" t="s" s="2517">
+        <v>13</v>
+      </c>
+      <c r="F281" t="s" s="2518">
+        <v>14</v>
+      </c>
+      <c r="G281" t="s" s="2519">
+        <v>15</v>
+      </c>
+      <c r="H281" t="s" s="2520">
+        <v>14</v>
+      </c>
+      <c r="I281" t="s" s="2521">
+        <v>16</v>
+      </c>
+      <c r="J281" t="s" s="2522">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="s" s="2523">
+        <v>452</v>
+      </c>
+      <c r="C282" t="s" s="2524">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="2525">
+        <v>457</v>
+      </c>
+      <c r="E282" t="s" s="2526">
+        <v>13</v>
+      </c>
+      <c r="F282" t="s" s="2527">
+        <v>14</v>
+      </c>
+      <c r="G282" t="s" s="2528">
+        <v>15</v>
+      </c>
+      <c r="H282" t="s" s="2529">
+        <v>14</v>
+      </c>
+      <c r="I282" t="s" s="2530">
+        <v>16</v>
+      </c>
+      <c r="J282" t="s" s="2531">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="s" s="2532">
+        <v>452</v>
+      </c>
+      <c r="C283" t="s" s="2533">
+        <v>24</v>
+      </c>
+      <c r="D283" t="s" s="2534">
+        <v>459</v>
+      </c>
+      <c r="E283" t="s" s="2535">
+        <v>13</v>
+      </c>
+      <c r="F283" t="s" s="2536">
+        <v>14</v>
+      </c>
+      <c r="G283" t="s" s="2537">
+        <v>15</v>
+      </c>
+      <c r="H283" t="s" s="2538">
+        <v>14</v>
+      </c>
+      <c r="I283" t="s" s="2539">
+        <v>16</v>
+      </c>
+      <c r="J283" t="s" s="2540">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="s" s="2541">
+        <v>452</v>
+      </c>
+      <c r="C284" t="s" s="2542">
+        <v>24</v>
+      </c>
+      <c r="D284" t="s" s="2543">
+        <v>460</v>
+      </c>
+      <c r="E284" t="s" s="2544">
+        <v>13</v>
+      </c>
+      <c r="F284" t="s" s="2545">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s" s="2546">
+        <v>15</v>
+      </c>
+      <c r="H284" t="s" s="2547">
+        <v>14</v>
+      </c>
+      <c r="I284" t="s" s="2548">
+        <v>16</v>
+      </c>
+      <c r="J284" t="s" s="2549">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="s" s="2550">
+        <v>452</v>
+      </c>
+      <c r="C285" t="s" s="2551">
+        <v>24</v>
+      </c>
+      <c r="D285" t="s" s="2552">
+        <v>461</v>
+      </c>
+      <c r="E285" t="s" s="2553">
+        <v>13</v>
+      </c>
+      <c r="F285" t="s" s="2554">
+        <v>14</v>
+      </c>
+      <c r="G285" t="s" s="2555">
+        <v>15</v>
+      </c>
+      <c r="H285" t="s" s="2556">
+        <v>14</v>
+      </c>
+      <c r="I285" t="s" s="2557">
+        <v>16</v>
+      </c>
+      <c r="J285" t="s" s="2558">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="s" s="2559">
+        <v>452</v>
+      </c>
+      <c r="C286" t="s" s="2560">
+        <v>24</v>
+      </c>
+      <c r="D286" t="s" s="2561">
+        <v>462</v>
+      </c>
+      <c r="E286" t="s" s="2562">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s" s="2563">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s" s="2564">
+        <v>15</v>
+      </c>
+      <c r="H286" t="s" s="2565">
+        <v>14</v>
+      </c>
+      <c r="I286" t="s" s="2566">
+        <v>16</v>
+      </c>
+      <c r="J286" t="s" s="2567">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="s" s="2568">
+        <v>452</v>
+      </c>
+      <c r="C287" t="s" s="2569">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="2570">
+        <v>463</v>
+      </c>
+      <c r="E287" t="s" s="2571">
+        <v>13</v>
+      </c>
+      <c r="F287" t="s" s="2572">
+        <v>14</v>
+      </c>
+      <c r="G287" t="s" s="2573">
+        <v>15</v>
+      </c>
+      <c r="H287" t="s" s="2574">
+        <v>14</v>
+      </c>
+      <c r="I287" t="s" s="2575">
+        <v>16</v>
+      </c>
+      <c r="J287" t="s" s="2576">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="s" s="2577">
+        <v>452</v>
+      </c>
+      <c r="C288" t="s" s="2578">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="2579">
+        <v>465</v>
+      </c>
+      <c r="E288" t="s" s="2580">
+        <v>13</v>
+      </c>
+      <c r="F288" t="s" s="2581">
+        <v>14</v>
+      </c>
+      <c r="G288" t="s" s="2582">
+        <v>15</v>
+      </c>
+      <c r="H288" t="s" s="2583">
+        <v>14</v>
+      </c>
+      <c r="I288" t="s" s="2584">
+        <v>16</v>
+      </c>
+      <c r="J288" t="s" s="2585">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="s" s="2586">
+        <v>452</v>
+      </c>
+      <c r="C289" t="s" s="2587">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="2588">
+        <v>466</v>
+      </c>
+      <c r="E289" t="s" s="2589">
+        <v>13</v>
+      </c>
+      <c r="F289" t="s" s="2590">
+        <v>14</v>
+      </c>
+      <c r="G289" t="s" s="2591">
+        <v>15</v>
+      </c>
+      <c r="H289" t="s" s="2592">
+        <v>14</v>
+      </c>
+      <c r="I289" t="s" s="2593">
+        <v>16</v>
+      </c>
+      <c r="J289" t="s" s="2594">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="s" s="2595">
+        <v>452</v>
+      </c>
+      <c r="C290" t="s" s="2596">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="2597">
+        <v>468</v>
+      </c>
+      <c r="E290" t="s" s="2598">
+        <v>13</v>
+      </c>
+      <c r="F290" t="s" s="2599">
+        <v>14</v>
+      </c>
+      <c r="G290" t="s" s="2600">
+        <v>15</v>
+      </c>
+      <c r="H290" t="s" s="2601">
+        <v>14</v>
+      </c>
+      <c r="I290" t="s" s="2602">
+        <v>16</v>
+      </c>
+      <c r="J290" t="s" s="2603">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="s" s="2604">
+        <v>452</v>
+      </c>
+      <c r="C291" t="s" s="2605">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="2606">
+        <v>470</v>
+      </c>
+      <c r="E291" t="s" s="2607">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s" s="2608">
+        <v>14</v>
+      </c>
+      <c r="G291" t="s" s="2609">
+        <v>15</v>
+      </c>
+      <c r="H291" t="s" s="2610">
+        <v>14</v>
+      </c>
+      <c r="I291" t="s" s="2611">
+        <v>16</v>
+      </c>
+      <c r="J291" t="s" s="2612">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="s" s="2613">
+        <v>452</v>
+      </c>
+      <c r="C292" t="s" s="2614">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="2615">
+        <v>472</v>
+      </c>
+      <c r="E292" t="s" s="2616">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s" s="2617">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s" s="2618">
+        <v>15</v>
+      </c>
+      <c r="H292" t="s" s="2619">
+        <v>14</v>
+      </c>
+      <c r="I292" t="s" s="2620">
+        <v>16</v>
+      </c>
+      <c r="J292" t="s" s="2621">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="s" s="2622">
+        <v>452</v>
+      </c>
+      <c r="C293" t="s" s="2623">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="2624">
+        <v>474</v>
+      </c>
+      <c r="E293" t="s" s="2625">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s" s="2626">
+        <v>14</v>
+      </c>
+      <c r="G293" t="s" s="2627">
+        <v>15</v>
+      </c>
+      <c r="H293" t="s" s="2628">
+        <v>14</v>
+      </c>
+      <c r="I293" t="s" s="2629">
+        <v>16</v>
+      </c>
+      <c r="J293" t="s" s="2630">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="s" s="2631">
+        <v>452</v>
+      </c>
+      <c r="C294" t="s" s="2632">
+        <v>24</v>
+      </c>
+      <c r="D294" t="s" s="2633">
+        <v>476</v>
+      </c>
+      <c r="E294" t="s" s="2634">
+        <v>13</v>
+      </c>
+      <c r="F294" t="s" s="2635">
+        <v>14</v>
+      </c>
+      <c r="G294" t="s" s="2636">
+        <v>15</v>
+      </c>
+      <c r="H294" t="s" s="2637">
+        <v>14</v>
+      </c>
+      <c r="I294" t="s" s="2638">
+        <v>16</v>
+      </c>
+      <c r="J294" t="s" s="2639">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="s" s="2640">
+        <v>452</v>
+      </c>
+      <c r="C295" t="s" s="2641">
+        <v>24</v>
+      </c>
+      <c r="D295" t="s" s="2642">
+        <v>476</v>
+      </c>
+      <c r="E295" t="s" s="2643">
+        <v>13</v>
+      </c>
+      <c r="F295" t="s" s="2644">
+        <v>14</v>
+      </c>
+      <c r="G295" t="s" s="2645">
+        <v>15</v>
+      </c>
+      <c r="H295" t="s" s="2646">
+        <v>14</v>
+      </c>
+      <c r="I295" t="s" s="2647">
+        <v>16</v>
+      </c>
+      <c r="J295" t="s" s="2648">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="s" s="2649">
+        <v>452</v>
+      </c>
+      <c r="C296" t="s" s="2650">
+        <v>24</v>
+      </c>
+      <c r="D296" t="s" s="2651">
+        <v>477</v>
+      </c>
+      <c r="E296" t="s" s="2652">
+        <v>13</v>
+      </c>
+      <c r="F296" t="s" s="2653">
+        <v>14</v>
+      </c>
+      <c r="G296" t="s" s="2654">
+        <v>15</v>
+      </c>
+      <c r="H296" t="s" s="2655">
+        <v>14</v>
+      </c>
+      <c r="I296" t="s" s="2656">
+        <v>16</v>
+      </c>
+      <c r="J296" t="s" s="2657">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="s" s="2658">
+        <v>452</v>
+      </c>
+      <c r="C297" t="s" s="2659">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="2660">
+        <v>478</v>
+      </c>
+      <c r="E297" t="s" s="2661">
+        <v>13</v>
+      </c>
+      <c r="F297" t="s" s="2662">
+        <v>14</v>
+      </c>
+      <c r="G297" t="s" s="2663">
+        <v>15</v>
+      </c>
+      <c r="H297" t="s" s="2664">
+        <v>14</v>
+      </c>
+      <c r="I297" t="s" s="2665">
+        <v>16</v>
+      </c>
+      <c r="J297" t="s" s="2666">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="s" s="2667">
+        <v>452</v>
+      </c>
+      <c r="C298" t="s" s="2668">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="2669">
+        <v>480</v>
+      </c>
+      <c r="E298" t="s" s="2670">
+        <v>13</v>
+      </c>
+      <c r="F298" t="s" s="2671">
+        <v>14</v>
+      </c>
+      <c r="G298" t="s" s="2672">
+        <v>15</v>
+      </c>
+      <c r="H298" t="s" s="2673">
+        <v>14</v>
+      </c>
+      <c r="I298" t="s" s="2674">
+        <v>16</v>
+      </c>
+      <c r="J298" t="s" s="2675">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="s" s="2676">
+        <v>452</v>
+      </c>
+      <c r="C299" t="s" s="2677">
+        <v>24</v>
+      </c>
+      <c r="D299" t="s" s="2678">
+        <v>482</v>
+      </c>
+      <c r="E299" t="s" s="2679">
+        <v>13</v>
+      </c>
+      <c r="F299" t="s" s="2680">
+        <v>14</v>
+      </c>
+      <c r="G299" t="s" s="2681">
+        <v>15</v>
+      </c>
+      <c r="H299" t="s" s="2682">
+        <v>14</v>
+      </c>
+      <c r="I299" t="s" s="2683">
+        <v>16</v>
+      </c>
+      <c r="J299" t="s" s="2684">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="s" s="2685">
+        <v>452</v>
+      </c>
+      <c r="C300" t="s" s="2686">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="2687">
+        <v>483</v>
+      </c>
+      <c r="E300" t="s" s="2688">
+        <v>13</v>
+      </c>
+      <c r="F300" t="s" s="2689">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s" s="2690">
+        <v>15</v>
+      </c>
+      <c r="H300" t="s" s="2691">
+        <v>14</v>
+      </c>
+      <c r="I300" t="s" s="2692">
+        <v>16</v>
+      </c>
+      <c r="J300" t="s" s="2693">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="s" s="2694">
+        <v>452</v>
+      </c>
+      <c r="C301" t="s" s="2695">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="2696">
+        <v>484</v>
+      </c>
+      <c r="E301" t="s" s="2697">
+        <v>13</v>
+      </c>
+      <c r="F301" t="s" s="2698">
+        <v>14</v>
+      </c>
+      <c r="G301" t="s" s="2699">
+        <v>15</v>
+      </c>
+      <c r="H301" t="s" s="2700">
+        <v>14</v>
+      </c>
+      <c r="I301" t="s" s="2701">
+        <v>16</v>
+      </c>
+      <c r="J301" t="s" s="2702">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="s" s="2703">
+        <v>452</v>
+      </c>
+      <c r="C302" t="s" s="2704">
+        <v>24</v>
+      </c>
+      <c r="D302" t="s" s="2705">
+        <v>486</v>
+      </c>
+      <c r="E302" t="s" s="2706">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s" s="2707">
+        <v>14</v>
+      </c>
+      <c r="G302" t="s" s="2708">
+        <v>15</v>
+      </c>
+      <c r="H302" t="s" s="2709">
+        <v>14</v>
+      </c>
+      <c r="I302" t="s" s="2710">
+        <v>16</v>
+      </c>
+      <c r="J302" t="s" s="2711">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="s" s="2712">
+        <v>452</v>
+      </c>
+      <c r="C303" t="s" s="2713">
+        <v>24</v>
+      </c>
+      <c r="D303" t="s" s="2714">
+        <v>487</v>
+      </c>
+      <c r="E303" t="s" s="2715">
+        <v>13</v>
+      </c>
+      <c r="F303" t="s" s="2716">
+        <v>14</v>
+      </c>
+      <c r="G303" t="s" s="2717">
+        <v>15</v>
+      </c>
+      <c r="H303" t="s" s="2718">
+        <v>14</v>
+      </c>
+      <c r="I303" t="s" s="2719">
+        <v>16</v>
+      </c>
+      <c r="J303" t="s" s="2720">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="s" s="2721">
+        <v>452</v>
+      </c>
+      <c r="C304" t="s" s="2722">
+        <v>24</v>
+      </c>
+      <c r="D304" t="s" s="2723">
+        <v>488</v>
+      </c>
+      <c r="E304" t="s" s="2724">
+        <v>13</v>
+      </c>
+      <c r="F304" t="s" s="2725">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s" s="2726">
+        <v>15</v>
+      </c>
+      <c r="H304" t="s" s="2727">
+        <v>14</v>
+      </c>
+      <c r="I304" t="s" s="2728">
+        <v>16</v>
+      </c>
+      <c r="J304" t="s" s="2729">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="s" s="2730">
+        <v>452</v>
+      </c>
+      <c r="C305" t="s" s="2731">
+        <v>24</v>
+      </c>
+      <c r="D305" t="s" s="2732">
+        <v>488</v>
+      </c>
+      <c r="E305" t="s" s="2733">
+        <v>13</v>
+      </c>
+      <c r="F305" t="s" s="2734">
+        <v>14</v>
+      </c>
+      <c r="G305" t="s" s="2735">
+        <v>15</v>
+      </c>
+      <c r="H305" t="s" s="2736">
+        <v>14</v>
+      </c>
+      <c r="I305" t="s" s="2737">
+        <v>16</v>
+      </c>
+      <c r="J305" t="s" s="2738">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="s" s="2739">
+        <v>452</v>
+      </c>
+      <c r="C306" t="s" s="2740">
+        <v>24</v>
+      </c>
+      <c r="D306" t="s" s="2741">
+        <v>489</v>
+      </c>
+      <c r="E306" t="s" s="2742">
+        <v>13</v>
+      </c>
+      <c r="F306" t="s" s="2743">
+        <v>14</v>
+      </c>
+      <c r="G306" t="s" s="2744">
+        <v>15</v>
+      </c>
+      <c r="H306" t="s" s="2745">
+        <v>14</v>
+      </c>
+      <c r="I306" t="s" s="2746">
+        <v>16</v>
+      </c>
+      <c r="J306" t="s" s="2747">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="s" s="2748">
+        <v>452</v>
+      </c>
+      <c r="C307" t="s" s="2749">
+        <v>24</v>
+      </c>
+      <c r="D307" t="s" s="2750">
+        <v>490</v>
+      </c>
+      <c r="E307" t="s" s="2751">
+        <v>13</v>
+      </c>
+      <c r="F307" t="s" s="2752">
+        <v>14</v>
+      </c>
+      <c r="G307" t="s" s="2753">
+        <v>15</v>
+      </c>
+      <c r="H307" t="s" s="2754">
+        <v>14</v>
+      </c>
+      <c r="I307" t="s" s="2755">
+        <v>16</v>
+      </c>
+      <c r="J307" t="s" s="2756">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="s" s="2757">
+        <v>452</v>
+      </c>
+      <c r="C308" t="s" s="2758">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="2759">
+        <v>491</v>
+      </c>
+      <c r="E308" t="s" s="2760">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s" s="2761">
+        <v>14</v>
+      </c>
+      <c r="G308" t="s" s="2762">
+        <v>15</v>
+      </c>
+      <c r="H308" t="s" s="2763">
+        <v>14</v>
+      </c>
+      <c r="I308" t="s" s="2764">
+        <v>16</v>
+      </c>
+      <c r="J308" t="s" s="2765">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="s" s="2766">
+        <v>493</v>
+      </c>
+      <c r="C309" t="s" s="2767">
+        <v>24</v>
+      </c>
+      <c r="D309" t="s" s="2768">
+        <v>494</v>
+      </c>
+      <c r="E309" t="s" s="2769">
+        <v>13</v>
+      </c>
+      <c r="F309" t="s" s="2770">
+        <v>14</v>
+      </c>
+      <c r="G309" t="s" s="2771">
+        <v>15</v>
+      </c>
+      <c r="H309" t="s" s="2772">
+        <v>14</v>
+      </c>
+      <c r="I309" t="s" s="2773">
+        <v>16</v>
+      </c>
+      <c r="J309" t="s" s="2774">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="504">
   <si>
     <t>App</t>
   </si>
@@ -1448,6 +1448,84 @@
   </si>
   <si>
     <t>11.12.2025:22:11</t>
+  </si>
+  <si>
+    <t>11.12.2025:22:20</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1</t>
+  </si>
+  <si>
+    <t>12.12.2025:09:41</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1_12_12_2025_09_41.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:09:42</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1_12_12_2025_09_42.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:09:59</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1_12_12_2025_09_59.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:19</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:35</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:38</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1_12_12_2025_12_38.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:39</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:41</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:49</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1_12_12_2025_12_49.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:50</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:52</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1_12_12_2025_12_52.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:54</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:55</t>
+  </si>
+  <si>
+    <t>12.12.2025:12:58</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:44</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:47</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]_12_12_2025_13_47.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:13:56</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2622">
+  <cellXfs count="2784">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4723,6 +4801,168 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -5900,7 +6140,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD292"/>
+  <dimension ref="A1:XFD310"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -30767,6 +31007,528 @@
         <v>14</v>
       </c>
     </row>
+    <row r="293">
+      <c r="B293" t="s" s="2622">
+        <v>474</v>
+      </c>
+      <c r="C293" t="s" s="2623">
+        <v>24</v>
+      </c>
+      <c r="D293" t="s" s="2624">
+        <v>478</v>
+      </c>
+      <c r="E293" t="s" s="2625">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s" s="2626">
+        <v>14</v>
+      </c>
+      <c r="G293" t="s" s="2627">
+        <v>40</v>
+      </c>
+      <c r="H293" t="s" s="2628">
+        <v>14</v>
+      </c>
+      <c r="I293" t="s" s="2629">
+        <v>16</v>
+      </c>
+      <c r="J293" t="s" s="2630">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="s" s="2631">
+        <v>479</v>
+      </c>
+      <c r="C294" t="s" s="2632">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="2633">
+        <v>480</v>
+      </c>
+      <c r="E294" t="s" s="2634">
+        <v>13</v>
+      </c>
+      <c r="F294" t="s" s="2635">
+        <v>14</v>
+      </c>
+      <c r="G294" t="s" s="2636">
+        <v>40</v>
+      </c>
+      <c r="H294" t="s" s="2637">
+        <v>14</v>
+      </c>
+      <c r="I294" t="s" s="2638">
+        <v>16</v>
+      </c>
+      <c r="J294" t="s" s="2639">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="s" s="2640">
+        <v>479</v>
+      </c>
+      <c r="C295" t="s" s="2641">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="2642">
+        <v>482</v>
+      </c>
+      <c r="E295" t="s" s="2643">
+        <v>13</v>
+      </c>
+      <c r="F295" t="s" s="2644">
+        <v>14</v>
+      </c>
+      <c r="G295" t="s" s="2645">
+        <v>40</v>
+      </c>
+      <c r="H295" t="s" s="2646">
+        <v>14</v>
+      </c>
+      <c r="I295" t="s" s="2647">
+        <v>16</v>
+      </c>
+      <c r="J295" t="s" s="2648">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="s" s="2649">
+        <v>479</v>
+      </c>
+      <c r="C296" t="s" s="2650">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="2651">
+        <v>484</v>
+      </c>
+      <c r="E296" t="s" s="2652">
+        <v>13</v>
+      </c>
+      <c r="F296" t="s" s="2653">
+        <v>14</v>
+      </c>
+      <c r="G296" t="s" s="2654">
+        <v>40</v>
+      </c>
+      <c r="H296" t="s" s="2655">
+        <v>14</v>
+      </c>
+      <c r="I296" t="s" s="2656">
+        <v>16</v>
+      </c>
+      <c r="J296" t="s" s="2657">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="s" s="2658">
+        <v>479</v>
+      </c>
+      <c r="C297" t="s" s="2659">
+        <v>24</v>
+      </c>
+      <c r="D297" t="s" s="2660">
+        <v>486</v>
+      </c>
+      <c r="E297" t="s" s="2661">
+        <v>13</v>
+      </c>
+      <c r="F297" t="s" s="2662">
+        <v>14</v>
+      </c>
+      <c r="G297" t="s" s="2663">
+        <v>40</v>
+      </c>
+      <c r="H297" t="s" s="2664">
+        <v>14</v>
+      </c>
+      <c r="I297" t="s" s="2665">
+        <v>16</v>
+      </c>
+      <c r="J297" t="s" s="2666">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="s" s="2667">
+        <v>479</v>
+      </c>
+      <c r="C298" t="s" s="2668">
+        <v>24</v>
+      </c>
+      <c r="D298" t="s" s="2669">
+        <v>487</v>
+      </c>
+      <c r="E298" t="s" s="2670">
+        <v>13</v>
+      </c>
+      <c r="F298" t="s" s="2671">
+        <v>14</v>
+      </c>
+      <c r="G298" t="s" s="2672">
+        <v>40</v>
+      </c>
+      <c r="H298" t="s" s="2673">
+        <v>14</v>
+      </c>
+      <c r="I298" t="s" s="2674">
+        <v>16</v>
+      </c>
+      <c r="J298" t="s" s="2675">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="s" s="2676">
+        <v>479</v>
+      </c>
+      <c r="C299" t="s" s="2677">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="2678">
+        <v>488</v>
+      </c>
+      <c r="E299" t="s" s="2679">
+        <v>13</v>
+      </c>
+      <c r="F299" t="s" s="2680">
+        <v>14</v>
+      </c>
+      <c r="G299" t="s" s="2681">
+        <v>40</v>
+      </c>
+      <c r="H299" t="s" s="2682">
+        <v>14</v>
+      </c>
+      <c r="I299" t="s" s="2683">
+        <v>16</v>
+      </c>
+      <c r="J299" t="s" s="2684">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="s" s="2685">
+        <v>479</v>
+      </c>
+      <c r="C300" t="s" s="2686">
+        <v>24</v>
+      </c>
+      <c r="D300" t="s" s="2687">
+        <v>490</v>
+      </c>
+      <c r="E300" t="s" s="2688">
+        <v>13</v>
+      </c>
+      <c r="F300" t="s" s="2689">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s" s="2690">
+        <v>40</v>
+      </c>
+      <c r="H300" t="s" s="2691">
+        <v>14</v>
+      </c>
+      <c r="I300" t="s" s="2692">
+        <v>16</v>
+      </c>
+      <c r="J300" t="s" s="2693">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="s" s="2694">
+        <v>479</v>
+      </c>
+      <c r="C301" t="s" s="2695">
+        <v>24</v>
+      </c>
+      <c r="D301" t="s" s="2696">
+        <v>491</v>
+      </c>
+      <c r="E301" t="s" s="2697">
+        <v>13</v>
+      </c>
+      <c r="F301" t="s" s="2698">
+        <v>14</v>
+      </c>
+      <c r="G301" t="s" s="2699">
+        <v>40</v>
+      </c>
+      <c r="H301" t="s" s="2700">
+        <v>14</v>
+      </c>
+      <c r="I301" t="s" s="2701">
+        <v>16</v>
+      </c>
+      <c r="J301" t="s" s="2702">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="s" s="2703">
+        <v>479</v>
+      </c>
+      <c r="C302" t="s" s="2704">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="2705">
+        <v>492</v>
+      </c>
+      <c r="E302" t="s" s="2706">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s" s="2707">
+        <v>14</v>
+      </c>
+      <c r="G302" t="s" s="2708">
+        <v>40</v>
+      </c>
+      <c r="H302" t="s" s="2709">
+        <v>14</v>
+      </c>
+      <c r="I302" t="s" s="2710">
+        <v>16</v>
+      </c>
+      <c r="J302" t="s" s="2711">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="s" s="2712">
+        <v>479</v>
+      </c>
+      <c r="C303" t="s" s="2713">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="2714">
+        <v>494</v>
+      </c>
+      <c r="E303" t="s" s="2715">
+        <v>13</v>
+      </c>
+      <c r="F303" t="s" s="2716">
+        <v>14</v>
+      </c>
+      <c r="G303" t="s" s="2717">
+        <v>40</v>
+      </c>
+      <c r="H303" t="s" s="2718">
+        <v>14</v>
+      </c>
+      <c r="I303" t="s" s="2719">
+        <v>16</v>
+      </c>
+      <c r="J303" t="s" s="2720">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="s" s="2721">
+        <v>479</v>
+      </c>
+      <c r="C304" t="s" s="2722">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="2723">
+        <v>495</v>
+      </c>
+      <c r="E304" t="s" s="2724">
+        <v>13</v>
+      </c>
+      <c r="F304" t="s" s="2725">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s" s="2726">
+        <v>40</v>
+      </c>
+      <c r="H304" t="s" s="2727">
+        <v>14</v>
+      </c>
+      <c r="I304" t="s" s="2728">
+        <v>16</v>
+      </c>
+      <c r="J304" t="s" s="2729">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="s" s="2730">
+        <v>479</v>
+      </c>
+      <c r="C305" t="s" s="2731">
+        <v>24</v>
+      </c>
+      <c r="D305" t="s" s="2732">
+        <v>497</v>
+      </c>
+      <c r="E305" t="s" s="2733">
+        <v>13</v>
+      </c>
+      <c r="F305" t="s" s="2734">
+        <v>14</v>
+      </c>
+      <c r="G305" t="s" s="2735">
+        <v>40</v>
+      </c>
+      <c r="H305" t="s" s="2736">
+        <v>14</v>
+      </c>
+      <c r="I305" t="s" s="2737">
+        <v>16</v>
+      </c>
+      <c r="J305" t="s" s="2738">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="s" s="2739">
+        <v>479</v>
+      </c>
+      <c r="C306" t="s" s="2740">
+        <v>24</v>
+      </c>
+      <c r="D306" t="s" s="2741">
+        <v>498</v>
+      </c>
+      <c r="E306" t="s" s="2742">
+        <v>13</v>
+      </c>
+      <c r="F306" t="s" s="2743">
+        <v>14</v>
+      </c>
+      <c r="G306" t="s" s="2744">
+        <v>40</v>
+      </c>
+      <c r="H306" t="s" s="2745">
+        <v>14</v>
+      </c>
+      <c r="I306" t="s" s="2746">
+        <v>16</v>
+      </c>
+      <c r="J306" t="s" s="2747">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="s" s="2748">
+        <v>479</v>
+      </c>
+      <c r="C307" t="s" s="2749">
+        <v>24</v>
+      </c>
+      <c r="D307" t="s" s="2750">
+        <v>499</v>
+      </c>
+      <c r="E307" t="s" s="2751">
+        <v>13</v>
+      </c>
+      <c r="F307" t="s" s="2752">
+        <v>14</v>
+      </c>
+      <c r="G307" t="s" s="2753">
+        <v>40</v>
+      </c>
+      <c r="H307" t="s" s="2754">
+        <v>14</v>
+      </c>
+      <c r="I307" t="s" s="2755">
+        <v>16</v>
+      </c>
+      <c r="J307" t="s" s="2756">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="s" s="2757">
+        <v>364</v>
+      </c>
+      <c r="C308" t="s" s="2758">
+        <v>24</v>
+      </c>
+      <c r="D308" t="s" s="2759">
+        <v>500</v>
+      </c>
+      <c r="E308" t="s" s="2760">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s" s="2761">
+        <v>14</v>
+      </c>
+      <c r="G308" t="s" s="2762">
+        <v>40</v>
+      </c>
+      <c r="H308" t="s" s="2763">
+        <v>14</v>
+      </c>
+      <c r="I308" t="s" s="2764">
+        <v>16</v>
+      </c>
+      <c r="J308" t="s" s="2765">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="s" s="2766">
+        <v>368</v>
+      </c>
+      <c r="C309" t="s" s="2767">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="2768">
+        <v>501</v>
+      </c>
+      <c r="E309" t="s" s="2769">
+        <v>13</v>
+      </c>
+      <c r="F309" t="s" s="2770">
+        <v>14</v>
+      </c>
+      <c r="G309" t="s" s="2771">
+        <v>40</v>
+      </c>
+      <c r="H309" t="s" s="2772">
+        <v>14</v>
+      </c>
+      <c r="I309" t="s" s="2773">
+        <v>16</v>
+      </c>
+      <c r="J309" t="s" s="2774">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="s" s="2775">
+        <v>389</v>
+      </c>
+      <c r="C310" t="s" s="2776">
+        <v>24</v>
+      </c>
+      <c r="D310" t="s" s="2777">
+        <v>503</v>
+      </c>
+      <c r="E310" t="s" s="2778">
+        <v>13</v>
+      </c>
+      <c r="F310" t="s" s="2779">
+        <v>14</v>
+      </c>
+      <c r="G310" t="s" s="2780">
+        <v>40</v>
+      </c>
+      <c r="H310" t="s" s="2781">
+        <v>14</v>
+      </c>
+      <c r="I310" t="s" s="2782">
+        <v>16</v>
+      </c>
+      <c r="J310" t="s" s="2783">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="524">
   <si>
     <t>App</t>
   </si>
@@ -1493,6 +1493,99 @@
   </si>
   <si>
     <t>12.12.2025:13:34</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:42</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_12_12_2025_15_42.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:43</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_12_12_2025_15_43.jpg</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]_12_12_2025_15_43.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:44</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_15_44.jpg</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques-Filter_[WEB]</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques-Filter_[WEB]_12_12_2025_15_44.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:47</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:48</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:51</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Multiple-Filter_Invalid_[WEB]_12_12_2025_15_51.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:52</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:53</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]_12_12_2025_15_53.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:54</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_12_12_2025_15_54.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:57</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]_12_12_2025_15_57.jpg</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:58</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_[WEB]_1</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1_12_12_2025_15_58.jpg</t>
+  </si>
+  <si>
+    <t>12.12.2025:15:59</t>
+  </si>
+  <si>
+    <t>12.12.2025:16:00</t>
+  </si>
+  <si>
+    <t>12.12.2025:16:01</t>
+  </si>
+  <si>
+    <t>12.12.2025:16:02</t>
+  </si>
+  <si>
+    <t>12.12.2025:16:09</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_16_09.jpg</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2712">
+  <cellXfs count="3000">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4867,6 +4960,294 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6035,7 +6416,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD302"/>
+  <dimension ref="A1:XFD334"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -31192,6 +31573,934 @@
         <v>14</v>
       </c>
     </row>
+    <row r="303">
+      <c r="B303" t="s" s="2712">
+        <v>141</v>
+      </c>
+      <c r="C303" t="s" s="2713">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="2714">
+        <v>493</v>
+      </c>
+      <c r="E303" t="s" s="2715">
+        <v>13</v>
+      </c>
+      <c r="F303" t="s" s="2716">
+        <v>14</v>
+      </c>
+      <c r="G303" t="s" s="2717">
+        <v>15</v>
+      </c>
+      <c r="H303" t="s" s="2718">
+        <v>14</v>
+      </c>
+      <c r="I303" t="s" s="2719">
+        <v>16</v>
+      </c>
+      <c r="J303" t="s" s="2720">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="s" s="2721">
+        <v>150</v>
+      </c>
+      <c r="C304" t="s" s="2722">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="2723">
+        <v>495</v>
+      </c>
+      <c r="E304" t="s" s="2724">
+        <v>13</v>
+      </c>
+      <c r="F304" t="s" s="2725">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s" s="2726">
+        <v>15</v>
+      </c>
+      <c r="H304" t="s" s="2727">
+        <v>14</v>
+      </c>
+      <c r="I304" t="s" s="2728">
+        <v>16</v>
+      </c>
+      <c r="J304" t="s" s="2729">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="s" s="2730">
+        <v>168</v>
+      </c>
+      <c r="C305" t="s" s="2731">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="2732">
+        <v>495</v>
+      </c>
+      <c r="E305" t="s" s="2733">
+        <v>13</v>
+      </c>
+      <c r="F305" t="s" s="2734">
+        <v>14</v>
+      </c>
+      <c r="G305" t="s" s="2735">
+        <v>15</v>
+      </c>
+      <c r="H305" t="s" s="2736">
+        <v>14</v>
+      </c>
+      <c r="I305" t="s" s="2737">
+        <v>16</v>
+      </c>
+      <c r="J305" t="s" s="2738">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="s" s="2739">
+        <v>191</v>
+      </c>
+      <c r="C306" t="s" s="2740">
+        <v>24</v>
+      </c>
+      <c r="D306" t="s" s="2741">
+        <v>495</v>
+      </c>
+      <c r="E306" t="s" s="2742">
+        <v>13</v>
+      </c>
+      <c r="F306" t="s" s="2743">
+        <v>14</v>
+      </c>
+      <c r="G306" t="s" s="2744">
+        <v>15</v>
+      </c>
+      <c r="H306" t="s" s="2745">
+        <v>14</v>
+      </c>
+      <c r="I306" t="s" s="2746">
+        <v>16</v>
+      </c>
+      <c r="J306" t="s" s="2747">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="s" s="2748">
+        <v>215</v>
+      </c>
+      <c r="C307" t="s" s="2749">
+        <v>24</v>
+      </c>
+      <c r="D307" t="s" s="2750">
+        <v>498</v>
+      </c>
+      <c r="E307" t="s" s="2751">
+        <v>13</v>
+      </c>
+      <c r="F307" t="s" s="2752">
+        <v>14</v>
+      </c>
+      <c r="G307" t="s" s="2753">
+        <v>15</v>
+      </c>
+      <c r="H307" t="s" s="2754">
+        <v>14</v>
+      </c>
+      <c r="I307" t="s" s="2755">
+        <v>16</v>
+      </c>
+      <c r="J307" t="s" s="2756">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="s" s="2757">
+        <v>499</v>
+      </c>
+      <c r="C308" t="s" s="2758">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="2759">
+        <v>498</v>
+      </c>
+      <c r="E308" t="s" s="2760">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s" s="2761">
+        <v>14</v>
+      </c>
+      <c r="G308" t="s" s="2762">
+        <v>15</v>
+      </c>
+      <c r="H308" t="s" s="2763">
+        <v>14</v>
+      </c>
+      <c r="I308" t="s" s="2764">
+        <v>16</v>
+      </c>
+      <c r="J308" t="s" s="2765">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="s" s="2766">
+        <v>501</v>
+      </c>
+      <c r="C309" t="s" s="2767">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="2768">
+        <v>498</v>
+      </c>
+      <c r="E309" t="s" s="2769">
+        <v>13</v>
+      </c>
+      <c r="F309" t="s" s="2770">
+        <v>14</v>
+      </c>
+      <c r="G309" t="s" s="2771">
+        <v>15</v>
+      </c>
+      <c r="H309" t="s" s="2772">
+        <v>14</v>
+      </c>
+      <c r="I309" t="s" s="2773">
+        <v>16</v>
+      </c>
+      <c r="J309" t="s" s="2774">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="s" s="2775">
+        <v>321</v>
+      </c>
+      <c r="C310" t="s" s="2776">
+        <v>24</v>
+      </c>
+      <c r="D310" t="s" s="2777">
+        <v>503</v>
+      </c>
+      <c r="E310" t="s" s="2778">
+        <v>13</v>
+      </c>
+      <c r="F310" t="s" s="2779">
+        <v>14</v>
+      </c>
+      <c r="G310" t="s" s="2780">
+        <v>15</v>
+      </c>
+      <c r="H310" t="s" s="2781">
+        <v>14</v>
+      </c>
+      <c r="I310" t="s" s="2782">
+        <v>16</v>
+      </c>
+      <c r="J310" t="s" s="2783">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="s" s="2784">
+        <v>268</v>
+      </c>
+      <c r="C311" t="s" s="2785">
+        <v>24</v>
+      </c>
+      <c r="D311" t="s" s="2786">
+        <v>503</v>
+      </c>
+      <c r="E311" t="s" s="2787">
+        <v>13</v>
+      </c>
+      <c r="F311" t="s" s="2788">
+        <v>14</v>
+      </c>
+      <c r="G311" t="s" s="2789">
+        <v>15</v>
+      </c>
+      <c r="H311" t="s" s="2790">
+        <v>14</v>
+      </c>
+      <c r="I311" t="s" s="2791">
+        <v>16</v>
+      </c>
+      <c r="J311" t="s" s="2792">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="s" s="2793">
+        <v>270</v>
+      </c>
+      <c r="C312" t="s" s="2794">
+        <v>24</v>
+      </c>
+      <c r="D312" t="s" s="2795">
+        <v>504</v>
+      </c>
+      <c r="E312" t="s" s="2796">
+        <v>13</v>
+      </c>
+      <c r="F312" t="s" s="2797">
+        <v>14</v>
+      </c>
+      <c r="G312" t="s" s="2798">
+        <v>15</v>
+      </c>
+      <c r="H312" t="s" s="2799">
+        <v>14</v>
+      </c>
+      <c r="I312" t="s" s="2800">
+        <v>16</v>
+      </c>
+      <c r="J312" t="s" s="2801">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="s" s="2802">
+        <v>406</v>
+      </c>
+      <c r="C313" t="s" s="2803">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="2804">
+        <v>505</v>
+      </c>
+      <c r="E313" t="s" s="2805">
+        <v>13</v>
+      </c>
+      <c r="F313" t="s" s="2806">
+        <v>14</v>
+      </c>
+      <c r="G313" t="s" s="2807">
+        <v>15</v>
+      </c>
+      <c r="H313" t="s" s="2808">
+        <v>14</v>
+      </c>
+      <c r="I313" t="s" s="2809">
+        <v>16</v>
+      </c>
+      <c r="J313" t="s" s="2810">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="s" s="2811">
+        <v>28</v>
+      </c>
+      <c r="C314" t="s" s="2812">
+        <v>24</v>
+      </c>
+      <c r="D314" t="s" s="2813">
+        <v>505</v>
+      </c>
+      <c r="E314" t="s" s="2814">
+        <v>13</v>
+      </c>
+      <c r="F314" t="s" s="2815">
+        <v>14</v>
+      </c>
+      <c r="G314" t="s" s="2816">
+        <v>15</v>
+      </c>
+      <c r="H314" t="s" s="2817">
+        <v>14</v>
+      </c>
+      <c r="I314" t="s" s="2818">
+        <v>16</v>
+      </c>
+      <c r="J314" t="s" s="2819">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="s" s="2820">
+        <v>126</v>
+      </c>
+      <c r="C315" t="s" s="2821">
+        <v>24</v>
+      </c>
+      <c r="D315" t="s" s="2822">
+        <v>507</v>
+      </c>
+      <c r="E315" t="s" s="2823">
+        <v>13</v>
+      </c>
+      <c r="F315" t="s" s="2824">
+        <v>14</v>
+      </c>
+      <c r="G315" t="s" s="2825">
+        <v>15</v>
+      </c>
+      <c r="H315" t="s" s="2826">
+        <v>14</v>
+      </c>
+      <c r="I315" t="s" s="2827">
+        <v>16</v>
+      </c>
+      <c r="J315" t="s" s="2828">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="s" s="2829">
+        <v>360</v>
+      </c>
+      <c r="C316" t="s" s="2830">
+        <v>24</v>
+      </c>
+      <c r="D316" t="s" s="2831">
+        <v>507</v>
+      </c>
+      <c r="E316" t="s" s="2832">
+        <v>13</v>
+      </c>
+      <c r="F316" t="s" s="2833">
+        <v>14</v>
+      </c>
+      <c r="G316" t="s" s="2834">
+        <v>15</v>
+      </c>
+      <c r="H316" t="s" s="2835">
+        <v>14</v>
+      </c>
+      <c r="I316" t="s" s="2836">
+        <v>16</v>
+      </c>
+      <c r="J316" t="s" s="2837">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="s" s="2838">
+        <v>361</v>
+      </c>
+      <c r="C317" t="s" s="2839">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="2840">
+        <v>508</v>
+      </c>
+      <c r="E317" t="s" s="2841">
+        <v>13</v>
+      </c>
+      <c r="F317" t="s" s="2842">
+        <v>14</v>
+      </c>
+      <c r="G317" t="s" s="2843">
+        <v>15</v>
+      </c>
+      <c r="H317" t="s" s="2844">
+        <v>14</v>
+      </c>
+      <c r="I317" t="s" s="2845">
+        <v>16</v>
+      </c>
+      <c r="J317" t="s" s="2846">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="s" s="2847">
+        <v>364</v>
+      </c>
+      <c r="C318" t="s" s="2848">
+        <v>24</v>
+      </c>
+      <c r="D318" t="s" s="2849">
+        <v>510</v>
+      </c>
+      <c r="E318" t="s" s="2850">
+        <v>13</v>
+      </c>
+      <c r="F318" t="s" s="2851">
+        <v>14</v>
+      </c>
+      <c r="G318" t="s" s="2852">
+        <v>15</v>
+      </c>
+      <c r="H318" t="s" s="2853">
+        <v>14</v>
+      </c>
+      <c r="I318" t="s" s="2854">
+        <v>16</v>
+      </c>
+      <c r="J318" t="s" s="2855">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="s" s="2856">
+        <v>365</v>
+      </c>
+      <c r="C319" t="s" s="2857">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="2858">
+        <v>510</v>
+      </c>
+      <c r="E319" t="s" s="2859">
+        <v>13</v>
+      </c>
+      <c r="F319" t="s" s="2860">
+        <v>14</v>
+      </c>
+      <c r="G319" t="s" s="2861">
+        <v>15</v>
+      </c>
+      <c r="H319" t="s" s="2862">
+        <v>14</v>
+      </c>
+      <c r="I319" t="s" s="2863">
+        <v>16</v>
+      </c>
+      <c r="J319" t="s" s="2864">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="s" s="2865">
+        <v>368</v>
+      </c>
+      <c r="C320" t="s" s="2866">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="2867">
+        <v>512</v>
+      </c>
+      <c r="E320" t="s" s="2868">
+        <v>13</v>
+      </c>
+      <c r="F320" t="s" s="2869">
+        <v>14</v>
+      </c>
+      <c r="G320" t="s" s="2870">
+        <v>15</v>
+      </c>
+      <c r="H320" t="s" s="2871">
+        <v>14</v>
+      </c>
+      <c r="I320" t="s" s="2872">
+        <v>16</v>
+      </c>
+      <c r="J320" t="s" s="2873">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="s" s="2874">
+        <v>514</v>
+      </c>
+      <c r="C321" t="s" s="2875">
+        <v>24</v>
+      </c>
+      <c r="D321" t="s" s="2876">
+        <v>515</v>
+      </c>
+      <c r="E321" t="s" s="2877">
+        <v>13</v>
+      </c>
+      <c r="F321" t="s" s="2878">
+        <v>14</v>
+      </c>
+      <c r="G321" t="s" s="2879">
+        <v>15</v>
+      </c>
+      <c r="H321" t="s" s="2880">
+        <v>14</v>
+      </c>
+      <c r="I321" t="s" s="2881">
+        <v>16</v>
+      </c>
+      <c r="J321" t="s" s="2882">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="s" s="2883">
+        <v>10</v>
+      </c>
+      <c r="C322" t="s" s="2884">
+        <v>24</v>
+      </c>
+      <c r="D322" t="s" s="2885">
+        <v>515</v>
+      </c>
+      <c r="E322" t="s" s="2886">
+        <v>13</v>
+      </c>
+      <c r="F322" t="s" s="2887">
+        <v>14</v>
+      </c>
+      <c r="G322" t="s" s="2888">
+        <v>15</v>
+      </c>
+      <c r="H322" t="s" s="2889">
+        <v>14</v>
+      </c>
+      <c r="I322" t="s" s="2890">
+        <v>16</v>
+      </c>
+      <c r="J322" t="s" s="2891">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="s" s="2892">
+        <v>516</v>
+      </c>
+      <c r="C323" t="s" s="2893">
+        <v>24</v>
+      </c>
+      <c r="D323" t="s" s="2894">
+        <v>515</v>
+      </c>
+      <c r="E323" t="s" s="2895">
+        <v>13</v>
+      </c>
+      <c r="F323" t="s" s="2896">
+        <v>14</v>
+      </c>
+      <c r="G323" t="s" s="2897">
+        <v>15</v>
+      </c>
+      <c r="H323" t="s" s="2898">
+        <v>14</v>
+      </c>
+      <c r="I323" t="s" s="2899">
+        <v>16</v>
+      </c>
+      <c r="J323" t="s" s="2900">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="s" s="2901">
+        <v>422</v>
+      </c>
+      <c r="C324" t="s" s="2902">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="2903">
+        <v>515</v>
+      </c>
+      <c r="E324" t="s" s="2904">
+        <v>13</v>
+      </c>
+      <c r="F324" t="s" s="2905">
+        <v>14</v>
+      </c>
+      <c r="G324" t="s" s="2906">
+        <v>15</v>
+      </c>
+      <c r="H324" t="s" s="2907">
+        <v>14</v>
+      </c>
+      <c r="I324" t="s" s="2908">
+        <v>16</v>
+      </c>
+      <c r="J324" t="s" s="2909">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" t="s" s="2910">
+        <v>458</v>
+      </c>
+      <c r="C325" t="s" s="2911">
+        <v>24</v>
+      </c>
+      <c r="D325" t="s" s="2912">
+        <v>518</v>
+      </c>
+      <c r="E325" t="s" s="2913">
+        <v>13</v>
+      </c>
+      <c r="F325" t="s" s="2914">
+        <v>14</v>
+      </c>
+      <c r="G325" t="s" s="2915">
+        <v>15</v>
+      </c>
+      <c r="H325" t="s" s="2916">
+        <v>14</v>
+      </c>
+      <c r="I325" t="s" s="2917">
+        <v>16</v>
+      </c>
+      <c r="J325" t="s" s="2918">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="s" s="2919">
+        <v>474</v>
+      </c>
+      <c r="C326" t="s" s="2920">
+        <v>24</v>
+      </c>
+      <c r="D326" t="s" s="2921">
+        <v>518</v>
+      </c>
+      <c r="E326" t="s" s="2922">
+        <v>13</v>
+      </c>
+      <c r="F326" t="s" s="2923">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s" s="2924">
+        <v>15</v>
+      </c>
+      <c r="H326" t="s" s="2925">
+        <v>14</v>
+      </c>
+      <c r="I326" t="s" s="2926">
+        <v>16</v>
+      </c>
+      <c r="J326" t="s" s="2927">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="s" s="2928">
+        <v>469</v>
+      </c>
+      <c r="C327" t="s" s="2929">
+        <v>24</v>
+      </c>
+      <c r="D327" t="s" s="2930">
+        <v>519</v>
+      </c>
+      <c r="E327" t="s" s="2931">
+        <v>13</v>
+      </c>
+      <c r="F327" t="s" s="2932">
+        <v>14</v>
+      </c>
+      <c r="G327" t="s" s="2933">
+        <v>15</v>
+      </c>
+      <c r="H327" t="s" s="2934">
+        <v>14</v>
+      </c>
+      <c r="I327" t="s" s="2935">
+        <v>16</v>
+      </c>
+      <c r="J327" t="s" s="2936">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="s" s="2937">
+        <v>41</v>
+      </c>
+      <c r="C328" t="s" s="2938">
+        <v>24</v>
+      </c>
+      <c r="D328" t="s" s="2939">
+        <v>519</v>
+      </c>
+      <c r="E328" t="s" s="2940">
+        <v>13</v>
+      </c>
+      <c r="F328" t="s" s="2941">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s" s="2942">
+        <v>15</v>
+      </c>
+      <c r="H328" t="s" s="2943">
+        <v>14</v>
+      </c>
+      <c r="I328" t="s" s="2944">
+        <v>16</v>
+      </c>
+      <c r="J328" t="s" s="2945">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" t="s" s="2946">
+        <v>388</v>
+      </c>
+      <c r="C329" t="s" s="2947">
+        <v>24</v>
+      </c>
+      <c r="D329" t="s" s="2948">
+        <v>519</v>
+      </c>
+      <c r="E329" t="s" s="2949">
+        <v>13</v>
+      </c>
+      <c r="F329" t="s" s="2950">
+        <v>14</v>
+      </c>
+      <c r="G329" t="s" s="2951">
+        <v>15</v>
+      </c>
+      <c r="H329" t="s" s="2952">
+        <v>14</v>
+      </c>
+      <c r="I329" t="s" s="2953">
+        <v>16</v>
+      </c>
+      <c r="J329" t="s" s="2954">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="s" s="2955">
+        <v>478</v>
+      </c>
+      <c r="C330" t="s" s="2956">
+        <v>24</v>
+      </c>
+      <c r="D330" t="s" s="2957">
+        <v>519</v>
+      </c>
+      <c r="E330" t="s" s="2958">
+        <v>13</v>
+      </c>
+      <c r="F330" t="s" s="2959">
+        <v>14</v>
+      </c>
+      <c r="G330" t="s" s="2960">
+        <v>15</v>
+      </c>
+      <c r="H330" t="s" s="2961">
+        <v>14</v>
+      </c>
+      <c r="I330" t="s" s="2962">
+        <v>16</v>
+      </c>
+      <c r="J330" t="s" s="2963">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="s" s="2964">
+        <v>389</v>
+      </c>
+      <c r="C331" t="s" s="2965">
+        <v>24</v>
+      </c>
+      <c r="D331" t="s" s="2966">
+        <v>520</v>
+      </c>
+      <c r="E331" t="s" s="2967">
+        <v>13</v>
+      </c>
+      <c r="F331" t="s" s="2968">
+        <v>14</v>
+      </c>
+      <c r="G331" t="s" s="2969">
+        <v>15</v>
+      </c>
+      <c r="H331" t="s" s="2970">
+        <v>14</v>
+      </c>
+      <c r="I331" t="s" s="2971">
+        <v>16</v>
+      </c>
+      <c r="J331" t="s" s="2972">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="s" s="2973">
+        <v>391</v>
+      </c>
+      <c r="C332" t="s" s="2974">
+        <v>24</v>
+      </c>
+      <c r="D332" t="s" s="2975">
+        <v>520</v>
+      </c>
+      <c r="E332" t="s" s="2976">
+        <v>13</v>
+      </c>
+      <c r="F332" t="s" s="2977">
+        <v>14</v>
+      </c>
+      <c r="G332" t="s" s="2978">
+        <v>15</v>
+      </c>
+      <c r="H332" t="s" s="2979">
+        <v>14</v>
+      </c>
+      <c r="I332" t="s" s="2980">
+        <v>16</v>
+      </c>
+      <c r="J332" t="s" s="2981">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="s" s="2982">
+        <v>393</v>
+      </c>
+      <c r="C333" t="s" s="2983">
+        <v>24</v>
+      </c>
+      <c r="D333" t="s" s="2984">
+        <v>521</v>
+      </c>
+      <c r="E333" t="s" s="2985">
+        <v>13</v>
+      </c>
+      <c r="F333" t="s" s="2986">
+        <v>14</v>
+      </c>
+      <c r="G333" t="s" s="2987">
+        <v>15</v>
+      </c>
+      <c r="H333" t="s" s="2988">
+        <v>14</v>
+      </c>
+      <c r="I333" t="s" s="2989">
+        <v>16</v>
+      </c>
+      <c r="J333" t="s" s="2990">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="s" s="2991">
+        <v>499</v>
+      </c>
+      <c r="C334" t="s" s="2992">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="2993">
+        <v>522</v>
+      </c>
+      <c r="E334" t="s" s="2994">
+        <v>13</v>
+      </c>
+      <c r="F334" t="s" s="2995">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s" s="2996">
+        <v>15</v>
+      </c>
+      <c r="H334" t="s" s="2997">
+        <v>14</v>
+      </c>
+      <c r="I334" t="s" s="2998">
+        <v>16</v>
+      </c>
+      <c r="J334" t="s" s="2999">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="574">
   <si>
     <t>App</t>
   </si>
@@ -1586,6 +1586,156 @@
   </si>
   <si>
     <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_12_12_2025_16_09.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:10:31</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_15_12_2025_10_31.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:10:33</t>
+  </si>
+  <si>
+    <t>15.12.2025:10:34</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_15_12_2025_10_34.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:10:45</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]_15_12_2025_10_45.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:10:47</t>
+  </si>
+  <si>
+    <t>15.12.2025:11:40</t>
+  </si>
+  <si>
+    <t>15.12.2025:11:41</t>
+  </si>
+  <si>
+    <t>15.12.2025:11:43</t>
+  </si>
+  <si>
+    <t>15.12.2025:11:44</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]_15_12_2025_11_44.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:11:46</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques-Filter_[WEB]_15_12_2025_11_46.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:31</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:32</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:33</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:35</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:36</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:37</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:40</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]_15_12_2025_12_40.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:41</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:43</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_15_12_2025_12_43.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:46</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]_15_12_2025_12_46.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:47</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:53</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]_15_12_2025_12_53.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:56</t>
+  </si>
+  <si>
+    <t>15.12.2025:12:59</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_15_12_2025_12_58.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:02</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_15_12_2025_13_02.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:12</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_15_12_2025_13_12.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:16</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_15_12_2025_13_16.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:20</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_15_12_2025_13_20.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:25</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:29</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:31</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:32</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:33</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:34</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:35</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3000">
+  <cellXfs count="3342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5248,6 +5398,348 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6416,7 +6908,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD334"/>
+  <dimension ref="A1:XFD372"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -32501,6 +32993,1108 @@
         <v>523</v>
       </c>
     </row>
+    <row r="335">
+      <c r="B335" t="s" s="3000">
+        <v>141</v>
+      </c>
+      <c r="C335" t="s" s="3001">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="3002">
+        <v>524</v>
+      </c>
+      <c r="E335" t="s" s="3003">
+        <v>13</v>
+      </c>
+      <c r="F335" t="s" s="3004">
+        <v>14</v>
+      </c>
+      <c r="G335" t="s" s="3005">
+        <v>128</v>
+      </c>
+      <c r="H335" t="s" s="3006">
+        <v>14</v>
+      </c>
+      <c r="I335" t="s" s="3007">
+        <v>16</v>
+      </c>
+      <c r="J335" t="s" s="3008">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="s" s="3009">
+        <v>141</v>
+      </c>
+      <c r="C336" t="s" s="3010">
+        <v>24</v>
+      </c>
+      <c r="D336" t="s" s="3011">
+        <v>526</v>
+      </c>
+      <c r="E336" t="s" s="3012">
+        <v>13</v>
+      </c>
+      <c r="F336" t="s" s="3013">
+        <v>14</v>
+      </c>
+      <c r="G336" t="s" s="3014">
+        <v>128</v>
+      </c>
+      <c r="H336" t="s" s="3015">
+        <v>14</v>
+      </c>
+      <c r="I336" t="s" s="3016">
+        <v>16</v>
+      </c>
+      <c r="J336" t="s" s="3017">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="s" s="3018">
+        <v>150</v>
+      </c>
+      <c r="C337" t="s" s="3019">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="3020">
+        <v>527</v>
+      </c>
+      <c r="E337" t="s" s="3021">
+        <v>13</v>
+      </c>
+      <c r="F337" t="s" s="3022">
+        <v>14</v>
+      </c>
+      <c r="G337" t="s" s="3023">
+        <v>128</v>
+      </c>
+      <c r="H337" t="s" s="3024">
+        <v>14</v>
+      </c>
+      <c r="I337" t="s" s="3025">
+        <v>16</v>
+      </c>
+      <c r="J337" t="s" s="3026">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="s" s="3027">
+        <v>150</v>
+      </c>
+      <c r="C338" t="s" s="3028">
+        <v>11</v>
+      </c>
+      <c r="D338" t="s" s="3029">
+        <v>529</v>
+      </c>
+      <c r="E338" t="s" s="3030">
+        <v>13</v>
+      </c>
+      <c r="F338" t="s" s="3031">
+        <v>14</v>
+      </c>
+      <c r="G338" t="s" s="3032">
+        <v>128</v>
+      </c>
+      <c r="H338" t="s" s="3033">
+        <v>14</v>
+      </c>
+      <c r="I338" t="s" s="3034">
+        <v>16</v>
+      </c>
+      <c r="J338" t="s" s="3035">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="s" s="3036">
+        <v>150</v>
+      </c>
+      <c r="C339" t="s" s="3037">
+        <v>24</v>
+      </c>
+      <c r="D339" t="s" s="3038">
+        <v>531</v>
+      </c>
+      <c r="E339" t="s" s="3039">
+        <v>13</v>
+      </c>
+      <c r="F339" t="s" s="3040">
+        <v>14</v>
+      </c>
+      <c r="G339" t="s" s="3041">
+        <v>128</v>
+      </c>
+      <c r="H339" t="s" s="3042">
+        <v>14</v>
+      </c>
+      <c r="I339" t="s" s="3043">
+        <v>16</v>
+      </c>
+      <c r="J339" t="s" s="3044">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="s" s="3045">
+        <v>168</v>
+      </c>
+      <c r="C340" t="s" s="3046">
+        <v>24</v>
+      </c>
+      <c r="D340" t="s" s="3047">
+        <v>532</v>
+      </c>
+      <c r="E340" t="s" s="3048">
+        <v>13</v>
+      </c>
+      <c r="F340" t="s" s="3049">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s" s="3050">
+        <v>128</v>
+      </c>
+      <c r="H340" t="s" s="3051">
+        <v>14</v>
+      </c>
+      <c r="I340" t="s" s="3052">
+        <v>16</v>
+      </c>
+      <c r="J340" t="s" s="3053">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="s" s="3054">
+        <v>191</v>
+      </c>
+      <c r="C341" t="s" s="3055">
+        <v>24</v>
+      </c>
+      <c r="D341" t="s" s="3056">
+        <v>533</v>
+      </c>
+      <c r="E341" t="s" s="3057">
+        <v>13</v>
+      </c>
+      <c r="F341" t="s" s="3058">
+        <v>14</v>
+      </c>
+      <c r="G341" t="s" s="3059">
+        <v>128</v>
+      </c>
+      <c r="H341" t="s" s="3060">
+        <v>14</v>
+      </c>
+      <c r="I341" t="s" s="3061">
+        <v>16</v>
+      </c>
+      <c r="J341" t="s" s="3062">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="s" s="3063">
+        <v>215</v>
+      </c>
+      <c r="C342" t="s" s="3064">
+        <v>24</v>
+      </c>
+      <c r="D342" t="s" s="3065">
+        <v>534</v>
+      </c>
+      <c r="E342" t="s" s="3066">
+        <v>13</v>
+      </c>
+      <c r="F342" t="s" s="3067">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s" s="3068">
+        <v>128</v>
+      </c>
+      <c r="H342" t="s" s="3069">
+        <v>14</v>
+      </c>
+      <c r="I342" t="s" s="3070">
+        <v>16</v>
+      </c>
+      <c r="J342" t="s" s="3071">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="s" s="3072">
+        <v>499</v>
+      </c>
+      <c r="C343" t="s" s="3073">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="3074">
+        <v>535</v>
+      </c>
+      <c r="E343" t="s" s="3075">
+        <v>13</v>
+      </c>
+      <c r="F343" t="s" s="3076">
+        <v>14</v>
+      </c>
+      <c r="G343" t="s" s="3077">
+        <v>128</v>
+      </c>
+      <c r="H343" t="s" s="3078">
+        <v>14</v>
+      </c>
+      <c r="I343" t="s" s="3079">
+        <v>16</v>
+      </c>
+      <c r="J343" t="s" s="3080">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="s" s="3081">
+        <v>501</v>
+      </c>
+      <c r="C344" t="s" s="3082">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="3083">
+        <v>537</v>
+      </c>
+      <c r="E344" t="s" s="3084">
+        <v>13</v>
+      </c>
+      <c r="F344" t="s" s="3085">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s" s="3086">
+        <v>128</v>
+      </c>
+      <c r="H344" t="s" s="3087">
+        <v>14</v>
+      </c>
+      <c r="I344" t="s" s="3088">
+        <v>16</v>
+      </c>
+      <c r="J344" t="s" s="3089">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="s" s="3090">
+        <v>321</v>
+      </c>
+      <c r="C345" t="s" s="3091">
+        <v>24</v>
+      </c>
+      <c r="D345" t="s" s="3092">
+        <v>539</v>
+      </c>
+      <c r="E345" t="s" s="3093">
+        <v>13</v>
+      </c>
+      <c r="F345" t="s" s="3094">
+        <v>14</v>
+      </c>
+      <c r="G345" t="s" s="3095">
+        <v>128</v>
+      </c>
+      <c r="H345" t="s" s="3096">
+        <v>14</v>
+      </c>
+      <c r="I345" t="s" s="3097">
+        <v>16</v>
+      </c>
+      <c r="J345" t="s" s="3098">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="s" s="3099">
+        <v>268</v>
+      </c>
+      <c r="C346" t="s" s="3100">
+        <v>24</v>
+      </c>
+      <c r="D346" t="s" s="3101">
+        <v>540</v>
+      </c>
+      <c r="E346" t="s" s="3102">
+        <v>13</v>
+      </c>
+      <c r="F346" t="s" s="3103">
+        <v>14</v>
+      </c>
+      <c r="G346" t="s" s="3104">
+        <v>128</v>
+      </c>
+      <c r="H346" t="s" s="3105">
+        <v>14</v>
+      </c>
+      <c r="I346" t="s" s="3106">
+        <v>16</v>
+      </c>
+      <c r="J346" t="s" s="3107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="s" s="3108">
+        <v>270</v>
+      </c>
+      <c r="C347" t="s" s="3109">
+        <v>24</v>
+      </c>
+      <c r="D347" t="s" s="3110">
+        <v>541</v>
+      </c>
+      <c r="E347" t="s" s="3111">
+        <v>13</v>
+      </c>
+      <c r="F347" t="s" s="3112">
+        <v>14</v>
+      </c>
+      <c r="G347" t="s" s="3113">
+        <v>128</v>
+      </c>
+      <c r="H347" t="s" s="3114">
+        <v>14</v>
+      </c>
+      <c r="I347" t="s" s="3115">
+        <v>16</v>
+      </c>
+      <c r="J347" t="s" s="3116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="s" s="3117">
+        <v>406</v>
+      </c>
+      <c r="C348" t="s" s="3118">
+        <v>24</v>
+      </c>
+      <c r="D348" t="s" s="3119">
+        <v>542</v>
+      </c>
+      <c r="E348" t="s" s="3120">
+        <v>13</v>
+      </c>
+      <c r="F348" t="s" s="3121">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s" s="3122">
+        <v>128</v>
+      </c>
+      <c r="H348" t="s" s="3123">
+        <v>14</v>
+      </c>
+      <c r="I348" t="s" s="3124">
+        <v>16</v>
+      </c>
+      <c r="J348" t="s" s="3125">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="s" s="3126">
+        <v>28</v>
+      </c>
+      <c r="C349" t="s" s="3127">
+        <v>24</v>
+      </c>
+      <c r="D349" t="s" s="3128">
+        <v>543</v>
+      </c>
+      <c r="E349" t="s" s="3129">
+        <v>13</v>
+      </c>
+      <c r="F349" t="s" s="3130">
+        <v>14</v>
+      </c>
+      <c r="G349" t="s" s="3131">
+        <v>128</v>
+      </c>
+      <c r="H349" t="s" s="3132">
+        <v>14</v>
+      </c>
+      <c r="I349" t="s" s="3133">
+        <v>16</v>
+      </c>
+      <c r="J349" t="s" s="3134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="s" s="3135">
+        <v>126</v>
+      </c>
+      <c r="C350" t="s" s="3136">
+        <v>24</v>
+      </c>
+      <c r="D350" t="s" s="3137">
+        <v>544</v>
+      </c>
+      <c r="E350" t="s" s="3138">
+        <v>13</v>
+      </c>
+      <c r="F350" t="s" s="3139">
+        <v>14</v>
+      </c>
+      <c r="G350" t="s" s="3140">
+        <v>128</v>
+      </c>
+      <c r="H350" t="s" s="3141">
+        <v>14</v>
+      </c>
+      <c r="I350" t="s" s="3142">
+        <v>16</v>
+      </c>
+      <c r="J350" t="s" s="3143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="s" s="3144">
+        <v>360</v>
+      </c>
+      <c r="C351" t="s" s="3145">
+        <v>24</v>
+      </c>
+      <c r="D351" t="s" s="3146">
+        <v>544</v>
+      </c>
+      <c r="E351" t="s" s="3147">
+        <v>13</v>
+      </c>
+      <c r="F351" t="s" s="3148">
+        <v>14</v>
+      </c>
+      <c r="G351" t="s" s="3149">
+        <v>128</v>
+      </c>
+      <c r="H351" t="s" s="3150">
+        <v>14</v>
+      </c>
+      <c r="I351" t="s" s="3151">
+        <v>16</v>
+      </c>
+      <c r="J351" t="s" s="3152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" t="s" s="3153">
+        <v>361</v>
+      </c>
+      <c r="C352" t="s" s="3154">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="3155">
+        <v>545</v>
+      </c>
+      <c r="E352" t="s" s="3156">
+        <v>13</v>
+      </c>
+      <c r="F352" t="s" s="3157">
+        <v>14</v>
+      </c>
+      <c r="G352" t="s" s="3158">
+        <v>128</v>
+      </c>
+      <c r="H352" t="s" s="3159">
+        <v>14</v>
+      </c>
+      <c r="I352" t="s" s="3160">
+        <v>16</v>
+      </c>
+      <c r="J352" t="s" s="3161">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" t="s" s="3162">
+        <v>364</v>
+      </c>
+      <c r="C353" t="s" s="3163">
+        <v>24</v>
+      </c>
+      <c r="D353" t="s" s="3164">
+        <v>547</v>
+      </c>
+      <c r="E353" t="s" s="3165">
+        <v>13</v>
+      </c>
+      <c r="F353" t="s" s="3166">
+        <v>14</v>
+      </c>
+      <c r="G353" t="s" s="3167">
+        <v>128</v>
+      </c>
+      <c r="H353" t="s" s="3168">
+        <v>14</v>
+      </c>
+      <c r="I353" t="s" s="3169">
+        <v>16</v>
+      </c>
+      <c r="J353" t="s" s="3170">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" t="s" s="3171">
+        <v>365</v>
+      </c>
+      <c r="C354" t="s" s="3172">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="3173">
+        <v>548</v>
+      </c>
+      <c r="E354" t="s" s="3174">
+        <v>13</v>
+      </c>
+      <c r="F354" t="s" s="3175">
+        <v>14</v>
+      </c>
+      <c r="G354" t="s" s="3176">
+        <v>128</v>
+      </c>
+      <c r="H354" t="s" s="3177">
+        <v>14</v>
+      </c>
+      <c r="I354" t="s" s="3178">
+        <v>16</v>
+      </c>
+      <c r="J354" t="s" s="3179">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="s" s="3180">
+        <v>368</v>
+      </c>
+      <c r="C355" t="s" s="3181">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="3182">
+        <v>550</v>
+      </c>
+      <c r="E355" t="s" s="3183">
+        <v>13</v>
+      </c>
+      <c r="F355" t="s" s="3184">
+        <v>14</v>
+      </c>
+      <c r="G355" t="s" s="3185">
+        <v>128</v>
+      </c>
+      <c r="H355" t="s" s="3186">
+        <v>14</v>
+      </c>
+      <c r="I355" t="s" s="3187">
+        <v>16</v>
+      </c>
+      <c r="J355" t="s" s="3188">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" t="s" s="3189">
+        <v>514</v>
+      </c>
+      <c r="C356" t="s" s="3190">
+        <v>24</v>
+      </c>
+      <c r="D356" t="s" s="3191">
+        <v>552</v>
+      </c>
+      <c r="E356" t="s" s="3192">
+        <v>13</v>
+      </c>
+      <c r="F356" t="s" s="3193">
+        <v>14</v>
+      </c>
+      <c r="G356" t="s" s="3194">
+        <v>128</v>
+      </c>
+      <c r="H356" t="s" s="3195">
+        <v>14</v>
+      </c>
+      <c r="I356" t="s" s="3196">
+        <v>16</v>
+      </c>
+      <c r="J356" t="s" s="3197">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" t="s" s="3198">
+        <v>361</v>
+      </c>
+      <c r="C357" t="s" s="3199">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="3200">
+        <v>553</v>
+      </c>
+      <c r="E357" t="s" s="3201">
+        <v>13</v>
+      </c>
+      <c r="F357" t="s" s="3202">
+        <v>14</v>
+      </c>
+      <c r="G357" t="s" s="3203">
+        <v>128</v>
+      </c>
+      <c r="H357" t="s" s="3204">
+        <v>14</v>
+      </c>
+      <c r="I357" t="s" s="3205">
+        <v>16</v>
+      </c>
+      <c r="J357" t="s" s="3206">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="s" s="3207">
+        <v>364</v>
+      </c>
+      <c r="C358" t="s" s="3208">
+        <v>24</v>
+      </c>
+      <c r="D358" t="s" s="3209">
+        <v>555</v>
+      </c>
+      <c r="E358" t="s" s="3210">
+        <v>13</v>
+      </c>
+      <c r="F358" t="s" s="3211">
+        <v>14</v>
+      </c>
+      <c r="G358" t="s" s="3212">
+        <v>128</v>
+      </c>
+      <c r="H358" t="s" s="3213">
+        <v>14</v>
+      </c>
+      <c r="I358" t="s" s="3214">
+        <v>16</v>
+      </c>
+      <c r="J358" t="s" s="3215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="s" s="3216">
+        <v>365</v>
+      </c>
+      <c r="C359" t="s" s="3217">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="3218">
+        <v>556</v>
+      </c>
+      <c r="E359" t="s" s="3219">
+        <v>13</v>
+      </c>
+      <c r="F359" t="s" s="3220">
+        <v>14</v>
+      </c>
+      <c r="G359" t="s" s="3221">
+        <v>128</v>
+      </c>
+      <c r="H359" t="s" s="3222">
+        <v>14</v>
+      </c>
+      <c r="I359" t="s" s="3223">
+        <v>16</v>
+      </c>
+      <c r="J359" t="s" s="3224">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="s" s="3225">
+        <v>365</v>
+      </c>
+      <c r="C360" t="s" s="3226">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="3227">
+        <v>558</v>
+      </c>
+      <c r="E360" t="s" s="3228">
+        <v>13</v>
+      </c>
+      <c r="F360" t="s" s="3229">
+        <v>14</v>
+      </c>
+      <c r="G360" t="s" s="3230">
+        <v>128</v>
+      </c>
+      <c r="H360" t="s" s="3231">
+        <v>14</v>
+      </c>
+      <c r="I360" t="s" s="3232">
+        <v>16</v>
+      </c>
+      <c r="J360" t="s" s="3233">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" t="s" s="3234">
+        <v>365</v>
+      </c>
+      <c r="C361" t="s" s="3235">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="3236">
+        <v>560</v>
+      </c>
+      <c r="E361" t="s" s="3237">
+        <v>13</v>
+      </c>
+      <c r="F361" t="s" s="3238">
+        <v>14</v>
+      </c>
+      <c r="G361" t="s" s="3239">
+        <v>128</v>
+      </c>
+      <c r="H361" t="s" s="3240">
+        <v>14</v>
+      </c>
+      <c r="I361" t="s" s="3241">
+        <v>16</v>
+      </c>
+      <c r="J361" t="s" s="3242">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="s" s="3243">
+        <v>365</v>
+      </c>
+      <c r="C362" t="s" s="3244">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="3245">
+        <v>562</v>
+      </c>
+      <c r="E362" t="s" s="3246">
+        <v>13</v>
+      </c>
+      <c r="F362" t="s" s="3247">
+        <v>14</v>
+      </c>
+      <c r="G362" t="s" s="3248">
+        <v>128</v>
+      </c>
+      <c r="H362" t="s" s="3249">
+        <v>14</v>
+      </c>
+      <c r="I362" t="s" s="3250">
+        <v>16</v>
+      </c>
+      <c r="J362" t="s" s="3251">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="s" s="3252">
+        <v>365</v>
+      </c>
+      <c r="C363" t="s" s="3253">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="3254">
+        <v>564</v>
+      </c>
+      <c r="E363" t="s" s="3255">
+        <v>13</v>
+      </c>
+      <c r="F363" t="s" s="3256">
+        <v>14</v>
+      </c>
+      <c r="G363" t="s" s="3257">
+        <v>128</v>
+      </c>
+      <c r="H363" t="s" s="3258">
+        <v>14</v>
+      </c>
+      <c r="I363" t="s" s="3259">
+        <v>16</v>
+      </c>
+      <c r="J363" t="s" s="3260">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="s" s="3261">
+        <v>365</v>
+      </c>
+      <c r="C364" t="s" s="3262">
+        <v>24</v>
+      </c>
+      <c r="D364" t="s" s="3263">
+        <v>566</v>
+      </c>
+      <c r="E364" t="s" s="3264">
+        <v>13</v>
+      </c>
+      <c r="F364" t="s" s="3265">
+        <v>14</v>
+      </c>
+      <c r="G364" t="s" s="3266">
+        <v>128</v>
+      </c>
+      <c r="H364" t="s" s="3267">
+        <v>14</v>
+      </c>
+      <c r="I364" t="s" s="3268">
+        <v>16</v>
+      </c>
+      <c r="J364" t="s" s="3269">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" t="s" s="3270">
+        <v>514</v>
+      </c>
+      <c r="C365" t="s" s="3271">
+        <v>24</v>
+      </c>
+      <c r="D365" t="s" s="3272">
+        <v>567</v>
+      </c>
+      <c r="E365" t="s" s="3273">
+        <v>13</v>
+      </c>
+      <c r="F365" t="s" s="3274">
+        <v>14</v>
+      </c>
+      <c r="G365" t="s" s="3275">
+        <v>128</v>
+      </c>
+      <c r="H365" t="s" s="3276">
+        <v>14</v>
+      </c>
+      <c r="I365" t="s" s="3277">
+        <v>16</v>
+      </c>
+      <c r="J365" t="s" s="3278">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="s" s="3279">
+        <v>41</v>
+      </c>
+      <c r="C366" t="s" s="3280">
+        <v>24</v>
+      </c>
+      <c r="D366" t="s" s="3281">
+        <v>568</v>
+      </c>
+      <c r="E366" t="s" s="3282">
+        <v>13</v>
+      </c>
+      <c r="F366" t="s" s="3283">
+        <v>14</v>
+      </c>
+      <c r="G366" t="s" s="3284">
+        <v>128</v>
+      </c>
+      <c r="H366" t="s" s="3285">
+        <v>14</v>
+      </c>
+      <c r="I366" t="s" s="3286">
+        <v>16</v>
+      </c>
+      <c r="J366" t="s" s="3287">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" t="s" s="3288">
+        <v>388</v>
+      </c>
+      <c r="C367" t="s" s="3289">
+        <v>24</v>
+      </c>
+      <c r="D367" t="s" s="3290">
+        <v>569</v>
+      </c>
+      <c r="E367" t="s" s="3291">
+        <v>13</v>
+      </c>
+      <c r="F367" t="s" s="3292">
+        <v>14</v>
+      </c>
+      <c r="G367" t="s" s="3293">
+        <v>128</v>
+      </c>
+      <c r="H367" t="s" s="3294">
+        <v>14</v>
+      </c>
+      <c r="I367" t="s" s="3295">
+        <v>16</v>
+      </c>
+      <c r="J367" t="s" s="3296">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="s" s="3297">
+        <v>478</v>
+      </c>
+      <c r="C368" t="s" s="3298">
+        <v>24</v>
+      </c>
+      <c r="D368" t="s" s="3299">
+        <v>569</v>
+      </c>
+      <c r="E368" t="s" s="3300">
+        <v>13</v>
+      </c>
+      <c r="F368" t="s" s="3301">
+        <v>14</v>
+      </c>
+      <c r="G368" t="s" s="3302">
+        <v>128</v>
+      </c>
+      <c r="H368" t="s" s="3303">
+        <v>14</v>
+      </c>
+      <c r="I368" t="s" s="3304">
+        <v>16</v>
+      </c>
+      <c r="J368" t="s" s="3305">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" t="s" s="3306">
+        <v>389</v>
+      </c>
+      <c r="C369" t="s" s="3307">
+        <v>24</v>
+      </c>
+      <c r="D369" t="s" s="3308">
+        <v>570</v>
+      </c>
+      <c r="E369" t="s" s="3309">
+        <v>13</v>
+      </c>
+      <c r="F369" t="s" s="3310">
+        <v>14</v>
+      </c>
+      <c r="G369" t="s" s="3311">
+        <v>128</v>
+      </c>
+      <c r="H369" t="s" s="3312">
+        <v>14</v>
+      </c>
+      <c r="I369" t="s" s="3313">
+        <v>16</v>
+      </c>
+      <c r="J369" t="s" s="3314">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="s" s="3315">
+        <v>391</v>
+      </c>
+      <c r="C370" t="s" s="3316">
+        <v>24</v>
+      </c>
+      <c r="D370" t="s" s="3317">
+        <v>571</v>
+      </c>
+      <c r="E370" t="s" s="3318">
+        <v>13</v>
+      </c>
+      <c r="F370" t="s" s="3319">
+        <v>14</v>
+      </c>
+      <c r="G370" t="s" s="3320">
+        <v>128</v>
+      </c>
+      <c r="H370" t="s" s="3321">
+        <v>14</v>
+      </c>
+      <c r="I370" t="s" s="3322">
+        <v>16</v>
+      </c>
+      <c r="J370" t="s" s="3323">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" t="s" s="3324">
+        <v>393</v>
+      </c>
+      <c r="C371" t="s" s="3325">
+        <v>24</v>
+      </c>
+      <c r="D371" t="s" s="3326">
+        <v>571</v>
+      </c>
+      <c r="E371" t="s" s="3327">
+        <v>13</v>
+      </c>
+      <c r="F371" t="s" s="3328">
+        <v>14</v>
+      </c>
+      <c r="G371" t="s" s="3329">
+        <v>128</v>
+      </c>
+      <c r="H371" t="s" s="3330">
+        <v>14</v>
+      </c>
+      <c r="I371" t="s" s="3331">
+        <v>16</v>
+      </c>
+      <c r="J371" t="s" s="3332">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" t="s" s="3333">
+        <v>572</v>
+      </c>
+      <c r="C372" t="s" s="3334">
+        <v>24</v>
+      </c>
+      <c r="D372" t="s" s="3335">
+        <v>573</v>
+      </c>
+      <c r="E372" t="s" s="3336">
+        <v>13</v>
+      </c>
+      <c r="F372" t="s" s="3337">
+        <v>14</v>
+      </c>
+      <c r="G372" t="s" s="3338">
+        <v>128</v>
+      </c>
+      <c r="H372" t="s" s="3339">
+        <v>14</v>
+      </c>
+      <c r="I372" t="s" s="3340">
+        <v>16</v>
+      </c>
+      <c r="J372" t="s" s="3341">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="584">
   <si>
     <t>App</t>
   </si>
@@ -1736,6 +1736,36 @@
   </si>
   <si>
     <t>15.12.2025:13:35</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:42</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:43</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:44</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:45</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account-Removal_of_the_favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:46</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account-Removal_of_the_favorite_account_[WEB]_15_12_2025_13_46.jpg</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:49</t>
+  </si>
+  <si>
+    <t>15.12.2025:13:50</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3342">
+  <cellXfs count="3423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5722,6 +5752,87 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -6908,7 +7019,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD372"/>
+  <dimension ref="A1:XFD381"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -34095,6 +34206,267 @@
         <v>14</v>
       </c>
     </row>
+    <row r="373">
+      <c r="B373" t="s" s="3342">
+        <v>516</v>
+      </c>
+      <c r="C373" t="s" s="3343">
+        <v>24</v>
+      </c>
+      <c r="D373" t="s" s="3344">
+        <v>574</v>
+      </c>
+      <c r="E373" t="s" s="3345">
+        <v>13</v>
+      </c>
+      <c r="F373" t="s" s="3346">
+        <v>14</v>
+      </c>
+      <c r="G373" t="s" s="3347">
+        <v>128</v>
+      </c>
+      <c r="H373" t="s" s="3348">
+        <v>14</v>
+      </c>
+      <c r="I373" t="s" s="3349">
+        <v>16</v>
+      </c>
+      <c r="J373" t="s" s="3350">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="s" s="3351">
+        <v>422</v>
+      </c>
+      <c r="C374" t="s" s="3352">
+        <v>24</v>
+      </c>
+      <c r="D374" t="s" s="3353">
+        <v>574</v>
+      </c>
+      <c r="E374" t="s" s="3354">
+        <v>13</v>
+      </c>
+      <c r="F374" t="s" s="3355">
+        <v>14</v>
+      </c>
+      <c r="G374" t="s" s="3356">
+        <v>128</v>
+      </c>
+      <c r="H374" t="s" s="3357">
+        <v>14</v>
+      </c>
+      <c r="I374" t="s" s="3358">
+        <v>16</v>
+      </c>
+      <c r="J374" t="s" s="3359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="s" s="3360">
+        <v>458</v>
+      </c>
+      <c r="C375" t="s" s="3361">
+        <v>24</v>
+      </c>
+      <c r="D375" t="s" s="3362">
+        <v>575</v>
+      </c>
+      <c r="E375" t="s" s="3363">
+        <v>13</v>
+      </c>
+      <c r="F375" t="s" s="3364">
+        <v>14</v>
+      </c>
+      <c r="G375" t="s" s="3365">
+        <v>128</v>
+      </c>
+      <c r="H375" t="s" s="3366">
+        <v>14</v>
+      </c>
+      <c r="I375" t="s" s="3367">
+        <v>16</v>
+      </c>
+      <c r="J375" t="s" s="3368">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="s" s="3369">
+        <v>474</v>
+      </c>
+      <c r="C376" t="s" s="3370">
+        <v>24</v>
+      </c>
+      <c r="D376" t="s" s="3371">
+        <v>576</v>
+      </c>
+      <c r="E376" t="s" s="3372">
+        <v>13</v>
+      </c>
+      <c r="F376" t="s" s="3373">
+        <v>14</v>
+      </c>
+      <c r="G376" t="s" s="3374">
+        <v>128</v>
+      </c>
+      <c r="H376" t="s" s="3375">
+        <v>14</v>
+      </c>
+      <c r="I376" t="s" s="3376">
+        <v>16</v>
+      </c>
+      <c r="J376" t="s" s="3377">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" t="s" s="3378">
+        <v>469</v>
+      </c>
+      <c r="C377" t="s" s="3379">
+        <v>24</v>
+      </c>
+      <c r="D377" t="s" s="3380">
+        <v>577</v>
+      </c>
+      <c r="E377" t="s" s="3381">
+        <v>13</v>
+      </c>
+      <c r="F377" t="s" s="3382">
+        <v>14</v>
+      </c>
+      <c r="G377" t="s" s="3383">
+        <v>128</v>
+      </c>
+      <c r="H377" t="s" s="3384">
+        <v>14</v>
+      </c>
+      <c r="I377" t="s" s="3385">
+        <v>16</v>
+      </c>
+      <c r="J377" t="s" s="3386">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="s" s="3387">
+        <v>578</v>
+      </c>
+      <c r="C378" t="s" s="3388">
+        <v>24</v>
+      </c>
+      <c r="D378" t="s" s="3389">
+        <v>577</v>
+      </c>
+      <c r="E378" t="s" s="3390">
+        <v>13</v>
+      </c>
+      <c r="F378" t="s" s="3391">
+        <v>14</v>
+      </c>
+      <c r="G378" t="s" s="3392">
+        <v>128</v>
+      </c>
+      <c r="H378" t="s" s="3393">
+        <v>14</v>
+      </c>
+      <c r="I378" t="s" s="3394">
+        <v>16</v>
+      </c>
+      <c r="J378" t="s" s="3395">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="s" s="3396">
+        <v>579</v>
+      </c>
+      <c r="C379" t="s" s="3397">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="3398">
+        <v>580</v>
+      </c>
+      <c r="E379" t="s" s="3399">
+        <v>13</v>
+      </c>
+      <c r="F379" t="s" s="3400">
+        <v>14</v>
+      </c>
+      <c r="G379" t="s" s="3401">
+        <v>128</v>
+      </c>
+      <c r="H379" t="s" s="3402">
+        <v>14</v>
+      </c>
+      <c r="I379" t="s" s="3403">
+        <v>16</v>
+      </c>
+      <c r="J379" t="s" s="3404">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="s" s="3405">
+        <v>578</v>
+      </c>
+      <c r="C380" t="s" s="3406">
+        <v>24</v>
+      </c>
+      <c r="D380" t="s" s="3407">
+        <v>582</v>
+      </c>
+      <c r="E380" t="s" s="3408">
+        <v>13</v>
+      </c>
+      <c r="F380" t="s" s="3409">
+        <v>14</v>
+      </c>
+      <c r="G380" t="s" s="3410">
+        <v>128</v>
+      </c>
+      <c r="H380" t="s" s="3411">
+        <v>14</v>
+      </c>
+      <c r="I380" t="s" s="3412">
+        <v>16</v>
+      </c>
+      <c r="J380" t="s" s="3413">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="s" s="3414">
+        <v>579</v>
+      </c>
+      <c r="C381" t="s" s="3415">
+        <v>24</v>
+      </c>
+      <c r="D381" t="s" s="3416">
+        <v>583</v>
+      </c>
+      <c r="E381" t="s" s="3417">
+        <v>13</v>
+      </c>
+      <c r="F381" t="s" s="3418">
+        <v>14</v>
+      </c>
+      <c r="G381" t="s" s="3419">
+        <v>128</v>
+      </c>
+      <c r="H381" t="s" s="3420">
+        <v>14</v>
+      </c>
+      <c r="I381" t="s" s="3421">
+        <v>16</v>
+      </c>
+      <c r="J381" t="s" s="3422">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="592">
   <si>
     <t>App</t>
   </si>
@@ -1736,6 +1736,60 @@
   </si>
   <si>
     <t>15.12.2025:13:35</t>
+  </si>
+  <si>
+    <t>16.12.2025:09:06</t>
+  </si>
+  <si>
+    <t>16.12.2025:09:07</t>
+  </si>
+  <si>
+    <t>16.12.2025:09:09</t>
+  </si>
+  <si>
+    <t>16.12.2025:09:12</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]_16_12_2025_09_12.jpg</t>
+  </si>
+  <si>
+    <t>16.12.2025:09:13</t>
+  </si>
+  <si>
+    <t>16.12.2025:10:28</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_16_12_2025_10_28.jpg</t>
+  </si>
+  <si>
+    <t>16.12.2025:10:31</t>
+  </si>
+  <si>
+    <t>16.12.2025:10:44</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]_16_12_2025_10_44.jpg</t>
+  </si>
+  <si>
+    <t>16.12.2025:10:49</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_16_12_2025_10_49.jpg</t>
+  </si>
+  <si>
+    <t>16.12.2025:11:23</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]_16_12_2025_11_23.jpg</t>
+  </si>
+  <si>
+    <t>16.12.2025:11:27</t>
+  </si>
+  <si>
+    <t>16.12.2025:11:32</t>
+  </si>
+  <si>
+    <t>16.12.2025:11:34</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3342">
+  <cellXfs count="3459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5713,6 +5767,123 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -6908,7 +7079,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD372"/>
+  <dimension ref="A1:XFD385"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -34095,6 +34266,383 @@
         <v>14</v>
       </c>
     </row>
+    <row r="373">
+      <c r="B373" t="s" s="3342">
+        <v>361</v>
+      </c>
+      <c r="C373" t="s" s="3343">
+        <v>24</v>
+      </c>
+      <c r="D373" t="s" s="3344">
+        <v>574</v>
+      </c>
+      <c r="E373" t="s" s="3345">
+        <v>13</v>
+      </c>
+      <c r="F373" t="s" s="3346">
+        <v>14</v>
+      </c>
+      <c r="G373" t="s" s="3347">
+        <v>128</v>
+      </c>
+      <c r="H373" t="s" s="3348">
+        <v>14</v>
+      </c>
+      <c r="I373" t="s" s="3349">
+        <v>16</v>
+      </c>
+      <c r="J373" t="s" s="3350">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="s" s="3351">
+        <v>364</v>
+      </c>
+      <c r="C374" t="s" s="3352">
+        <v>24</v>
+      </c>
+      <c r="D374" t="s" s="3353">
+        <v>575</v>
+      </c>
+      <c r="E374" t="s" s="3354">
+        <v>13</v>
+      </c>
+      <c r="F374" t="s" s="3355">
+        <v>14</v>
+      </c>
+      <c r="G374" t="s" s="3356">
+        <v>128</v>
+      </c>
+      <c r="H374" t="s" s="3357">
+        <v>14</v>
+      </c>
+      <c r="I374" t="s" s="3358">
+        <v>16</v>
+      </c>
+      <c r="J374" t="s" s="3359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="s" s="3360">
+        <v>365</v>
+      </c>
+      <c r="C375" t="s" s="3361">
+        <v>24</v>
+      </c>
+      <c r="D375" t="s" s="3362">
+        <v>576</v>
+      </c>
+      <c r="E375" t="s" s="3363">
+        <v>13</v>
+      </c>
+      <c r="F375" t="s" s="3364">
+        <v>14</v>
+      </c>
+      <c r="G375" t="s" s="3365">
+        <v>128</v>
+      </c>
+      <c r="H375" t="s" s="3366">
+        <v>14</v>
+      </c>
+      <c r="I375" t="s" s="3367">
+        <v>16</v>
+      </c>
+      <c r="J375" t="s" s="3368">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="s" s="3369">
+        <v>368</v>
+      </c>
+      <c r="C376" t="s" s="3370">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="3371">
+        <v>577</v>
+      </c>
+      <c r="E376" t="s" s="3372">
+        <v>13</v>
+      </c>
+      <c r="F376" t="s" s="3373">
+        <v>14</v>
+      </c>
+      <c r="G376" t="s" s="3374">
+        <v>128</v>
+      </c>
+      <c r="H376" t="s" s="3375">
+        <v>14</v>
+      </c>
+      <c r="I376" t="s" s="3376">
+        <v>16</v>
+      </c>
+      <c r="J376" t="s" s="3377">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" t="s" s="3378">
+        <v>514</v>
+      </c>
+      <c r="C377" t="s" s="3379">
+        <v>24</v>
+      </c>
+      <c r="D377" t="s" s="3380">
+        <v>579</v>
+      </c>
+      <c r="E377" t="s" s="3381">
+        <v>13</v>
+      </c>
+      <c r="F377" t="s" s="3382">
+        <v>14</v>
+      </c>
+      <c r="G377" t="s" s="3383">
+        <v>128</v>
+      </c>
+      <c r="H377" t="s" s="3384">
+        <v>14</v>
+      </c>
+      <c r="I377" t="s" s="3385">
+        <v>16</v>
+      </c>
+      <c r="J377" t="s" s="3386">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="s" s="3387">
+        <v>365</v>
+      </c>
+      <c r="C378" t="s" s="3388">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="3389">
+        <v>580</v>
+      </c>
+      <c r="E378" t="s" s="3390">
+        <v>13</v>
+      </c>
+      <c r="F378" t="s" s="3391">
+        <v>14</v>
+      </c>
+      <c r="G378" t="s" s="3392">
+        <v>128</v>
+      </c>
+      <c r="H378" t="s" s="3393">
+        <v>14</v>
+      </c>
+      <c r="I378" t="s" s="3394">
+        <v>16</v>
+      </c>
+      <c r="J378" t="s" s="3395">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="s" s="3396">
+        <v>365</v>
+      </c>
+      <c r="C379" t="s" s="3397">
+        <v>24</v>
+      </c>
+      <c r="D379" t="s" s="3398">
+        <v>582</v>
+      </c>
+      <c r="E379" t="s" s="3399">
+        <v>13</v>
+      </c>
+      <c r="F379" t="s" s="3400">
+        <v>14</v>
+      </c>
+      <c r="G379" t="s" s="3401">
+        <v>128</v>
+      </c>
+      <c r="H379" t="s" s="3402">
+        <v>14</v>
+      </c>
+      <c r="I379" t="s" s="3403">
+        <v>16</v>
+      </c>
+      <c r="J379" t="s" s="3404">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="s" s="3405">
+        <v>365</v>
+      </c>
+      <c r="C380" t="s" s="3406">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s" s="3407">
+        <v>583</v>
+      </c>
+      <c r="E380" t="s" s="3408">
+        <v>13</v>
+      </c>
+      <c r="F380" t="s" s="3409">
+        <v>14</v>
+      </c>
+      <c r="G380" t="s" s="3410">
+        <v>128</v>
+      </c>
+      <c r="H380" t="s" s="3411">
+        <v>14</v>
+      </c>
+      <c r="I380" t="s" s="3412">
+        <v>16</v>
+      </c>
+      <c r="J380" t="s" s="3413">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="s" s="3414">
+        <v>321</v>
+      </c>
+      <c r="C381" t="s" s="3415">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="3416">
+        <v>585</v>
+      </c>
+      <c r="E381" t="s" s="3417">
+        <v>13</v>
+      </c>
+      <c r="F381" t="s" s="3418">
+        <v>14</v>
+      </c>
+      <c r="G381" t="s" s="3419">
+        <v>128</v>
+      </c>
+      <c r="H381" t="s" s="3420">
+        <v>14</v>
+      </c>
+      <c r="I381" t="s" s="3421">
+        <v>16</v>
+      </c>
+      <c r="J381" t="s" s="3422">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" t="s" s="3423">
+        <v>321</v>
+      </c>
+      <c r="C382" t="s" s="3424">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="3425">
+        <v>587</v>
+      </c>
+      <c r="E382" t="s" s="3426">
+        <v>13</v>
+      </c>
+      <c r="F382" t="s" s="3427">
+        <v>14</v>
+      </c>
+      <c r="G382" t="s" s="3428">
+        <v>128</v>
+      </c>
+      <c r="H382" t="s" s="3429">
+        <v>14</v>
+      </c>
+      <c r="I382" t="s" s="3430">
+        <v>16</v>
+      </c>
+      <c r="J382" t="s" s="3431">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="s" s="3432">
+        <v>321</v>
+      </c>
+      <c r="C383" t="s" s="3433">
+        <v>24</v>
+      </c>
+      <c r="D383" t="s" s="3434">
+        <v>589</v>
+      </c>
+      <c r="E383" t="s" s="3435">
+        <v>13</v>
+      </c>
+      <c r="F383" t="s" s="3436">
+        <v>14</v>
+      </c>
+      <c r="G383" t="s" s="3437">
+        <v>128</v>
+      </c>
+      <c r="H383" t="s" s="3438">
+        <v>14</v>
+      </c>
+      <c r="I383" t="s" s="3439">
+        <v>16</v>
+      </c>
+      <c r="J383" t="s" s="3440">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" t="s" s="3441">
+        <v>321</v>
+      </c>
+      <c r="C384" t="s" s="3442">
+        <v>24</v>
+      </c>
+      <c r="D384" t="s" s="3443">
+        <v>590</v>
+      </c>
+      <c r="E384" t="s" s="3444">
+        <v>13</v>
+      </c>
+      <c r="F384" t="s" s="3445">
+        <v>14</v>
+      </c>
+      <c r="G384" t="s" s="3446">
+        <v>128</v>
+      </c>
+      <c r="H384" t="s" s="3447">
+        <v>14</v>
+      </c>
+      <c r="I384" t="s" s="3448">
+        <v>16</v>
+      </c>
+      <c r="J384" t="s" s="3449">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" t="s" s="3450">
+        <v>365</v>
+      </c>
+      <c r="C385" t="s" s="3451">
+        <v>24</v>
+      </c>
+      <c r="D385" t="s" s="3452">
+        <v>591</v>
+      </c>
+      <c r="E385" t="s" s="3453">
+        <v>13</v>
+      </c>
+      <c r="F385" t="s" s="3454">
+        <v>14</v>
+      </c>
+      <c r="G385" t="s" s="3455">
+        <v>128</v>
+      </c>
+      <c r="H385" t="s" s="3456">
+        <v>14</v>
+      </c>
+      <c r="I385" t="s" s="3457">
+        <v>16</v>
+      </c>
+      <c r="J385" t="s" s="3458">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/results/TestResults.xlsx
+++ b/results/TestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="594">
   <si>
     <t>App</t>
   </si>
@@ -1736,6 +1736,66 @@
   </si>
   <si>
     <t>15.12.2025:13:35</t>
+  </si>
+  <si>
+    <t>18.12.2025:12:52</t>
+  </si>
+  <si>
+    <t>18.12.2025:12:54</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:06</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:30</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Header_Display_[WEB]</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:37</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:38</t>
+  </si>
+  <si>
+    <t>Products_Current_Accounts-Cheques_[WEB]</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:39</t>
+  </si>
+  <si>
+    <t>Products_Current_Accounts-Cheques-Filter_[WEB]</t>
+  </si>
+  <si>
+    <t>Products_Current_Accounts-Cheques-Input_Fields-invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:40</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:42</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:43</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:44</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:45</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_List_[WEB]</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Details-Financial_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>18.12.2025:13:46</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Details-Account_Details_[WEB]</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3342">
+  <cellXfs count="3486">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5659,6 +5719,150 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
@@ -6908,7 +7112,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD372"/>
+  <dimension ref="A1:XFD388"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -34095,6 +34299,470 @@
         <v>14</v>
       </c>
     </row>
+    <row r="373">
+      <c r="B373" t="s" s="3342">
+        <v>215</v>
+      </c>
+      <c r="C373" t="s" s="3343">
+        <v>24</v>
+      </c>
+      <c r="D373" t="s" s="3344">
+        <v>574</v>
+      </c>
+      <c r="E373" t="s" s="3345">
+        <v>13</v>
+      </c>
+      <c r="F373" t="s" s="3346">
+        <v>14</v>
+      </c>
+      <c r="G373" t="s" s="3347">
+        <v>128</v>
+      </c>
+      <c r="H373" t="s" s="3348">
+        <v>14</v>
+      </c>
+      <c r="I373" t="s" s="3349">
+        <v>16</v>
+      </c>
+      <c r="J373" t="s" s="3350">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="s" s="3351">
+        <v>215</v>
+      </c>
+      <c r="C374" t="s" s="3352">
+        <v>24</v>
+      </c>
+      <c r="D374" t="s" s="3353">
+        <v>575</v>
+      </c>
+      <c r="E374" t="s" s="3354">
+        <v>13</v>
+      </c>
+      <c r="F374" t="s" s="3355">
+        <v>14</v>
+      </c>
+      <c r="G374" t="s" s="3356">
+        <v>128</v>
+      </c>
+      <c r="H374" t="s" s="3357">
+        <v>14</v>
+      </c>
+      <c r="I374" t="s" s="3358">
+        <v>16</v>
+      </c>
+      <c r="J374" t="s" s="3359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="s" s="3360">
+        <v>215</v>
+      </c>
+      <c r="C375" t="s" s="3361">
+        <v>24</v>
+      </c>
+      <c r="D375" t="s" s="3362">
+        <v>576</v>
+      </c>
+      <c r="E375" t="s" s="3363">
+        <v>13</v>
+      </c>
+      <c r="F375" t="s" s="3364">
+        <v>14</v>
+      </c>
+      <c r="G375" t="s" s="3365">
+        <v>128</v>
+      </c>
+      <c r="H375" t="s" s="3366">
+        <v>14</v>
+      </c>
+      <c r="I375" t="s" s="3367">
+        <v>16</v>
+      </c>
+      <c r="J375" t="s" s="3368">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="s" s="3369">
+        <v>215</v>
+      </c>
+      <c r="C376" t="s" s="3370">
+        <v>24</v>
+      </c>
+      <c r="D376" t="s" s="3371">
+        <v>577</v>
+      </c>
+      <c r="E376" t="s" s="3372">
+        <v>13</v>
+      </c>
+      <c r="F376" t="s" s="3373">
+        <v>14</v>
+      </c>
+      <c r="G376" t="s" s="3374">
+        <v>128</v>
+      </c>
+      <c r="H376" t="s" s="3375">
+        <v>14</v>
+      </c>
+      <c r="I376" t="s" s="3376">
+        <v>16</v>
+      </c>
+      <c r="J376" t="s" s="3377">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" t="s" s="3378">
+        <v>578</v>
+      </c>
+      <c r="C377" t="s" s="3379">
+        <v>24</v>
+      </c>
+      <c r="D377" t="s" s="3380">
+        <v>579</v>
+      </c>
+      <c r="E377" t="s" s="3381">
+        <v>13</v>
+      </c>
+      <c r="F377" t="s" s="3382">
+        <v>14</v>
+      </c>
+      <c r="G377" t="s" s="3383">
+        <v>128</v>
+      </c>
+      <c r="H377" t="s" s="3384">
+        <v>14</v>
+      </c>
+      <c r="I377" t="s" s="3385">
+        <v>16</v>
+      </c>
+      <c r="J377" t="s" s="3386">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="s" s="3387">
+        <v>215</v>
+      </c>
+      <c r="C378" t="s" s="3388">
+        <v>24</v>
+      </c>
+      <c r="D378" t="s" s="3389">
+        <v>580</v>
+      </c>
+      <c r="E378" t="s" s="3390">
+        <v>13</v>
+      </c>
+      <c r="F378" t="s" s="3391">
+        <v>14</v>
+      </c>
+      <c r="G378" t="s" s="3392">
+        <v>128</v>
+      </c>
+      <c r="H378" t="s" s="3393">
+        <v>14</v>
+      </c>
+      <c r="I378" t="s" s="3394">
+        <v>16</v>
+      </c>
+      <c r="J378" t="s" s="3395">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="s" s="3396">
+        <v>581</v>
+      </c>
+      <c r="C379" t="s" s="3397">
+        <v>24</v>
+      </c>
+      <c r="D379" t="s" s="3398">
+        <v>582</v>
+      </c>
+      <c r="E379" t="s" s="3399">
+        <v>13</v>
+      </c>
+      <c r="F379" t="s" s="3400">
+        <v>14</v>
+      </c>
+      <c r="G379" t="s" s="3401">
+        <v>128</v>
+      </c>
+      <c r="H379" t="s" s="3402">
+        <v>14</v>
+      </c>
+      <c r="I379" t="s" s="3403">
+        <v>16</v>
+      </c>
+      <c r="J379" t="s" s="3404">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="s" s="3405">
+        <v>583</v>
+      </c>
+      <c r="C380" t="s" s="3406">
+        <v>24</v>
+      </c>
+      <c r="D380" t="s" s="3407">
+        <v>582</v>
+      </c>
+      <c r="E380" t="s" s="3408">
+        <v>13</v>
+      </c>
+      <c r="F380" t="s" s="3409">
+        <v>14</v>
+      </c>
+      <c r="G380" t="s" s="3410">
+        <v>128</v>
+      </c>
+      <c r="H380" t="s" s="3411">
+        <v>14</v>
+      </c>
+      <c r="I380" t="s" s="3412">
+        <v>16</v>
+      </c>
+      <c r="J380" t="s" s="3413">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="s" s="3414">
+        <v>584</v>
+      </c>
+      <c r="C381" t="s" s="3415">
+        <v>24</v>
+      </c>
+      <c r="D381" t="s" s="3416">
+        <v>585</v>
+      </c>
+      <c r="E381" t="s" s="3417">
+        <v>13</v>
+      </c>
+      <c r="F381" t="s" s="3418">
+        <v>14</v>
+      </c>
+      <c r="G381" t="s" s="3419">
+        <v>128</v>
+      </c>
+      <c r="H381" t="s" s="3420">
+        <v>14</v>
+      </c>
+      <c r="I381" t="s" s="3421">
+        <v>16</v>
+      </c>
+      <c r="J381" t="s" s="3422">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" t="s" s="3423">
+        <v>321</v>
+      </c>
+      <c r="C382" t="s" s="3424">
+        <v>24</v>
+      </c>
+      <c r="D382" t="s" s="3425">
+        <v>586</v>
+      </c>
+      <c r="E382" t="s" s="3426">
+        <v>13</v>
+      </c>
+      <c r="F382" t="s" s="3427">
+        <v>14</v>
+      </c>
+      <c r="G382" t="s" s="3428">
+        <v>128</v>
+      </c>
+      <c r="H382" t="s" s="3429">
+        <v>14</v>
+      </c>
+      <c r="I382" t="s" s="3430">
+        <v>16</v>
+      </c>
+      <c r="J382" t="s" s="3431">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="s" s="3432">
+        <v>268</v>
+      </c>
+      <c r="C383" t="s" s="3433">
+        <v>24</v>
+      </c>
+      <c r="D383" t="s" s="3434">
+        <v>587</v>
+      </c>
+      <c r="E383" t="s" s="3435">
+        <v>13</v>
+      </c>
+      <c r="F383" t="s" s="3436">
+        <v>14</v>
+      </c>
+      <c r="G383" t="s" s="3437">
+        <v>128</v>
+      </c>
+      <c r="H383" t="s" s="3438">
+        <v>14</v>
+      </c>
+      <c r="I383" t="s" s="3439">
+        <v>16</v>
+      </c>
+      <c r="J383" t="s" s="3440">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" t="s" s="3441">
+        <v>270</v>
+      </c>
+      <c r="C384" t="s" s="3442">
+        <v>24</v>
+      </c>
+      <c r="D384" t="s" s="3443">
+        <v>588</v>
+      </c>
+      <c r="E384" t="s" s="3444">
+        <v>13</v>
+      </c>
+      <c r="F384" t="s" s="3445">
+        <v>14</v>
+      </c>
+      <c r="G384" t="s" s="3446">
+        <v>128</v>
+      </c>
+      <c r="H384" t="s" s="3447">
+        <v>14</v>
+      </c>
+      <c r="I384" t="s" s="3448">
+        <v>16</v>
+      </c>
+      <c r="J384" t="s" s="3449">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" t="s" s="3450">
+        <v>406</v>
+      </c>
+      <c r="C385" t="s" s="3451">
+        <v>24</v>
+      </c>
+      <c r="D385" t="s" s="3452">
+        <v>589</v>
+      </c>
+      <c r="E385" t="s" s="3453">
+        <v>13</v>
+      </c>
+      <c r="F385" t="s" s="3454">
+        <v>14</v>
+      </c>
+      <c r="G385" t="s" s="3455">
+        <v>128</v>
+      </c>
+      <c r="H385" t="s" s="3456">
+        <v>14</v>
+      </c>
+      <c r="I385" t="s" s="3457">
+        <v>16</v>
+      </c>
+      <c r="J385" t="s" s="3458">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="B386" t="s" s="3459">
+        <v>590</v>
+      </c>
+      <c r="C386" t="s" s="3460">
+        <v>24</v>
+      </c>
+      <c r="D386" t="s" s="3461">
+        <v>589</v>
+      </c>
+      <c r="E386" t="s" s="3462">
+        <v>13</v>
+      </c>
+      <c r="F386" t="s" s="3463">
+        <v>14</v>
+      </c>
+      <c r="G386" t="s" s="3464">
+        <v>128</v>
+      </c>
+      <c r="H386" t="s" s="3465">
+        <v>14</v>
+      </c>
+      <c r="I386" t="s" s="3466">
+        <v>16</v>
+      </c>
+      <c r="J386" t="s" s="3467">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" t="s" s="3468">
+        <v>591</v>
+      </c>
+      <c r="C387" t="s" s="3469">
+        <v>24</v>
+      </c>
+      <c r="D387" t="s" s="3470">
+        <v>592</v>
+      </c>
+      <c r="E387" t="s" s="3471">
+        <v>13</v>
+      </c>
+      <c r="F387" t="s" s="3472">
+        <v>14</v>
+      </c>
+      <c r="G387" t="s" s="3473">
+        <v>128</v>
+      </c>
+      <c r="H387" t="s" s="3474">
+        <v>14</v>
+      </c>
+      <c r="I387" t="s" s="3475">
+        <v>16</v>
+      </c>
+      <c r="J387" t="s" s="3476">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" t="s" s="3477">
+        <v>593</v>
+      </c>
+      <c r="C388" t="s" s="3478">
+        <v>24</v>
+      </c>
+      <c r="D388" t="s" s="3479">
+        <v>592</v>
+      </c>
+      <c r="E388" t="s" s="3480">
+        <v>13</v>
+      </c>
+      <c r="F388" t="s" s="3481">
+        <v>14</v>
+      </c>
+      <c r="G388" t="s" s="3482">
+        <v>128</v>
+      </c>
+      <c r="H388" t="s" s="3483">
+        <v>14</v>
+      </c>
+      <c r="I388" t="s" s="3484">
+        <v>16</v>
+      </c>
+      <c r="J388" t="s" s="3485">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
